--- a/template-reader/template-reader/staticdata/sampleTemplate.xlsx
+++ b/template-reader/template-reader/staticdata/sampleTemplate.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkabila\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development\github\xl-template-reader\template-reader\template-reader\staticdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" tabRatio="927" firstSheet="7" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" tabRatio="927" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover1" sheetId="20" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="12">Lab!$A$1:$C$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="18">Narrative!$A$1:$M$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="13">PEP!$A$1:$G$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">PMTCT!$A$1:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">PMTCT!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Prevention - PWP'!$A$1:$D$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'Prevention-BCC'!$A$1:$G$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'Prevention-MC'!$A$1:$J$16</definedName>
@@ -56,7 +56,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'Family Planning'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="14">Gender!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="13">PEP!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">PMTCT!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">PMTCT!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="11">'Prevention-BCC'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="10">'Prevention-MC'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="15">SMGL!$1:$1</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="610">
   <si>
     <t>Name of Health Facility</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Total number of infants born to HIV positive women at this site this month</t>
   </si>
   <si>
-    <t>Programme Area 5: Prevention of Mother to Child Transmission (PMTCT)</t>
-  </si>
-  <si>
     <t>18+</t>
   </si>
   <si>
@@ -1109,9 +1106,6 @@
     <t>TB4</t>
   </si>
   <si>
-    <t>TB5</t>
-  </si>
-  <si>
     <t>TB7</t>
   </si>
   <si>
@@ -2617,37 +2611,7 @@
     <t>Number of adults and children initiated on ART 12 months ago (cohort month) including pregnant women on Option B+</t>
   </si>
   <si>
-    <t>Sub-Disaggregation</t>
-  </si>
-  <si>
-    <t>In care but no test Done</t>
-  </si>
-  <si>
-    <t>Lost to follow-up</t>
-  </si>
-  <si>
-    <t>Died</t>
-  </si>
-  <si>
-    <t>Transferred out</t>
-  </si>
-  <si>
-    <t>HIV Negative breastfeeding status unknown</t>
-  </si>
-  <si>
-    <t>Sub-Disaggregation of HIV negative infants</t>
-  </si>
-  <si>
     <t>Number of HIV-exposed infants with a documented outcome by 18 months of age disaggregated by outcome type.</t>
-  </si>
-  <si>
-    <t>HIV positive infants</t>
-  </si>
-  <si>
-    <t>HIV positive infants linked to ART</t>
-  </si>
-  <si>
-    <t>HIV negative infants</t>
   </si>
   <si>
     <t>PMTCT30</t>
@@ -3124,12 +3088,6 @@
     </r>
   </si>
   <si>
-    <t>HIV Negative  not breastfeeding</t>
-  </si>
-  <si>
-    <t>HIV Negative who are still breastfeeding</t>
-  </si>
-  <si>
     <t>25-29</t>
   </si>
   <si>
@@ -3261,6 +3219,81 @@
   </si>
   <si>
     <t>Number of partner notification slips received(of those issued by your facility)</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>PMTCT24_a</t>
+  </si>
+  <si>
+    <t>Sub-Disagg - In care but no test Done</t>
+  </si>
+  <si>
+    <t>PMTCT24_b</t>
+  </si>
+  <si>
+    <t>Sub-Disagg - Lost to follow-up</t>
+  </si>
+  <si>
+    <t>PMTCT24_c</t>
+  </si>
+  <si>
+    <t>Sub-Disagg - Died</t>
+  </si>
+  <si>
+    <t>PMTCT24_d</t>
+  </si>
+  <si>
+    <t>Sub-Disagg - Transferred out</t>
+  </si>
+  <si>
+    <t>PMTCT25_a</t>
+  </si>
+  <si>
+    <t>Sub-Disaggregation of HIV negative infants - HIV Negative  not breastfeeding</t>
+  </si>
+  <si>
+    <t>PMTCT25_b</t>
+  </si>
+  <si>
+    <t>Sub-Disaggregation of HIV negative infants - HIV Negative who are still breastfeeding</t>
+  </si>
+  <si>
+    <t>PMTCT25_c</t>
+  </si>
+  <si>
+    <t>Sub-Disaggregation of HIV negative infants - HIV Negative breastfeeding status unknown</t>
+  </si>
+  <si>
+    <t>PMTCT26_a</t>
+  </si>
+  <si>
+    <t>Sub-Disagg-HIV positive infants</t>
+  </si>
+  <si>
+    <t>PMTCT26_b</t>
+  </si>
+  <si>
+    <t>Sub-Disagg-HIV positive infants linked to ART</t>
+  </si>
+  <si>
+    <t>PMTCT26_c</t>
+  </si>
+  <si>
+    <t>Sub-Disagg-HIV negative infants</t>
+  </si>
+  <si>
+    <t>TB5_1</t>
+  </si>
+  <si>
+    <t>TB5_2</t>
+  </si>
+  <si>
+    <t>TB5_3</t>
+  </si>
+  <si>
+    <t>TB11_2</t>
   </si>
 </sst>
 </file>
@@ -4183,7 +4216,7 @@
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="327">
+  <cellXfs count="324">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -4657,12 +4690,6 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4823,6 +4850,78 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4835,6 +4934,78 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="39" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4842,149 +5013,50 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4992,127 +5064,69 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5173,6 +5187,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Neutral 2" xfId="1"/>
@@ -5706,308 +5730,308 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="228"/>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
+      <c r="A1" s="235"/>
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="228"/>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
+      <c r="A2" s="235"/>
+      <c r="B2" s="235"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="228"/>
-      <c r="B3" s="228"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="228"/>
-      <c r="F3" s="228"/>
-      <c r="G3" s="228"/>
-      <c r="H3" s="228"/>
+      <c r="A3" s="235"/>
+      <c r="B3" s="235"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="235"/>
+      <c r="E3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="228"/>
-      <c r="B4" s="228"/>
-      <c r="C4" s="228"/>
-      <c r="D4" s="228"/>
-      <c r="E4" s="228"/>
-      <c r="F4" s="228"/>
-      <c r="G4" s="228"/>
-      <c r="H4" s="228"/>
+      <c r="A4" s="235"/>
+      <c r="B4" s="235"/>
+      <c r="C4" s="235"/>
+      <c r="D4" s="235"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="235"/>
+      <c r="G4" s="235"/>
+      <c r="H4" s="235"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="228"/>
-      <c r="B5" s="228"/>
-      <c r="C5" s="228"/>
-      <c r="D5" s="228"/>
-      <c r="E5" s="228"/>
-      <c r="F5" s="228"/>
-      <c r="G5" s="228"/>
-      <c r="H5" s="228"/>
+      <c r="A5" s="235"/>
+      <c r="B5" s="235"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="235"/>
+      <c r="E5" s="235"/>
+      <c r="F5" s="235"/>
+      <c r="G5" s="235"/>
+      <c r="H5" s="235"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="228"/>
-      <c r="B6" s="228"/>
-      <c r="C6" s="228"/>
-      <c r="D6" s="228"/>
-      <c r="E6" s="228"/>
-      <c r="F6" s="228"/>
-      <c r="G6" s="228"/>
-      <c r="H6" s="228"/>
+      <c r="A6" s="235"/>
+      <c r="B6" s="235"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="235"/>
+      <c r="E6" s="235"/>
+      <c r="F6" s="235"/>
+      <c r="G6" s="235"/>
+      <c r="H6" s="235"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="228"/>
-      <c r="B7" s="228"/>
-      <c r="C7" s="228"/>
-      <c r="D7" s="228"/>
-      <c r="E7" s="228"/>
-      <c r="F7" s="228"/>
-      <c r="G7" s="228"/>
-      <c r="H7" s="228"/>
+      <c r="A7" s="235"/>
+      <c r="B7" s="235"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="235"/>
+      <c r="E7" s="235"/>
+      <c r="F7" s="235"/>
+      <c r="G7" s="235"/>
+      <c r="H7" s="235"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="229" t="s">
-        <v>413</v>
-      </c>
-      <c r="B8" s="230"/>
-      <c r="C8" s="230"/>
-      <c r="D8" s="230"/>
-      <c r="E8" s="230"/>
-      <c r="F8" s="230"/>
-      <c r="G8" s="230"/>
-      <c r="H8" s="230"/>
+      <c r="A8" s="236" t="s">
+        <v>411</v>
+      </c>
+      <c r="B8" s="237"/>
+      <c r="C8" s="237"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="237"/>
+      <c r="G8" s="237"/>
+      <c r="H8" s="237"/>
     </row>
     <row r="9" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="230"/>
-      <c r="B9" s="230"/>
-      <c r="C9" s="230"/>
-      <c r="D9" s="230"/>
-      <c r="E9" s="230"/>
-      <c r="F9" s="230"/>
-      <c r="G9" s="230"/>
-      <c r="H9" s="230"/>
+      <c r="A9" s="237"/>
+      <c r="B9" s="237"/>
+      <c r="C9" s="237"/>
+      <c r="D9" s="237"/>
+      <c r="E9" s="237"/>
+      <c r="F9" s="237"/>
+      <c r="G9" s="237"/>
+      <c r="H9" s="237"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="215" t="s">
+      <c r="A10" s="255" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="215"/>
-      <c r="C10" s="215"/>
-      <c r="D10" s="215"/>
-      <c r="E10" s="215"/>
-      <c r="F10" s="215"/>
-      <c r="G10" s="215"/>
-      <c r="H10" s="215"/>
+      <c r="B10" s="255"/>
+      <c r="C10" s="255"/>
+      <c r="D10" s="255"/>
+      <c r="E10" s="255"/>
+      <c r="F10" s="255"/>
+      <c r="G10" s="255"/>
+      <c r="H10" s="255"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="231" t="s">
+      <c r="A11" s="238" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="231"/>
-      <c r="C11" s="231"/>
-      <c r="D11" s="231"/>
-      <c r="E11" s="231"/>
-      <c r="F11" s="231"/>
-      <c r="G11" s="231"/>
-      <c r="H11" s="231"/>
+      <c r="B11" s="238"/>
+      <c r="C11" s="238"/>
+      <c r="D11" s="238"/>
+      <c r="E11" s="238"/>
+      <c r="F11" s="238"/>
+      <c r="G11" s="238"/>
+      <c r="H11" s="238"/>
     </row>
     <row r="12" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>1</v>
       </c>
-      <c r="B12" s="251" t="s">
+      <c r="B12" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="252"/>
-      <c r="D12" s="225"/>
-      <c r="E12" s="226"/>
-      <c r="F12" s="226"/>
-      <c r="G12" s="226"/>
-      <c r="H12" s="227"/>
+      <c r="C12" s="219"/>
+      <c r="D12" s="220"/>
+      <c r="E12" s="221"/>
+      <c r="F12" s="221"/>
+      <c r="G12" s="221"/>
+      <c r="H12" s="222"/>
     </row>
     <row r="13" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="31">
         <v>2</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C13" s="72"/>
-      <c r="D13" s="225"/>
-      <c r="E13" s="226"/>
-      <c r="F13" s="226"/>
-      <c r="G13" s="226"/>
-      <c r="H13" s="227"/>
+      <c r="D13" s="220"/>
+      <c r="E13" s="221"/>
+      <c r="F13" s="221"/>
+      <c r="G13" s="221"/>
+      <c r="H13" s="222"/>
     </row>
     <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27">
         <v>3</v>
       </c>
-      <c r="B14" s="220" t="s">
-        <v>338</v>
-      </c>
-      <c r="C14" s="221"/>
-      <c r="D14" s="225"/>
-      <c r="E14" s="226"/>
-      <c r="F14" s="226"/>
-      <c r="G14" s="226"/>
-      <c r="H14" s="227"/>
+      <c r="B14" s="227" t="s">
+        <v>336</v>
+      </c>
+      <c r="C14" s="228"/>
+      <c r="D14" s="220"/>
+      <c r="E14" s="221"/>
+      <c r="F14" s="221"/>
+      <c r="G14" s="221"/>
+      <c r="H14" s="222"/>
     </row>
     <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="27">
         <v>4</v>
       </c>
-      <c r="B15" s="220" t="s">
-        <v>337</v>
-      </c>
-      <c r="C15" s="221"/>
-      <c r="D15" s="225"/>
-      <c r="E15" s="226"/>
-      <c r="F15" s="226"/>
-      <c r="G15" s="226"/>
-      <c r="H15" s="227"/>
+      <c r="B15" s="227" t="s">
+        <v>335</v>
+      </c>
+      <c r="C15" s="228"/>
+      <c r="D15" s="220"/>
+      <c r="E15" s="221"/>
+      <c r="F15" s="221"/>
+      <c r="G15" s="221"/>
+      <c r="H15" s="222"/>
     </row>
     <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="27">
         <v>5</v>
       </c>
-      <c r="B16" s="220" t="s">
-        <v>336</v>
-      </c>
-      <c r="C16" s="221"/>
-      <c r="D16" s="225"/>
-      <c r="E16" s="226"/>
-      <c r="F16" s="226"/>
-      <c r="G16" s="226"/>
-      <c r="H16" s="227"/>
+      <c r="B16" s="227" t="s">
+        <v>334</v>
+      </c>
+      <c r="C16" s="228"/>
+      <c r="D16" s="220"/>
+      <c r="E16" s="221"/>
+      <c r="F16" s="221"/>
+      <c r="G16" s="221"/>
+      <c r="H16" s="222"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="218">
+      <c r="A17" s="253">
         <v>6</v>
       </c>
-      <c r="B17" s="253" t="s">
+      <c r="B17" s="223" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="254"/>
-      <c r="D17" s="238"/>
-      <c r="E17" s="239"/>
-      <c r="F17" s="239"/>
-      <c r="G17" s="239"/>
-      <c r="H17" s="240"/>
+      <c r="C17" s="224"/>
+      <c r="D17" s="245"/>
+      <c r="E17" s="246"/>
+      <c r="F17" s="246"/>
+      <c r="G17" s="246"/>
+      <c r="H17" s="247"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="219"/>
-      <c r="B18" s="255"/>
-      <c r="C18" s="256"/>
-      <c r="D18" s="241"/>
-      <c r="E18" s="242"/>
-      <c r="F18" s="242"/>
-      <c r="G18" s="242"/>
-      <c r="H18" s="243"/>
+      <c r="A18" s="254"/>
+      <c r="B18" s="225"/>
+      <c r="C18" s="226"/>
+      <c r="D18" s="248"/>
+      <c r="E18" s="249"/>
+      <c r="F18" s="249"/>
+      <c r="G18" s="249"/>
+      <c r="H18" s="250"/>
     </row>
     <row r="19" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
         <v>7</v>
       </c>
-      <c r="B19" s="216" t="s">
-        <v>335</v>
-      </c>
-      <c r="C19" s="217"/>
-      <c r="D19" s="222"/>
-      <c r="E19" s="223"/>
-      <c r="F19" s="223"/>
-      <c r="G19" s="223"/>
-      <c r="H19" s="224"/>
+      <c r="B19" s="256" t="s">
+        <v>333</v>
+      </c>
+      <c r="C19" s="257"/>
+      <c r="D19" s="229"/>
+      <c r="E19" s="230"/>
+      <c r="F19" s="230"/>
+      <c r="G19" s="230"/>
+      <c r="H19" s="231"/>
     </row>
     <row r="20" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
         <v>8</v>
       </c>
-      <c r="B20" s="216" t="s">
-        <v>351</v>
-      </c>
-      <c r="C20" s="217"/>
-      <c r="D20" s="222"/>
-      <c r="E20" s="223"/>
-      <c r="F20" s="223"/>
-      <c r="G20" s="223"/>
-      <c r="H20" s="224"/>
+      <c r="B20" s="256" t="s">
+        <v>349</v>
+      </c>
+      <c r="C20" s="257"/>
+      <c r="D20" s="229"/>
+      <c r="E20" s="230"/>
+      <c r="F20" s="230"/>
+      <c r="G20" s="230"/>
+      <c r="H20" s="231"/>
     </row>
     <row r="21" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
         <v>9</v>
       </c>
-      <c r="B21" s="244" t="s">
-        <v>414</v>
-      </c>
-      <c r="C21" s="245"/>
-      <c r="D21" s="222"/>
-      <c r="E21" s="223"/>
-      <c r="F21" s="223"/>
-      <c r="G21" s="223"/>
-      <c r="H21" s="224"/>
+      <c r="B21" s="251" t="s">
+        <v>412</v>
+      </c>
+      <c r="C21" s="252"/>
+      <c r="D21" s="229"/>
+      <c r="E21" s="230"/>
+      <c r="F21" s="230"/>
+      <c r="G21" s="230"/>
+      <c r="H21" s="231"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="218">
+      <c r="A22" s="253">
         <v>10</v>
       </c>
-      <c r="B22" s="249" t="s">
-        <v>349</v>
-      </c>
-      <c r="C22" s="232"/>
-      <c r="D22" s="233"/>
-      <c r="E22" s="233"/>
-      <c r="F22" s="233"/>
-      <c r="G22" s="233"/>
-      <c r="H22" s="234"/>
+      <c r="B22" s="216" t="s">
+        <v>347</v>
+      </c>
+      <c r="C22" s="239"/>
+      <c r="D22" s="240"/>
+      <c r="E22" s="240"/>
+      <c r="F22" s="240"/>
+      <c r="G22" s="240"/>
+      <c r="H22" s="241"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="219"/>
-      <c r="B23" s="250"/>
-      <c r="C23" s="235"/>
-      <c r="D23" s="236"/>
-      <c r="E23" s="236"/>
-      <c r="F23" s="236"/>
-      <c r="G23" s="236"/>
-      <c r="H23" s="237"/>
+      <c r="A23" s="254"/>
+      <c r="B23" s="217"/>
+      <c r="C23" s="242"/>
+      <c r="D23" s="243"/>
+      <c r="E23" s="243"/>
+      <c r="F23" s="243"/>
+      <c r="G23" s="243"/>
+      <c r="H23" s="244"/>
     </row>
     <row r="24" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20">
         <v>11</v>
       </c>
       <c r="B24" s="73" t="s">
-        <v>348</v>
-      </c>
-      <c r="C24" s="212"/>
-      <c r="D24" s="213"/>
-      <c r="E24" s="213"/>
-      <c r="F24" s="213"/>
-      <c r="G24" s="213"/>
-      <c r="H24" s="214"/>
+        <v>346</v>
+      </c>
+      <c r="C24" s="232"/>
+      <c r="D24" s="233"/>
+      <c r="E24" s="233"/>
+      <c r="F24" s="233"/>
+      <c r="G24" s="233"/>
+      <c r="H24" s="234"/>
     </row>
     <row r="25" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21">
         <v>12</v>
       </c>
       <c r="B25" s="74" t="s">
-        <v>185</v>
-      </c>
-      <c r="C25" s="246"/>
-      <c r="D25" s="247"/>
-      <c r="E25" s="247"/>
-      <c r="F25" s="247"/>
-      <c r="G25" s="247"/>
-      <c r="H25" s="248"/>
+        <v>183</v>
+      </c>
+      <c r="C25" s="213"/>
+      <c r="D25" s="214"/>
+      <c r="E25" s="214"/>
+      <c r="F25" s="214"/>
+      <c r="G25" s="214"/>
+      <c r="H25" s="215"/>
     </row>
     <row r="26" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21">
@@ -6016,12 +6040,12 @@
       <c r="B26" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="246"/>
-      <c r="D26" s="247"/>
-      <c r="E26" s="247"/>
-      <c r="F26" s="247"/>
-      <c r="G26" s="247"/>
-      <c r="H26" s="248"/>
+      <c r="C26" s="213"/>
+      <c r="D26" s="214"/>
+      <c r="E26" s="214"/>
+      <c r="F26" s="214"/>
+      <c r="G26" s="214"/>
+      <c r="H26" s="215"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="25"/>
@@ -6035,6 +6059,22 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="28">
+    <mergeCell ref="A1:H7"/>
+    <mergeCell ref="A8:H9"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="C22:H23"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D13:H13"/>
     <mergeCell ref="C25:H25"/>
     <mergeCell ref="C26:H26"/>
     <mergeCell ref="B22:B23"/>
@@ -6044,23 +6084,7 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D19:H19"/>
-    <mergeCell ref="A1:H7"/>
-    <mergeCell ref="A8:H9"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="C22:H23"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="A17:A18"/>
     <mergeCell ref="C24:H24"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D13:H13"/>
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="D15:H15"/>
   </mergeCells>
@@ -6099,34 +6123,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="211" t="s">
-        <v>591</v>
-      </c>
-      <c r="B1" s="211" t="s">
+      <c r="A1" s="209" t="s">
+        <v>577</v>
+      </c>
+      <c r="B1" s="209" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="101" t="s">
+        <v>421</v>
+      </c>
+      <c r="D1" s="102" t="s">
+        <v>422</v>
+      </c>
+      <c r="E1" s="102" t="s">
         <v>423</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="F1" s="102" t="s">
         <v>424</v>
       </c>
-      <c r="E1" s="102" t="s">
-        <v>425</v>
-      </c>
-      <c r="F1" s="102" t="s">
-        <v>426</v>
-      </c>
       <c r="G1" s="102" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B2" s="82" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="116" t="str">
         <f>""""&amp;C1&amp;""","</f>
@@ -6151,10 +6175,10 @@
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="82" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B3" s="137" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C3" s="135"/>
       <c r="D3" s="135"/>
@@ -6164,10 +6188,10 @@
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="82" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B4" s="137" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="C4" s="135"/>
       <c r="D4" s="135"/>
@@ -6177,10 +6201,10 @@
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B5" s="137" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="C5" s="135"/>
       <c r="D5" s="135"/>
@@ -6190,10 +6214,10 @@
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="82" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B6" s="137" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="C6" s="135"/>
       <c r="D6" s="135"/>
@@ -6203,10 +6227,10 @@
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="82" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B7" s="137" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="C7" s="135"/>
       <c r="D7" s="135"/>
@@ -6216,10 +6240,10 @@
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="82" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B8" s="137" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="135"/>
       <c r="D8" s="135"/>
@@ -6229,10 +6253,10 @@
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="82" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B9" s="137" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="135"/>
       <c r="D9" s="135"/>
@@ -6242,10 +6266,10 @@
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="82" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B10" s="137" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="C10" s="135"/>
       <c r="D10" s="135"/>
@@ -6255,10 +6279,10 @@
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="82" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B11" s="137" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C11" s="135"/>
       <c r="D11" s="135"/>
@@ -6269,10 +6293,10 @@
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="82" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B12" s="137" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C12" s="135"/>
       <c r="D12" s="135"/>
@@ -6283,10 +6307,10 @@
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="82" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="B13" s="137" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C13" s="135"/>
       <c r="D13" s="135"/>
@@ -6297,10 +6321,10 @@
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="82" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="B14" s="137" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C14" s="135"/>
       <c r="D14" s="135"/>
@@ -6311,10 +6335,10 @@
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="82" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B15" s="137" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C15" s="135"/>
       <c r="D15" s="135"/>
@@ -6325,10 +6349,10 @@
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="82" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B16" s="137" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C16" s="139"/>
       <c r="D16" s="135"/>
@@ -6339,10 +6363,10 @@
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="82" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B17" s="82" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C17" s="139"/>
       <c r="D17" s="135"/>
@@ -6398,35 +6422,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="211" t="s">
-        <v>591</v>
-      </c>
-      <c r="B1" s="211" t="s">
+      <c r="A1" s="209" t="s">
+        <v>577</v>
+      </c>
+      <c r="B1" s="209" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="104" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="105" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="105" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="105" t="s">
+      <c r="G1" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="105" t="s">
-        <v>44</v>
-      </c>
       <c r="H1" s="105" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="I1" s="105" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="J1" s="104" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K1" s="69"/>
       <c r="L1" s="69"/>
@@ -6438,10 +6462,10 @@
     </row>
     <row r="2" spans="1:17" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="76" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2" s="76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="116" t="str">
         <f>""""&amp;C1&amp;""","</f>
@@ -6478,10 +6502,10 @@
     </row>
     <row r="3" spans="1:17" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="76" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="103"/>
       <c r="D3" s="103"/>
@@ -6494,10 +6518,10 @@
     </row>
     <row r="4" spans="1:17" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="76" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="C4" s="103"/>
       <c r="D4" s="103"/>
@@ -6510,10 +6534,10 @@
     </row>
     <row r="5" spans="1:17" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="76" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="103"/>
       <c r="D5" s="103"/>
@@ -6526,10 +6550,10 @@
     </row>
     <row r="6" spans="1:17" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="76" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B6" s="76" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C6" s="103"/>
       <c r="D6" s="103"/>
@@ -6542,10 +6566,10 @@
     </row>
     <row r="7" spans="1:17" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="76" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="103"/>
       <c r="D7" s="103"/>
@@ -6558,10 +6582,10 @@
     </row>
     <row r="8" spans="1:17" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="76" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" s="76" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="C8" s="103"/>
       <c r="D8" s="103"/>
@@ -6574,10 +6598,10 @@
     </row>
     <row r="9" spans="1:17" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="76" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" s="170" t="s">
-        <v>487</v>
+        <v>145</v>
+      </c>
+      <c r="B9" s="168" t="s">
+        <v>475</v>
       </c>
       <c r="C9" s="103"/>
       <c r="D9" s="103"/>
@@ -6590,10 +6614,10 @@
     </row>
     <row r="10" spans="1:17" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="76" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="B10" s="106" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C10" s="103"/>
       <c r="D10" s="103"/>
@@ -6606,10 +6630,10 @@
     </row>
     <row r="11" spans="1:17" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="76" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="B11" s="106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C11" s="103"/>
       <c r="D11" s="103"/>
@@ -6622,10 +6646,10 @@
     </row>
     <row r="12" spans="1:17" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="76" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C12" s="103"/>
       <c r="D12" s="103"/>
@@ -6638,10 +6662,10 @@
     </row>
     <row r="13" spans="1:17" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="76" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B13" s="76" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C13" s="103"/>
       <c r="D13" s="103"/>
@@ -6654,10 +6678,10 @@
     </row>
     <row r="14" spans="1:17" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="76" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="B14" s="76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="103"/>
       <c r="D14" s="103"/>
@@ -6670,10 +6694,10 @@
     </row>
     <row r="15" spans="1:17" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="76" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="B15" s="76" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C15" s="103"/>
       <c r="D15" s="103"/>
@@ -6686,10 +6710,10 @@
     </row>
     <row r="16" spans="1:17" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="77" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="B16" s="107" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C16" s="103"/>
       <c r="D16" s="103"/>
@@ -6737,34 +6761,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="211" t="s">
-        <v>591</v>
-      </c>
-      <c r="B1" s="211" t="s">
+      <c r="A1" s="209" t="s">
+        <v>577</v>
+      </c>
+      <c r="B1" s="209" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="53" t="s">
-        <v>44</v>
-      </c>
       <c r="F1" s="53" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G1" s="53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C2" s="116" t="str">
         <f>""""&amp;C1&amp;""","</f>
@@ -6789,10 +6813,10 @@
     </row>
     <row r="3" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -6802,10 +6826,10 @@
     </row>
     <row r="4" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B4" s="56" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
@@ -6815,10 +6839,10 @@
     </row>
     <row r="5" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -6828,10 +6852,10 @@
     </row>
     <row r="6" spans="1:7" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -6841,10 +6865,10 @@
     </row>
     <row r="7" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
@@ -6854,10 +6878,10 @@
     </row>
     <row r="8" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -6867,10 +6891,10 @@
     </row>
     <row r="9" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
@@ -6880,10 +6904,10 @@
     </row>
     <row r="10" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="54" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
@@ -6893,10 +6917,10 @@
     </row>
     <row r="11" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -6906,10 +6930,10 @@
     </row>
     <row r="12" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -6919,10 +6943,10 @@
     </row>
     <row r="13" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -6932,23 +6956,23 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C14" s="298"/>
-      <c r="D14" s="298"/>
+        <v>168</v>
+      </c>
+      <c r="C14" s="295"/>
+      <c r="D14" s="295"/>
       <c r="E14" s="80"/>
       <c r="F14" s="80"/>
       <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C15" s="80"/>
       <c r="D15" s="80"/>
@@ -6958,23 +6982,23 @@
     </row>
     <row r="16" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="298"/>
-      <c r="D16" s="298"/>
+        <v>72</v>
+      </c>
+      <c r="C16" s="295"/>
+      <c r="D16" s="295"/>
       <c r="E16" s="80"/>
       <c r="F16" s="80"/>
       <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
@@ -6984,10 +7008,10 @@
     </row>
     <row r="18" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B18" s="56" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
@@ -6997,10 +7021,10 @@
     </row>
     <row r="19" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
@@ -7010,10 +7034,10 @@
     </row>
     <row r="20" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B20" s="56" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
@@ -7023,10 +7047,10 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B21" s="56" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
@@ -7036,10 +7060,10 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
@@ -7049,10 +7073,10 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
@@ -7062,10 +7086,10 @@
     </row>
     <row r="24" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
@@ -7075,10 +7099,10 @@
     </row>
     <row r="25" spans="1:7" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B25" s="56" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -7127,22 +7151,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="211" t="s">
-        <v>591</v>
-      </c>
-      <c r="B1" s="211" t="s">
+      <c r="A1" s="209" t="s">
+        <v>577</v>
+      </c>
+      <c r="B1" s="209" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="109" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="116" t="str">
         <f>""""&amp;C1&amp;""","</f>
@@ -7151,64 +7175,64 @@
     </row>
     <row r="3" spans="1:3" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="109" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B3" s="109" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C3" s="110"/>
     </row>
     <row r="4" spans="1:3" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="109" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B4" s="109" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C4" s="110"/>
     </row>
     <row r="5" spans="1:3" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="109" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B5" s="109" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="110"/>
     </row>
     <row r="6" spans="1:3" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="78" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B6" s="109" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C6" s="110"/>
     </row>
     <row r="7" spans="1:3" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="78" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B7" s="109" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C7" s="110"/>
     </row>
     <row r="8" spans="1:3" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="78" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B8" s="109" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C8" s="110"/>
     </row>
     <row r="9" spans="1:3" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="109" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B9" s="109" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="110"/>
     </row>
@@ -7249,34 +7273,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="211" t="s">
-        <v>591</v>
-      </c>
-      <c r="B1" s="211" t="s">
+      <c r="A1" s="209" t="s">
+        <v>577</v>
+      </c>
+      <c r="B1" s="209" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="111" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D1" s="111" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E1" s="111" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F1" s="111" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G1" s="111" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="85" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2" s="87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C2" s="116" t="str">
         <f>""""&amp;C1&amp;""","</f>
@@ -7301,10 +7325,10 @@
     </row>
     <row r="3" spans="1:7" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="85" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B3" s="87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="112"/>
       <c r="D3" s="112"/>
@@ -7314,10 +7338,10 @@
     </row>
     <row r="4" spans="1:7" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="85" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B4" s="87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="112"/>
       <c r="D4" s="112"/>
@@ -7327,10 +7351,10 @@
     </row>
     <row r="5" spans="1:7" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="85" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B5" s="87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="112"/>
       <c r="D5" s="112"/>
@@ -7381,34 +7405,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="211" t="s">
-        <v>591</v>
-      </c>
-      <c r="B1" s="211" t="s">
+      <c r="A1" s="209" t="s">
+        <v>577</v>
+      </c>
+      <c r="B1" s="209" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="126" t="s">
+        <v>318</v>
+      </c>
+      <c r="D1" s="126" t="s">
+        <v>319</v>
+      </c>
+      <c r="E1" s="126" t="s">
         <v>320</v>
       </c>
-      <c r="D1" s="126" t="s">
+      <c r="F1" s="126" t="s">
         <v>321</v>
       </c>
-      <c r="E1" s="126" t="s">
-        <v>322</v>
-      </c>
-      <c r="F1" s="126" t="s">
-        <v>323</v>
-      </c>
       <c r="G1" s="126" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="95" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C2" s="116" t="str">
         <f>""""&amp;C1&amp;""","</f>
@@ -7433,10 +7457,10 @@
     </row>
     <row r="3" spans="1:7" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="95" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B3" s="95" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C3" s="141"/>
       <c r="D3" s="141"/>
@@ -7446,10 +7470,10 @@
     </row>
     <row r="4" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="95" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B4" s="95" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C4" s="141"/>
       <c r="D4" s="141"/>
@@ -7459,10 +7483,10 @@
     </row>
     <row r="5" spans="1:7" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="95" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B5" s="95" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C5" s="141"/>
       <c r="D5" s="141"/>
@@ -7472,10 +7496,10 @@
     </row>
     <row r="6" spans="1:7" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="95" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B6" s="95" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C6" s="141"/>
       <c r="D6" s="141"/>
@@ -7485,10 +7509,10 @@
     </row>
     <row r="7" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="95" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B7" s="95" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C7" s="141"/>
       <c r="D7" s="141"/>
@@ -7498,10 +7522,10 @@
     </row>
     <row r="8" spans="1:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="95" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B8" s="95" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C8" s="141"/>
       <c r="D8" s="141"/>
@@ -7511,10 +7535,10 @@
     </row>
     <row r="9" spans="1:7" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="95" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B9" s="87" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C9" s="142"/>
       <c r="D9" s="142"/>
@@ -7524,10 +7548,10 @@
     </row>
     <row r="10" spans="1:7" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="95" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B10" s="87" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C10" s="142"/>
       <c r="D10" s="142"/>
@@ -7537,10 +7561,10 @@
     </row>
     <row r="11" spans="1:7" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="95" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B11" s="87" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C11" s="144"/>
       <c r="D11" s="144"/>
@@ -7550,10 +7574,10 @@
     </row>
     <row r="12" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="95" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B12" s="95" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C12" s="125"/>
       <c r="D12" s="125"/>
@@ -7600,28 +7624,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="211" t="s">
-        <v>591</v>
-      </c>
-      <c r="B1" s="211" t="s">
+      <c r="A1" s="209" t="s">
+        <v>577</v>
+      </c>
+      <c r="B1" s="209" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="59" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1" s="59" t="s">
         <v>265</v>
-      </c>
-      <c r="D1" s="59" t="s">
-        <v>266</v>
-      </c>
-      <c r="E1" s="59" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C2" s="116" t="str">
         <f>""""&amp;C1&amp;""","</f>
@@ -7638,10 +7662,10 @@
     </row>
     <row r="3" spans="1:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C3" s="60"/>
       <c r="D3" s="60"/>
@@ -7649,10 +7673,10 @@
     </row>
     <row r="4" spans="1:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="57" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C4" s="60"/>
       <c r="D4" s="60"/>
@@ -7660,10 +7684,10 @@
     </row>
     <row r="5" spans="1:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="57" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C5" s="58"/>
       <c r="D5" s="58"/>
@@ -7671,10 +7695,10 @@
     </row>
     <row r="6" spans="1:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="57" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C6" s="58"/>
       <c r="D6" s="58"/>
@@ -7682,10 +7706,10 @@
     </row>
     <row r="7" spans="1:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="57" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
@@ -7693,10 +7717,10 @@
     </row>
     <row r="8" spans="1:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
@@ -7704,10 +7728,10 @@
     </row>
     <row r="9" spans="1:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="57" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C9" s="58"/>
       <c r="D9" s="58"/>
@@ -7715,10 +7739,10 @@
     </row>
     <row r="10" spans="1:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="57" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C10" s="58"/>
       <c r="D10" s="58"/>
@@ -7726,10 +7750,10 @@
     </row>
     <row r="11" spans="1:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="57" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C11" s="58"/>
       <c r="D11" s="58"/>
@@ -7737,10 +7761,10 @@
     </row>
     <row r="12" spans="1:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="57" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C12" s="58"/>
       <c r="D12" s="58"/>
@@ -7748,10 +7772,10 @@
     </row>
     <row r="13" spans="1:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="57" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C13" s="58"/>
       <c r="D13" s="58"/>
@@ -7759,10 +7783,10 @@
     </row>
     <row r="14" spans="1:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="57" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C14" s="58"/>
       <c r="D14" s="58"/>
@@ -7862,22 +7886,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="211" t="s">
-        <v>591</v>
-      </c>
-      <c r="B1" s="211" t="s">
+      <c r="A1" s="209" t="s">
+        <v>577</v>
+      </c>
+      <c r="B1" s="209" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="48" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C2" s="116" t="str">
         <f>""""&amp;C1&amp;""","</f>
@@ -7886,37 +7910,37 @@
     </row>
     <row r="3" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="48" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C3" s="48"/>
     </row>
     <row r="4" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C4" s="48"/>
     </row>
     <row r="5" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C5" s="48"/>
     </row>
     <row r="6" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C6" s="48"/>
     </row>
@@ -7937,7 +7961,7 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -7950,22 +7974,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="211" t="s">
-        <v>591</v>
-      </c>
-      <c r="B1" s="211" t="s">
+      <c r="A1" s="209" t="s">
+        <v>577</v>
+      </c>
+      <c r="B1" s="209" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C2" s="116" t="str">
         <f>""""&amp;C1&amp;""","</f>
@@ -7974,55 +7998,55 @@
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C3" s="115"/>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="57" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C4" s="115"/>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="57" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C5" s="115"/>
     </row>
     <row r="6" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="57" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C6" s="115"/>
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="57" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C7" s="115"/>
     </row>
     <row r="8" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="117" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B8" s="117" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C8" s="115"/>
     </row>
@@ -8063,460 +8087,460 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="303" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="304"/>
-      <c r="C1" s="304"/>
-      <c r="D1" s="304"/>
-      <c r="E1" s="304"/>
-      <c r="F1" s="304"/>
-      <c r="G1" s="304"/>
-      <c r="H1" s="304"/>
-      <c r="I1" s="304"/>
-      <c r="J1" s="304"/>
-      <c r="K1" s="304"/>
-      <c r="L1" s="304"/>
-      <c r="M1" s="305"/>
+      <c r="A1" s="296" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="297"/>
+      <c r="C1" s="297"/>
+      <c r="D1" s="297"/>
+      <c r="E1" s="297"/>
+      <c r="F1" s="297"/>
+      <c r="G1" s="297"/>
+      <c r="H1" s="297"/>
+      <c r="I1" s="297"/>
+      <c r="J1" s="297"/>
+      <c r="K1" s="297"/>
+      <c r="L1" s="297"/>
+      <c r="M1" s="298"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="306"/>
-      <c r="B2" s="307"/>
-      <c r="C2" s="307"/>
-      <c r="D2" s="307"/>
-      <c r="E2" s="307"/>
-      <c r="F2" s="307"/>
-      <c r="G2" s="307"/>
-      <c r="H2" s="307"/>
-      <c r="I2" s="307"/>
-      <c r="J2" s="307"/>
-      <c r="K2" s="307"/>
-      <c r="L2" s="307"/>
-      <c r="M2" s="308"/>
+      <c r="A2" s="299"/>
+      <c r="B2" s="300"/>
+      <c r="C2" s="300"/>
+      <c r="D2" s="300"/>
+      <c r="E2" s="300"/>
+      <c r="F2" s="300"/>
+      <c r="G2" s="300"/>
+      <c r="H2" s="300"/>
+      <c r="I2" s="300"/>
+      <c r="J2" s="300"/>
+      <c r="K2" s="300"/>
+      <c r="L2" s="300"/>
+      <c r="M2" s="301"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="318" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="319"/>
-      <c r="C3" s="319"/>
-      <c r="D3" s="319"/>
-      <c r="E3" s="319"/>
-      <c r="F3" s="319"/>
-      <c r="G3" s="319"/>
-      <c r="H3" s="319"/>
-      <c r="I3" s="319"/>
-      <c r="J3" s="319"/>
-      <c r="K3" s="319"/>
-      <c r="L3" s="319"/>
-      <c r="M3" s="320"/>
+      <c r="A3" s="311" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="312"/>
+      <c r="C3" s="312"/>
+      <c r="D3" s="312"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="312"/>
+      <c r="G3" s="312"/>
+      <c r="H3" s="312"/>
+      <c r="I3" s="312"/>
+      <c r="J3" s="312"/>
+      <c r="K3" s="312"/>
+      <c r="L3" s="312"/>
+      <c r="M3" s="313"/>
     </row>
     <row r="4" spans="1:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="321" t="s">
-        <v>422</v>
-      </c>
-      <c r="B4" s="322"/>
-      <c r="C4" s="322"/>
-      <c r="D4" s="322"/>
-      <c r="E4" s="322"/>
-      <c r="F4" s="322"/>
-      <c r="G4" s="322"/>
-      <c r="H4" s="322"/>
-      <c r="I4" s="322"/>
-      <c r="J4" s="322"/>
-      <c r="K4" s="322"/>
-      <c r="L4" s="322"/>
-      <c r="M4" s="323"/>
+      <c r="A4" s="314" t="s">
+        <v>420</v>
+      </c>
+      <c r="B4" s="315"/>
+      <c r="C4" s="315"/>
+      <c r="D4" s="315"/>
+      <c r="E4" s="315"/>
+      <c r="F4" s="315"/>
+      <c r="G4" s="315"/>
+      <c r="H4" s="315"/>
+      <c r="I4" s="315"/>
+      <c r="J4" s="315"/>
+      <c r="K4" s="315"/>
+      <c r="L4" s="315"/>
+      <c r="M4" s="316"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="309"/>
-      <c r="B5" s="310"/>
-      <c r="C5" s="310"/>
-      <c r="D5" s="310"/>
-      <c r="E5" s="310"/>
-      <c r="F5" s="310"/>
-      <c r="G5" s="310"/>
-      <c r="H5" s="310"/>
-      <c r="I5" s="310"/>
-      <c r="J5" s="310"/>
-      <c r="K5" s="310"/>
-      <c r="L5" s="310"/>
-      <c r="M5" s="311"/>
+      <c r="A5" s="302"/>
+      <c r="B5" s="303"/>
+      <c r="C5" s="303"/>
+      <c r="D5" s="303"/>
+      <c r="E5" s="303"/>
+      <c r="F5" s="303"/>
+      <c r="G5" s="303"/>
+      <c r="H5" s="303"/>
+      <c r="I5" s="303"/>
+      <c r="J5" s="303"/>
+      <c r="K5" s="303"/>
+      <c r="L5" s="303"/>
+      <c r="M5" s="304"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="312"/>
-      <c r="B6" s="313"/>
-      <c r="C6" s="313"/>
-      <c r="D6" s="313"/>
-      <c r="E6" s="313"/>
-      <c r="F6" s="313"/>
-      <c r="G6" s="313"/>
-      <c r="H6" s="313"/>
-      <c r="I6" s="313"/>
-      <c r="J6" s="313"/>
-      <c r="K6" s="313"/>
-      <c r="L6" s="313"/>
-      <c r="M6" s="314"/>
+      <c r="A6" s="305"/>
+      <c r="B6" s="306"/>
+      <c r="C6" s="306"/>
+      <c r="D6" s="306"/>
+      <c r="E6" s="306"/>
+      <c r="F6" s="306"/>
+      <c r="G6" s="306"/>
+      <c r="H6" s="306"/>
+      <c r="I6" s="306"/>
+      <c r="J6" s="306"/>
+      <c r="K6" s="306"/>
+      <c r="L6" s="306"/>
+      <c r="M6" s="307"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="312"/>
-      <c r="B7" s="313"/>
-      <c r="C7" s="313"/>
-      <c r="D7" s="313"/>
-      <c r="E7" s="313"/>
-      <c r="F7" s="313"/>
-      <c r="G7" s="313"/>
-      <c r="H7" s="313"/>
-      <c r="I7" s="313"/>
-      <c r="J7" s="313"/>
-      <c r="K7" s="313"/>
-      <c r="L7" s="313"/>
-      <c r="M7" s="314"/>
+      <c r="A7" s="305"/>
+      <c r="B7" s="306"/>
+      <c r="C7" s="306"/>
+      <c r="D7" s="306"/>
+      <c r="E7" s="306"/>
+      <c r="F7" s="306"/>
+      <c r="G7" s="306"/>
+      <c r="H7" s="306"/>
+      <c r="I7" s="306"/>
+      <c r="J7" s="306"/>
+      <c r="K7" s="306"/>
+      <c r="L7" s="306"/>
+      <c r="M7" s="307"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="312"/>
-      <c r="B8" s="313"/>
-      <c r="C8" s="313"/>
-      <c r="D8" s="313"/>
-      <c r="E8" s="313"/>
-      <c r="F8" s="313"/>
-      <c r="G8" s="313"/>
-      <c r="H8" s="313"/>
-      <c r="I8" s="313"/>
-      <c r="J8" s="313"/>
-      <c r="K8" s="313"/>
-      <c r="L8" s="313"/>
-      <c r="M8" s="314"/>
+      <c r="A8" s="305"/>
+      <c r="B8" s="306"/>
+      <c r="C8" s="306"/>
+      <c r="D8" s="306"/>
+      <c r="E8" s="306"/>
+      <c r="F8" s="306"/>
+      <c r="G8" s="306"/>
+      <c r="H8" s="306"/>
+      <c r="I8" s="306"/>
+      <c r="J8" s="306"/>
+      <c r="K8" s="306"/>
+      <c r="L8" s="306"/>
+      <c r="M8" s="307"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="312"/>
-      <c r="B9" s="313"/>
-      <c r="C9" s="313"/>
-      <c r="D9" s="313"/>
-      <c r="E9" s="313"/>
-      <c r="F9" s="313"/>
-      <c r="G9" s="313"/>
-      <c r="H9" s="313"/>
-      <c r="I9" s="313"/>
-      <c r="J9" s="313"/>
-      <c r="K9" s="313"/>
-      <c r="L9" s="313"/>
-      <c r="M9" s="314"/>
+      <c r="A9" s="305"/>
+      <c r="B9" s="306"/>
+      <c r="C9" s="306"/>
+      <c r="D9" s="306"/>
+      <c r="E9" s="306"/>
+      <c r="F9" s="306"/>
+      <c r="G9" s="306"/>
+      <c r="H9" s="306"/>
+      <c r="I9" s="306"/>
+      <c r="J9" s="306"/>
+      <c r="K9" s="306"/>
+      <c r="L9" s="306"/>
+      <c r="M9" s="307"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="312"/>
-      <c r="B10" s="313"/>
-      <c r="C10" s="313"/>
-      <c r="D10" s="313"/>
-      <c r="E10" s="313"/>
-      <c r="F10" s="313"/>
-      <c r="G10" s="313"/>
-      <c r="H10" s="313"/>
-      <c r="I10" s="313"/>
-      <c r="J10" s="313"/>
-      <c r="K10" s="313"/>
-      <c r="L10" s="313"/>
-      <c r="M10" s="314"/>
+      <c r="A10" s="305"/>
+      <c r="B10" s="306"/>
+      <c r="C10" s="306"/>
+      <c r="D10" s="306"/>
+      <c r="E10" s="306"/>
+      <c r="F10" s="306"/>
+      <c r="G10" s="306"/>
+      <c r="H10" s="306"/>
+      <c r="I10" s="306"/>
+      <c r="J10" s="306"/>
+      <c r="K10" s="306"/>
+      <c r="L10" s="306"/>
+      <c r="M10" s="307"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="312"/>
-      <c r="B11" s="313"/>
-      <c r="C11" s="313"/>
-      <c r="D11" s="313"/>
-      <c r="E11" s="313"/>
-      <c r="F11" s="313"/>
-      <c r="G11" s="313"/>
-      <c r="H11" s="313"/>
-      <c r="I11" s="313"/>
-      <c r="J11" s="313"/>
-      <c r="K11" s="313"/>
-      <c r="L11" s="313"/>
-      <c r="M11" s="314"/>
+      <c r="A11" s="305"/>
+      <c r="B11" s="306"/>
+      <c r="C11" s="306"/>
+      <c r="D11" s="306"/>
+      <c r="E11" s="306"/>
+      <c r="F11" s="306"/>
+      <c r="G11" s="306"/>
+      <c r="H11" s="306"/>
+      <c r="I11" s="306"/>
+      <c r="J11" s="306"/>
+      <c r="K11" s="306"/>
+      <c r="L11" s="306"/>
+      <c r="M11" s="307"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="312"/>
-      <c r="B12" s="313"/>
-      <c r="C12" s="313"/>
-      <c r="D12" s="313"/>
-      <c r="E12" s="313"/>
-      <c r="F12" s="313"/>
-      <c r="G12" s="313"/>
-      <c r="H12" s="313"/>
-      <c r="I12" s="313"/>
-      <c r="J12" s="313"/>
-      <c r="K12" s="313"/>
-      <c r="L12" s="313"/>
-      <c r="M12" s="314"/>
+      <c r="A12" s="305"/>
+      <c r="B12" s="306"/>
+      <c r="C12" s="306"/>
+      <c r="D12" s="306"/>
+      <c r="E12" s="306"/>
+      <c r="F12" s="306"/>
+      <c r="G12" s="306"/>
+      <c r="H12" s="306"/>
+      <c r="I12" s="306"/>
+      <c r="J12" s="306"/>
+      <c r="K12" s="306"/>
+      <c r="L12" s="306"/>
+      <c r="M12" s="307"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="312"/>
-      <c r="B13" s="313"/>
-      <c r="C13" s="313"/>
-      <c r="D13" s="313"/>
-      <c r="E13" s="313"/>
-      <c r="F13" s="313"/>
-      <c r="G13" s="313"/>
-      <c r="H13" s="313"/>
-      <c r="I13" s="313"/>
-      <c r="J13" s="313"/>
-      <c r="K13" s="313"/>
-      <c r="L13" s="313"/>
-      <c r="M13" s="314"/>
+      <c r="A13" s="305"/>
+      <c r="B13" s="306"/>
+      <c r="C13" s="306"/>
+      <c r="D13" s="306"/>
+      <c r="E13" s="306"/>
+      <c r="F13" s="306"/>
+      <c r="G13" s="306"/>
+      <c r="H13" s="306"/>
+      <c r="I13" s="306"/>
+      <c r="J13" s="306"/>
+      <c r="K13" s="306"/>
+      <c r="L13" s="306"/>
+      <c r="M13" s="307"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="312"/>
-      <c r="B14" s="313"/>
-      <c r="C14" s="313"/>
-      <c r="D14" s="313"/>
-      <c r="E14" s="313"/>
-      <c r="F14" s="313"/>
-      <c r="G14" s="313"/>
-      <c r="H14" s="313"/>
-      <c r="I14" s="313"/>
-      <c r="J14" s="313"/>
-      <c r="K14" s="313"/>
-      <c r="L14" s="313"/>
-      <c r="M14" s="314"/>
+      <c r="A14" s="305"/>
+      <c r="B14" s="306"/>
+      <c r="C14" s="306"/>
+      <c r="D14" s="306"/>
+      <c r="E14" s="306"/>
+      <c r="F14" s="306"/>
+      <c r="G14" s="306"/>
+      <c r="H14" s="306"/>
+      <c r="I14" s="306"/>
+      <c r="J14" s="306"/>
+      <c r="K14" s="306"/>
+      <c r="L14" s="306"/>
+      <c r="M14" s="307"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="312"/>
-      <c r="B15" s="313"/>
-      <c r="C15" s="313"/>
-      <c r="D15" s="313"/>
-      <c r="E15" s="313"/>
-      <c r="F15" s="313"/>
-      <c r="G15" s="313"/>
-      <c r="H15" s="313"/>
-      <c r="I15" s="313"/>
-      <c r="J15" s="313"/>
-      <c r="K15" s="313"/>
-      <c r="L15" s="313"/>
-      <c r="M15" s="314"/>
+      <c r="A15" s="305"/>
+      <c r="B15" s="306"/>
+      <c r="C15" s="306"/>
+      <c r="D15" s="306"/>
+      <c r="E15" s="306"/>
+      <c r="F15" s="306"/>
+      <c r="G15" s="306"/>
+      <c r="H15" s="306"/>
+      <c r="I15" s="306"/>
+      <c r="J15" s="306"/>
+      <c r="K15" s="306"/>
+      <c r="L15" s="306"/>
+      <c r="M15" s="307"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="312"/>
-      <c r="B16" s="313"/>
-      <c r="C16" s="313"/>
-      <c r="D16" s="313"/>
-      <c r="E16" s="313"/>
-      <c r="F16" s="313"/>
-      <c r="G16" s="313"/>
-      <c r="H16" s="313"/>
-      <c r="I16" s="313"/>
-      <c r="J16" s="313"/>
-      <c r="K16" s="313"/>
-      <c r="L16" s="313"/>
-      <c r="M16" s="314"/>
+      <c r="A16" s="305"/>
+      <c r="B16" s="306"/>
+      <c r="C16" s="306"/>
+      <c r="D16" s="306"/>
+      <c r="E16" s="306"/>
+      <c r="F16" s="306"/>
+      <c r="G16" s="306"/>
+      <c r="H16" s="306"/>
+      <c r="I16" s="306"/>
+      <c r="J16" s="306"/>
+      <c r="K16" s="306"/>
+      <c r="L16" s="306"/>
+      <c r="M16" s="307"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="312"/>
-      <c r="B17" s="313"/>
-      <c r="C17" s="313"/>
-      <c r="D17" s="313"/>
-      <c r="E17" s="313"/>
-      <c r="F17" s="313"/>
-      <c r="G17" s="313"/>
-      <c r="H17" s="313"/>
-      <c r="I17" s="313"/>
-      <c r="J17" s="313"/>
-      <c r="K17" s="313"/>
-      <c r="L17" s="313"/>
-      <c r="M17" s="314"/>
+      <c r="A17" s="305"/>
+      <c r="B17" s="306"/>
+      <c r="C17" s="306"/>
+      <c r="D17" s="306"/>
+      <c r="E17" s="306"/>
+      <c r="F17" s="306"/>
+      <c r="G17" s="306"/>
+      <c r="H17" s="306"/>
+      <c r="I17" s="306"/>
+      <c r="J17" s="306"/>
+      <c r="K17" s="306"/>
+      <c r="L17" s="306"/>
+      <c r="M17" s="307"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="312"/>
-      <c r="B18" s="313"/>
-      <c r="C18" s="313"/>
-      <c r="D18" s="313"/>
-      <c r="E18" s="313"/>
-      <c r="F18" s="313"/>
-      <c r="G18" s="313"/>
-      <c r="H18" s="313"/>
-      <c r="I18" s="313"/>
-      <c r="J18" s="313"/>
-      <c r="K18" s="313"/>
-      <c r="L18" s="313"/>
-      <c r="M18" s="314"/>
+      <c r="A18" s="305"/>
+      <c r="B18" s="306"/>
+      <c r="C18" s="306"/>
+      <c r="D18" s="306"/>
+      <c r="E18" s="306"/>
+      <c r="F18" s="306"/>
+      <c r="G18" s="306"/>
+      <c r="H18" s="306"/>
+      <c r="I18" s="306"/>
+      <c r="J18" s="306"/>
+      <c r="K18" s="306"/>
+      <c r="L18" s="306"/>
+      <c r="M18" s="307"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="312"/>
-      <c r="B19" s="313"/>
-      <c r="C19" s="313"/>
-      <c r="D19" s="313"/>
-      <c r="E19" s="313"/>
-      <c r="F19" s="313"/>
-      <c r="G19" s="313"/>
-      <c r="H19" s="313"/>
-      <c r="I19" s="313"/>
-      <c r="J19" s="313"/>
-      <c r="K19" s="313"/>
-      <c r="L19" s="313"/>
-      <c r="M19" s="314"/>
+      <c r="A19" s="305"/>
+      <c r="B19" s="306"/>
+      <c r="C19" s="306"/>
+      <c r="D19" s="306"/>
+      <c r="E19" s="306"/>
+      <c r="F19" s="306"/>
+      <c r="G19" s="306"/>
+      <c r="H19" s="306"/>
+      <c r="I19" s="306"/>
+      <c r="J19" s="306"/>
+      <c r="K19" s="306"/>
+      <c r="L19" s="306"/>
+      <c r="M19" s="307"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="312"/>
-      <c r="B20" s="313"/>
-      <c r="C20" s="313"/>
-      <c r="D20" s="313"/>
-      <c r="E20" s="313"/>
-      <c r="F20" s="313"/>
-      <c r="G20" s="313"/>
-      <c r="H20" s="313"/>
-      <c r="I20" s="313"/>
-      <c r="J20" s="313"/>
-      <c r="K20" s="313"/>
-      <c r="L20" s="313"/>
-      <c r="M20" s="314"/>
+      <c r="A20" s="305"/>
+      <c r="B20" s="306"/>
+      <c r="C20" s="306"/>
+      <c r="D20" s="306"/>
+      <c r="E20" s="306"/>
+      <c r="F20" s="306"/>
+      <c r="G20" s="306"/>
+      <c r="H20" s="306"/>
+      <c r="I20" s="306"/>
+      <c r="J20" s="306"/>
+      <c r="K20" s="306"/>
+      <c r="L20" s="306"/>
+      <c r="M20" s="307"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="312"/>
-      <c r="B21" s="313"/>
-      <c r="C21" s="313"/>
-      <c r="D21" s="313"/>
-      <c r="E21" s="313"/>
-      <c r="F21" s="313"/>
-      <c r="G21" s="313"/>
-      <c r="H21" s="313"/>
-      <c r="I21" s="313"/>
-      <c r="J21" s="313"/>
-      <c r="K21" s="313"/>
-      <c r="L21" s="313"/>
-      <c r="M21" s="314"/>
+      <c r="A21" s="305"/>
+      <c r="B21" s="306"/>
+      <c r="C21" s="306"/>
+      <c r="D21" s="306"/>
+      <c r="E21" s="306"/>
+      <c r="F21" s="306"/>
+      <c r="G21" s="306"/>
+      <c r="H21" s="306"/>
+      <c r="I21" s="306"/>
+      <c r="J21" s="306"/>
+      <c r="K21" s="306"/>
+      <c r="L21" s="306"/>
+      <c r="M21" s="307"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="312"/>
-      <c r="B22" s="313"/>
-      <c r="C22" s="313"/>
-      <c r="D22" s="313"/>
-      <c r="E22" s="313"/>
-      <c r="F22" s="313"/>
-      <c r="G22" s="313"/>
-      <c r="H22" s="313"/>
-      <c r="I22" s="313"/>
-      <c r="J22" s="313"/>
-      <c r="K22" s="313"/>
-      <c r="L22" s="313"/>
-      <c r="M22" s="314"/>
+      <c r="A22" s="305"/>
+      <c r="B22" s="306"/>
+      <c r="C22" s="306"/>
+      <c r="D22" s="306"/>
+      <c r="E22" s="306"/>
+      <c r="F22" s="306"/>
+      <c r="G22" s="306"/>
+      <c r="H22" s="306"/>
+      <c r="I22" s="306"/>
+      <c r="J22" s="306"/>
+      <c r="K22" s="306"/>
+      <c r="L22" s="306"/>
+      <c r="M22" s="307"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="312"/>
-      <c r="B23" s="313"/>
-      <c r="C23" s="313"/>
-      <c r="D23" s="313"/>
-      <c r="E23" s="313"/>
-      <c r="F23" s="313"/>
-      <c r="G23" s="313"/>
-      <c r="H23" s="313"/>
-      <c r="I23" s="313"/>
-      <c r="J23" s="313"/>
-      <c r="K23" s="313"/>
-      <c r="L23" s="313"/>
-      <c r="M23" s="314"/>
+      <c r="A23" s="305"/>
+      <c r="B23" s="306"/>
+      <c r="C23" s="306"/>
+      <c r="D23" s="306"/>
+      <c r="E23" s="306"/>
+      <c r="F23" s="306"/>
+      <c r="G23" s="306"/>
+      <c r="H23" s="306"/>
+      <c r="I23" s="306"/>
+      <c r="J23" s="306"/>
+      <c r="K23" s="306"/>
+      <c r="L23" s="306"/>
+      <c r="M23" s="307"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="312"/>
-      <c r="B24" s="313"/>
-      <c r="C24" s="313"/>
-      <c r="D24" s="313"/>
-      <c r="E24" s="313"/>
-      <c r="F24" s="313"/>
-      <c r="G24" s="313"/>
-      <c r="H24" s="313"/>
-      <c r="I24" s="313"/>
-      <c r="J24" s="313"/>
-      <c r="K24" s="313"/>
-      <c r="L24" s="313"/>
-      <c r="M24" s="314"/>
+      <c r="A24" s="305"/>
+      <c r="B24" s="306"/>
+      <c r="C24" s="306"/>
+      <c r="D24" s="306"/>
+      <c r="E24" s="306"/>
+      <c r="F24" s="306"/>
+      <c r="G24" s="306"/>
+      <c r="H24" s="306"/>
+      <c r="I24" s="306"/>
+      <c r="J24" s="306"/>
+      <c r="K24" s="306"/>
+      <c r="L24" s="306"/>
+      <c r="M24" s="307"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="312"/>
-      <c r="B25" s="313"/>
-      <c r="C25" s="313"/>
-      <c r="D25" s="313"/>
-      <c r="E25" s="313"/>
-      <c r="F25" s="313"/>
-      <c r="G25" s="313"/>
-      <c r="H25" s="313"/>
-      <c r="I25" s="313"/>
-      <c r="J25" s="313"/>
-      <c r="K25" s="313"/>
-      <c r="L25" s="313"/>
-      <c r="M25" s="314"/>
+      <c r="A25" s="305"/>
+      <c r="B25" s="306"/>
+      <c r="C25" s="306"/>
+      <c r="D25" s="306"/>
+      <c r="E25" s="306"/>
+      <c r="F25" s="306"/>
+      <c r="G25" s="306"/>
+      <c r="H25" s="306"/>
+      <c r="I25" s="306"/>
+      <c r="J25" s="306"/>
+      <c r="K25" s="306"/>
+      <c r="L25" s="306"/>
+      <c r="M25" s="307"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="312"/>
-      <c r="B26" s="313"/>
-      <c r="C26" s="313"/>
-      <c r="D26" s="313"/>
-      <c r="E26" s="313"/>
-      <c r="F26" s="313"/>
-      <c r="G26" s="313"/>
-      <c r="H26" s="313"/>
-      <c r="I26" s="313"/>
-      <c r="J26" s="313"/>
-      <c r="K26" s="313"/>
-      <c r="L26" s="313"/>
-      <c r="M26" s="314"/>
+      <c r="A26" s="305"/>
+      <c r="B26" s="306"/>
+      <c r="C26" s="306"/>
+      <c r="D26" s="306"/>
+      <c r="E26" s="306"/>
+      <c r="F26" s="306"/>
+      <c r="G26" s="306"/>
+      <c r="H26" s="306"/>
+      <c r="I26" s="306"/>
+      <c r="J26" s="306"/>
+      <c r="K26" s="306"/>
+      <c r="L26" s="306"/>
+      <c r="M26" s="307"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="312"/>
-      <c r="B27" s="313"/>
-      <c r="C27" s="313"/>
-      <c r="D27" s="313"/>
-      <c r="E27" s="313"/>
-      <c r="F27" s="313"/>
-      <c r="G27" s="313"/>
-      <c r="H27" s="313"/>
-      <c r="I27" s="313"/>
-      <c r="J27" s="313"/>
-      <c r="K27" s="313"/>
-      <c r="L27" s="313"/>
-      <c r="M27" s="314"/>
+      <c r="A27" s="305"/>
+      <c r="B27" s="306"/>
+      <c r="C27" s="306"/>
+      <c r="D27" s="306"/>
+      <c r="E27" s="306"/>
+      <c r="F27" s="306"/>
+      <c r="G27" s="306"/>
+      <c r="H27" s="306"/>
+      <c r="I27" s="306"/>
+      <c r="J27" s="306"/>
+      <c r="K27" s="306"/>
+      <c r="L27" s="306"/>
+      <c r="M27" s="307"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="312"/>
-      <c r="B28" s="313"/>
-      <c r="C28" s="313"/>
-      <c r="D28" s="313"/>
-      <c r="E28" s="313"/>
-      <c r="F28" s="313"/>
-      <c r="G28" s="313"/>
-      <c r="H28" s="313"/>
-      <c r="I28" s="313"/>
-      <c r="J28" s="313"/>
-      <c r="K28" s="313"/>
-      <c r="L28" s="313"/>
-      <c r="M28" s="314"/>
+      <c r="A28" s="305"/>
+      <c r="B28" s="306"/>
+      <c r="C28" s="306"/>
+      <c r="D28" s="306"/>
+      <c r="E28" s="306"/>
+      <c r="F28" s="306"/>
+      <c r="G28" s="306"/>
+      <c r="H28" s="306"/>
+      <c r="I28" s="306"/>
+      <c r="J28" s="306"/>
+      <c r="K28" s="306"/>
+      <c r="L28" s="306"/>
+      <c r="M28" s="307"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="312"/>
-      <c r="B29" s="313"/>
-      <c r="C29" s="313"/>
-      <c r="D29" s="313"/>
-      <c r="E29" s="313"/>
-      <c r="F29" s="313"/>
-      <c r="G29" s="313"/>
-      <c r="H29" s="313"/>
-      <c r="I29" s="313"/>
-      <c r="J29" s="313"/>
-      <c r="K29" s="313"/>
-      <c r="L29" s="313"/>
-      <c r="M29" s="314"/>
+      <c r="A29" s="305"/>
+      <c r="B29" s="306"/>
+      <c r="C29" s="306"/>
+      <c r="D29" s="306"/>
+      <c r="E29" s="306"/>
+      <c r="F29" s="306"/>
+      <c r="G29" s="306"/>
+      <c r="H29" s="306"/>
+      <c r="I29" s="306"/>
+      <c r="J29" s="306"/>
+      <c r="K29" s="306"/>
+      <c r="L29" s="306"/>
+      <c r="M29" s="307"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="315"/>
-      <c r="B30" s="316"/>
-      <c r="C30" s="316"/>
-      <c r="D30" s="316"/>
-      <c r="E30" s="316"/>
-      <c r="F30" s="316"/>
-      <c r="G30" s="316"/>
-      <c r="H30" s="316"/>
-      <c r="I30" s="316"/>
-      <c r="J30" s="316"/>
-      <c r="K30" s="316"/>
-      <c r="L30" s="316"/>
-      <c r="M30" s="317"/>
+      <c r="A30" s="308"/>
+      <c r="B30" s="309"/>
+      <c r="C30" s="309"/>
+      <c r="D30" s="309"/>
+      <c r="E30" s="309"/>
+      <c r="F30" s="309"/>
+      <c r="G30" s="309"/>
+      <c r="H30" s="309"/>
+      <c r="I30" s="309"/>
+      <c r="J30" s="309"/>
+      <c r="K30" s="309"/>
+      <c r="L30" s="309"/>
+      <c r="M30" s="310"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
@@ -8534,21 +8558,21 @@
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="324" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="325"/>
-      <c r="C32" s="325"/>
-      <c r="D32" s="325"/>
-      <c r="E32" s="325"/>
-      <c r="F32" s="325"/>
-      <c r="G32" s="325"/>
-      <c r="H32" s="325"/>
-      <c r="I32" s="325"/>
-      <c r="J32" s="325"/>
-      <c r="K32" s="325"/>
-      <c r="L32" s="325"/>
-      <c r="M32" s="326"/>
+      <c r="A32" s="317" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="318"/>
+      <c r="C32" s="318"/>
+      <c r="D32" s="318"/>
+      <c r="E32" s="318"/>
+      <c r="F32" s="318"/>
+      <c r="G32" s="318"/>
+      <c r="H32" s="318"/>
+      <c r="I32" s="318"/>
+      <c r="J32" s="318"/>
+      <c r="K32" s="318"/>
+      <c r="L32" s="318"/>
+      <c r="M32" s="319"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
@@ -8567,22 +8591,22 @@
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="299"/>
-      <c r="C34" s="299"/>
-      <c r="D34" s="299"/>
-      <c r="E34" s="299"/>
-      <c r="F34" s="299"/>
+        <v>21</v>
+      </c>
+      <c r="B34" s="320"/>
+      <c r="C34" s="320"/>
+      <c r="D34" s="320"/>
+      <c r="E34" s="320"/>
+      <c r="F34" s="320"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I34" s="7"/>
-      <c r="J34" s="299"/>
-      <c r="K34" s="299"/>
-      <c r="L34" s="299"/>
-      <c r="M34" s="300"/>
+      <c r="J34" s="320"/>
+      <c r="K34" s="320"/>
+      <c r="L34" s="320"/>
+      <c r="M34" s="321"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
@@ -8603,50 +8627,50 @@
       <c r="A36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="299"/>
-      <c r="C36" s="299"/>
-      <c r="D36" s="299"/>
-      <c r="E36" s="299"/>
-      <c r="F36" s="299"/>
+      <c r="B36" s="320"/>
+      <c r="C36" s="320"/>
+      <c r="D36" s="320"/>
+      <c r="E36" s="320"/>
+      <c r="F36" s="320"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I36" s="4"/>
-      <c r="J36" s="299"/>
-      <c r="K36" s="299"/>
-      <c r="L36" s="299"/>
-      <c r="M36" s="300"/>
+      <c r="J36" s="320"/>
+      <c r="K36" s="320"/>
+      <c r="L36" s="320"/>
+      <c r="M36" s="321"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
-      <c r="B37" s="301"/>
-      <c r="C37" s="301"/>
-      <c r="D37" s="301"/>
-      <c r="E37" s="301"/>
-      <c r="F37" s="301"/>
+      <c r="B37" s="322"/>
+      <c r="C37" s="322"/>
+      <c r="D37" s="322"/>
+      <c r="E37" s="322"/>
+      <c r="F37" s="322"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
-      <c r="J37" s="301"/>
-      <c r="K37" s="301"/>
-      <c r="L37" s="301"/>
-      <c r="M37" s="302"/>
+      <c r="J37" s="322"/>
+      <c r="K37" s="322"/>
+      <c r="L37" s="322"/>
+      <c r="M37" s="323"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="11">
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="A5:M30"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A32:M32"/>
     <mergeCell ref="B34:F34"/>
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="J36:M36"/>
     <mergeCell ref="B37:F37"/>
     <mergeCell ref="J34:M34"/>
     <mergeCell ref="J37:M37"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="A5:M30"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A32:M32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" orientation="landscape" r:id="rId1"/>
@@ -8670,7 +8694,7 @@
       <selection activeCell="A11" sqref="A11:H12"/>
       <selection pane="topRight" activeCell="A11" sqref="A11:H12"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11:H12"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="63.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8683,43 +8707,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="211" t="s">
-        <v>591</v>
-      </c>
-      <c r="B1" s="211" t="s">
+      <c r="A1" s="209" t="s">
+        <v>577</v>
+      </c>
+      <c r="B1" s="209" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="E1" s="37" t="s">
         <v>339</v>
       </c>
-      <c r="D1" s="37" t="s">
-        <v>340</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>341</v>
-      </c>
       <c r="F1" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="120" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="121" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="C2" s="116" t="str">
         <f>""""&amp;C1&amp;""","</f>
@@ -8756,58 +8780,58 @@
     </row>
     <row r="3" spans="1:10" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="120" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="121" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="120" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="121" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="120" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="121" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="120" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B6" s="121" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="120" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="121" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="120" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" s="121" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="120" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" s="121" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="63.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -8857,17 +8881,17 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -8875,12 +8899,12 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -8888,67 +8912,67 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -8956,47 +8980,47 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
@@ -9004,7 +9028,7 @@
     </row>
     <row r="33" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -9026,12 +9050,12 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A11" sqref="A11:H12"/>
       <selection pane="topRight" activeCell="A11" sqref="A11:H12"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11:H12"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9050,244 +9074,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="211" t="s">
-        <v>591</v>
-      </c>
-      <c r="B1" s="211" t="s">
+      <c r="A1" s="209" t="s">
+        <v>577</v>
+      </c>
+      <c r="B1" s="209" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="E1" s="37" t="s">
         <v>339</v>
       </c>
-      <c r="D1" s="37" t="s">
-        <v>340</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>341</v>
-      </c>
       <c r="F1" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="C2" s="116" t="str">
-        <f>""""&amp;C1&amp;""","</f>
+        <f t="shared" ref="C2:J2" si="0">""""&amp;C1&amp;""","</f>
         <v>"&lt;1 ",</v>
       </c>
       <c r="D2" s="116" t="str">
-        <f>""""&amp;D1&amp;""","</f>
+        <f t="shared" si="0"/>
         <v>"1-4 ",</v>
       </c>
       <c r="E2" s="116" t="str">
-        <f>""""&amp;E1&amp;""","</f>
+        <f t="shared" si="0"/>
         <v>"5-9 ",</v>
       </c>
       <c r="F2" s="116" t="str">
-        <f>""""&amp;F1&amp;""","</f>
+        <f t="shared" si="0"/>
         <v>"10-14",</v>
       </c>
       <c r="G2" s="116" t="str">
-        <f>""""&amp;G1&amp;""","</f>
+        <f t="shared" si="0"/>
         <v>"15-19 ",</v>
       </c>
       <c r="H2" s="116" t="str">
-        <f>""""&amp;H1&amp;""","</f>
+        <f t="shared" si="0"/>
         <v>"20-24",</v>
       </c>
       <c r="I2" s="116" t="str">
-        <f>""""&amp;I1&amp;""","</f>
+        <f t="shared" si="0"/>
         <v>"25-49 ",</v>
       </c>
       <c r="J2" s="116" t="str">
-        <f>""""&amp;J1&amp;""","</f>
+        <f t="shared" si="0"/>
         <v>"50+",</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="95" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="95" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" s="95" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="95" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="206" t="s">
-        <v>579</v>
+        <v>97</v>
+      </c>
+      <c r="B5" s="204" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="257" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="206" t="s">
-        <v>580</v>
+      <c r="A6" s="205" t="s">
+        <v>606</v>
+      </c>
+      <c r="B6" s="204" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="258"/>
-      <c r="B7" s="206" t="s">
-        <v>582</v>
+      <c r="A7" s="205" t="s">
+        <v>607</v>
+      </c>
+      <c r="B7" s="204" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="259"/>
-      <c r="B8" s="206" t="s">
-        <v>581</v>
+      <c r="A8" s="205" t="s">
+        <v>608</v>
+      </c>
+      <c r="B8" s="204" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="207" t="s">
-        <v>227</v>
-      </c>
-      <c r="B9" s="206" t="s">
-        <v>583</v>
+      <c r="A9" s="205" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" s="204" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="208" t="s">
-        <v>570</v>
-      </c>
-      <c r="B10" s="166" t="s">
-        <v>469</v>
+      <c r="A10" s="206" t="s">
+        <v>556</v>
+      </c>
+      <c r="B10" s="164" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="209" t="s">
-        <v>571</v>
-      </c>
-      <c r="B11" s="166" t="s">
-        <v>470</v>
+      <c r="A11" s="207" t="s">
+        <v>557</v>
+      </c>
+      <c r="B11" s="164" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="95" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B12" s="95" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="95" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="165" t="s">
-        <v>475</v>
+        <v>98</v>
+      </c>
+      <c r="B13" s="163" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="95" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B14" s="95" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="95" t="s">
-        <v>216</v>
-      </c>
-      <c r="B15" s="165" t="s">
-        <v>467</v>
+        <v>214</v>
+      </c>
+      <c r="B15" s="163" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="95" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B16" s="95" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="95" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B17" s="95" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="95"/>
+      <c r="A18" s="95" t="s">
+        <v>609</v>
+      </c>
       <c r="B18" s="95" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="95" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B19" s="95" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="95" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B20" s="95" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="95" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B21" s="95" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="95" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="B22" s="95" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="95" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="B23" s="95" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="1">
-    <mergeCell ref="A6:A8"/>
-  </mergeCells>
   <pageMargins left="0.39" right="0.33" top="0.68" bottom="0.55000000000000004" header="0.3" footer="0.3"/>
   <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -9325,83 +9352,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="211" t="s">
-        <v>591</v>
-      </c>
-      <c r="B1" s="211" t="s">
+      <c r="A1" s="209" t="s">
+        <v>577</v>
+      </c>
+      <c r="B1" s="209" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="G1" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="H1" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="I1" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="H1" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>206</v>
-      </c>
       <c r="J1" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C2" s="116" t="str">
-        <f>""""&amp;C1&amp;""","</f>
+        <f t="shared" ref="C2:J2" si="0">""""&amp;C1&amp;""","</f>
         <v>"&lt;1",</v>
       </c>
       <c r="D2" s="116" t="str">
-        <f>""""&amp;D1&amp;""","</f>
+        <f t="shared" si="0"/>
         <v>"1 – 4",</v>
       </c>
       <c r="E2" s="116" t="str">
-        <f>""""&amp;E1&amp;""","</f>
+        <f t="shared" si="0"/>
         <v>"5 to 9",</v>
       </c>
       <c r="F2" s="116" t="str">
-        <f>""""&amp;F1&amp;""","</f>
+        <f t="shared" si="0"/>
         <v>"10 to 14",</v>
       </c>
       <c r="G2" s="116" t="str">
-        <f>""""&amp;G1&amp;""","</f>
+        <f t="shared" si="0"/>
         <v>"15 to 19",</v>
       </c>
       <c r="H2" s="116" t="str">
-        <f>""""&amp;H1&amp;""","</f>
+        <f t="shared" si="0"/>
         <v>"20 to 24",</v>
       </c>
       <c r="I2" s="116" t="str">
-        <f>""""&amp;I1&amp;""","</f>
+        <f t="shared" si="0"/>
         <v>"25 to 49",</v>
       </c>
       <c r="J2" s="116" t="str">
-        <f>""""&amp;J1&amp;""","</f>
+        <f t="shared" si="0"/>
         <v>"50+",</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
@@ -9414,10 +9441,10 @@
     </row>
     <row r="4" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="42"/>
@@ -9430,10 +9457,10 @@
     </row>
     <row r="5" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="49" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="42"/>
       <c r="D5" s="45"/>
@@ -9446,10 +9473,10 @@
     </row>
     <row r="6" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="49" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
@@ -9462,10 +9489,10 @@
     </row>
     <row r="7" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="49" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="42"/>
       <c r="D7" s="42"/>
@@ -9478,10 +9505,10 @@
     </row>
     <row r="8" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="49" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
@@ -9495,10 +9522,10 @@
     </row>
     <row r="9" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
@@ -9511,10 +9538,10 @@
     </row>
     <row r="10" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="79" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C10" s="47"/>
       <c r="D10" s="47"/>
@@ -9527,10 +9554,10 @@
     </row>
     <row r="11" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="49" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="47"/>
       <c r="D11" s="47"/>
@@ -9543,10 +9570,10 @@
     </row>
     <row r="12" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="49" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="47"/>
       <c r="D12" s="47"/>
@@ -9559,10 +9586,10 @@
     </row>
     <row r="13" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="49" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="47"/>
       <c r="D13" s="47"/>
@@ -9575,10 +9602,10 @@
     </row>
     <row r="14" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="B14" s="163" t="s">
-        <v>437</v>
+        <v>174</v>
+      </c>
+      <c r="B14" s="161" t="s">
+        <v>435</v>
       </c>
       <c r="C14" s="47"/>
       <c r="D14" s="47"/>
@@ -9591,10 +9618,10 @@
     </row>
     <row r="15" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="49" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C15" s="47"/>
       <c r="D15" s="47"/>
@@ -9607,10 +9634,10 @@
     </row>
     <row r="16" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="C16" s="47"/>
       <c r="D16" s="47"/>
@@ -9623,10 +9650,10 @@
     </row>
     <row r="17" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="49" t="s">
-        <v>588</v>
-      </c>
-      <c r="B17" s="164" t="s">
-        <v>458</v>
+        <v>574</v>
+      </c>
+      <c r="B17" s="162" t="s">
+        <v>446</v>
       </c>
       <c r="C17" s="47"/>
       <c r="D17" s="47"/>
@@ -9639,10 +9666,10 @@
     </row>
     <row r="18" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="49" t="s">
-        <v>589</v>
-      </c>
-      <c r="B18" s="164" t="s">
-        <v>459</v>
+        <v>575</v>
+      </c>
+      <c r="B18" s="162" t="s">
+        <v>447</v>
       </c>
       <c r="C18" s="47"/>
       <c r="D18" s="47"/>
@@ -9670,20 +9697,20 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="91" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C4" sqref="C4"/>
       <selection pane="topRight" activeCell="C4" sqref="C4"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:B2"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="127" customWidth="1"/>
-    <col min="2" max="2" width="54.7109375" style="33" customWidth="1"/>
+    <col min="1" max="1" width="17" style="127" customWidth="1"/>
+    <col min="2" max="2" width="68" style="33" customWidth="1"/>
     <col min="3" max="4" width="11.5703125" style="33" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" style="33" customWidth="1"/>
     <col min="6" max="7" width="11.5703125" style="33" customWidth="1"/>
@@ -9692,54 +9719,77 @@
     <col min="10" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="262" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="263"/>
-      <c r="E1" s="263"/>
-      <c r="F1" s="263"/>
-      <c r="G1" s="263"/>
-      <c r="H1" s="263"/>
-      <c r="I1" s="264"/>
-    </row>
-    <row r="2" spans="1:9" s="128" customFormat="1" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="211" t="s">
-        <v>591</v>
-      </c>
-      <c r="B2" s="211" t="s">
+    <row r="1" spans="1:9" s="128" customFormat="1" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="209" t="s">
+        <v>577</v>
+      </c>
+      <c r="B1" s="209" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="132" t="s">
-        <v>352</v>
-      </c>
-      <c r="D2" s="132" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="132" t="s">
+      <c r="C1" s="132" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1" s="132" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="132" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="132" t="s">
+      <c r="G1" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="132" t="s">
+      <c r="H1" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="133" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="133" t="s">
+      <c r="I1" s="133" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>559</v>
+      </c>
+      <c r="C2" s="116" t="str">
+        <f t="shared" ref="C2:I2" si="0">""""&amp;C1&amp;""","</f>
+        <v>"&lt;10",</v>
+      </c>
+      <c r="D2" s="116" t="str">
+        <f t="shared" si="0"/>
+        <v>"10-14",</v>
+      </c>
+      <c r="E2" s="116" t="str">
+        <f t="shared" si="0"/>
+        <v>"15-19",</v>
+      </c>
+      <c r="F2" s="116" t="str">
+        <f t="shared" si="0"/>
+        <v>"20-24",</v>
+      </c>
+      <c r="G2" s="116" t="str">
+        <f t="shared" si="0"/>
+        <v>"25-49",</v>
+      </c>
+      <c r="H2" s="116" t="str">
+        <f t="shared" si="0"/>
+        <v>"50+",</v>
+      </c>
+      <c r="I2" s="116" t="str">
+        <f t="shared" si="0"/>
+        <v>"Total",</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="79" t="s">
-        <v>573</v>
+        <v>560</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>32</v>
       </c>
       <c r="C3" s="88"/>
       <c r="D3" s="88"/>
@@ -9747,17 +9797,17 @@
       <c r="F3" s="88"/>
       <c r="G3" s="88"/>
       <c r="H3" s="88"/>
-      <c r="I3" s="168">
+      <c r="I3" s="166">
         <f>SUM(C3:H3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
-        <v>574</v>
+        <v>104</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>33</v>
+        <v>351</v>
       </c>
       <c r="C4" s="88"/>
       <c r="D4" s="88"/>
@@ -9765,17 +9815,17 @@
       <c r="F4" s="88"/>
       <c r="G4" s="88"/>
       <c r="H4" s="88"/>
-      <c r="I4" s="168">
+      <c r="I4" s="166">
         <f>SUM(C4:H4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>353</v>
+        <v>30</v>
       </c>
       <c r="C5" s="88"/>
       <c r="D5" s="88"/>
@@ -9783,14 +9833,14 @@
       <c r="F5" s="88"/>
       <c r="G5" s="88"/>
       <c r="H5" s="88"/>
-      <c r="I5" s="168">
+      <c r="I5" s="166">
         <f>SUM(C5:H5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="49" t="s">
         <v>31</v>
@@ -9801,17 +9851,17 @@
       <c r="F6" s="88"/>
       <c r="G6" s="88"/>
       <c r="H6" s="88"/>
-      <c r="I6" s="168">
+      <c r="I6" s="166">
         <f>SUM(C6:H6)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>32</v>
+        <v>196</v>
+      </c>
+      <c r="B7" s="79" t="s">
+        <v>187</v>
       </c>
       <c r="C7" s="88"/>
       <c r="D7" s="88"/>
@@ -9819,17 +9869,17 @@
       <c r="F7" s="88"/>
       <c r="G7" s="88"/>
       <c r="H7" s="88"/>
-      <c r="I7" s="168">
-        <f>SUM(C7:H7)</f>
+      <c r="I7" s="166">
+        <f t="shared" ref="I7:I13" si="1">SUM(C7:H7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="49" t="s">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="B8" s="79" t="s">
-        <v>189</v>
+        <v>561</v>
       </c>
       <c r="C8" s="88"/>
       <c r="D8" s="88"/>
@@ -9837,17 +9887,17 @@
       <c r="F8" s="88"/>
       <c r="G8" s="88"/>
       <c r="H8" s="88"/>
-      <c r="I8" s="168">
-        <f t="shared" ref="I8:I14" si="0">SUM(C8:H8)</f>
+      <c r="I8" s="166">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="C9" s="88"/>
       <c r="D9" s="88"/>
@@ -9855,8 +9905,8 @@
       <c r="F9" s="88"/>
       <c r="G9" s="88"/>
       <c r="H9" s="88"/>
-      <c r="I9" s="168">
-        <f t="shared" si="0"/>
+      <c r="I9" s="166">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9864,8 +9914,8 @@
       <c r="A10" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="79" t="s">
-        <v>576</v>
+      <c r="B10" s="49" t="s">
+        <v>384</v>
       </c>
       <c r="C10" s="88"/>
       <c r="D10" s="88"/>
@@ -9873,17 +9923,17 @@
       <c r="F10" s="88"/>
       <c r="G10" s="88"/>
       <c r="H10" s="88"/>
-      <c r="I10" s="168">
-        <f t="shared" si="0"/>
+      <c r="I10" s="166">
+        <f>SUM(C10:H10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>386</v>
+        <v>194</v>
+      </c>
+      <c r="B11" s="208" t="s">
+        <v>192</v>
       </c>
       <c r="C11" s="88"/>
       <c r="D11" s="88"/>
@@ -9891,17 +9941,17 @@
       <c r="F11" s="88"/>
       <c r="G11" s="88"/>
       <c r="H11" s="88"/>
-      <c r="I11" s="168">
+      <c r="I11" s="166">
         <f>SUM(C11:H11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="49" t="s">
-        <v>196</v>
-      </c>
-      <c r="B12" s="210" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="B12" s="157" t="s">
+        <v>193</v>
       </c>
       <c r="C12" s="129"/>
       <c r="D12" s="88"/>
@@ -9909,26 +9959,26 @@
       <c r="F12" s="88"/>
       <c r="G12" s="88"/>
       <c r="H12" s="88"/>
-      <c r="I12" s="168">
+      <c r="I12" s="166">
         <f>SUM(C12:H12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="49" t="s">
-        <v>197</v>
-      </c>
-      <c r="B13" s="159" t="s">
-        <v>195</v>
-      </c>
-      <c r="C13" s="129"/>
+        <v>109</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>464</v>
+      </c>
+      <c r="C13" s="88"/>
       <c r="D13" s="88"/>
       <c r="E13" s="88"/>
       <c r="F13" s="88"/>
       <c r="G13" s="88"/>
       <c r="H13" s="88"/>
-      <c r="I13" s="168">
-        <f>SUM(C13:H13)</f>
+      <c r="I13" s="166">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9937,25 +9987,22 @@
         <v>111</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>476</v>
-      </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="168">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="167"/>
     </row>
     <row r="15" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="49" t="s">
-        <v>113</v>
+        <v>197</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>477</v>
+        <v>10</v>
       </c>
       <c r="C15" s="130"/>
       <c r="D15" s="130"/>
@@ -9963,14 +10010,14 @@
       <c r="F15" s="130"/>
       <c r="G15" s="130"/>
       <c r="H15" s="130"/>
-      <c r="I15" s="169"/>
+      <c r="I15" s="167"/>
     </row>
     <row r="16" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
-        <v>199</v>
+        <v>112</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>10</v>
+        <v>466</v>
       </c>
       <c r="C16" s="130"/>
       <c r="D16" s="130"/>
@@ -9978,14 +10025,14 @@
       <c r="F16" s="130"/>
       <c r="G16" s="130"/>
       <c r="H16" s="130"/>
-      <c r="I16" s="169"/>
+      <c r="I16" s="167"/>
     </row>
     <row r="17" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>478</v>
+        <v>352</v>
       </c>
       <c r="C17" s="130"/>
       <c r="D17" s="130"/>
@@ -9993,14 +10040,14 @@
       <c r="F17" s="130"/>
       <c r="G17" s="130"/>
       <c r="H17" s="130"/>
-      <c r="I17" s="169"/>
+      <c r="I17" s="167"/>
     </row>
     <row r="18" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="49" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="C18" s="130"/>
       <c r="D18" s="130"/>
@@ -10008,14 +10055,14 @@
       <c r="F18" s="130"/>
       <c r="G18" s="130"/>
       <c r="H18" s="130"/>
-      <c r="I18" s="169"/>
+      <c r="I18" s="167"/>
     </row>
     <row r="19" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>387</v>
+        <v>33</v>
       </c>
       <c r="C19" s="130"/>
       <c r="D19" s="130"/>
@@ -10023,11 +10070,11 @@
       <c r="F19" s="130"/>
       <c r="G19" s="130"/>
       <c r="H19" s="130"/>
-      <c r="I19" s="169"/>
+      <c r="I19" s="167"/>
     </row>
     <row r="20" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B20" s="49" t="s">
         <v>34</v>
@@ -10038,11 +10085,11 @@
       <c r="F20" s="130"/>
       <c r="G20" s="130"/>
       <c r="H20" s="130"/>
-      <c r="I20" s="169"/>
+      <c r="I20" s="167"/>
     </row>
     <row r="21" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B21" s="49" t="s">
         <v>35</v>
@@ -10053,14 +10100,14 @@
       <c r="F21" s="130"/>
       <c r="G21" s="130"/>
       <c r="H21" s="130"/>
-      <c r="I21" s="169"/>
+      <c r="I21" s="167"/>
     </row>
     <row r="22" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>36</v>
+      <c r="A22" s="165" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="79" t="s">
+        <v>386</v>
       </c>
       <c r="C22" s="130"/>
       <c r="D22" s="130"/>
@@ -10068,233 +10115,448 @@
       <c r="F22" s="130"/>
       <c r="G22" s="130"/>
       <c r="H22" s="130"/>
-      <c r="I22" s="169"/>
+      <c r="I22" s="167"/>
     </row>
     <row r="23" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="167" t="s">
-        <v>178</v>
+      <c r="A23" s="189" t="s">
+        <v>116</v>
       </c>
       <c r="B23" s="79" t="s">
-        <v>388</v>
-      </c>
-      <c r="C23" s="130"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="130"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="169"/>
-    </row>
-    <row r="24" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="260" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" s="79" t="s">
-        <v>563</v>
-      </c>
-      <c r="C24" s="130"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="130"/>
-      <c r="G24" s="130"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="169"/>
-    </row>
-    <row r="25" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="261"/>
-      <c r="B25" s="266" t="s">
-        <v>438</v>
-      </c>
-      <c r="C25" s="268" t="s">
-        <v>439</v>
-      </c>
-      <c r="D25" s="269"/>
-      <c r="E25" s="269"/>
-      <c r="F25" s="269"/>
-      <c r="G25" s="269"/>
-      <c r="H25" s="270"/>
-      <c r="I25" s="169"/>
-    </row>
-    <row r="26" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="261"/>
-      <c r="B26" s="266"/>
-      <c r="C26" s="268" t="s">
-        <v>440</v>
-      </c>
-      <c r="D26" s="269"/>
-      <c r="E26" s="269"/>
-      <c r="F26" s="269"/>
-      <c r="G26" s="269"/>
-      <c r="H26" s="270"/>
-      <c r="I26" s="169"/>
-    </row>
-    <row r="27" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="261"/>
-      <c r="B27" s="266"/>
-      <c r="C27" s="268" t="s">
-        <v>441</v>
-      </c>
-      <c r="D27" s="269"/>
-      <c r="E27" s="269"/>
-      <c r="F27" s="269"/>
-      <c r="G27" s="269"/>
-      <c r="H27" s="270"/>
-      <c r="I27" s="169"/>
-    </row>
-    <row r="28" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="265"/>
-      <c r="B28" s="267"/>
-      <c r="C28" s="268" t="s">
-        <v>442</v>
-      </c>
-      <c r="D28" s="269"/>
-      <c r="E28" s="269"/>
-      <c r="F28" s="269"/>
-      <c r="G28" s="269"/>
-      <c r="H28" s="270"/>
-      <c r="I28" s="169"/>
-    </row>
-    <row r="29" spans="1:9" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="260" t="s">
-        <v>119</v>
-      </c>
-      <c r="B29" s="79" t="s">
-        <v>564</v>
-      </c>
-      <c r="C29" s="130"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="130"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="130"/>
-      <c r="H29" s="130"/>
-      <c r="I29" s="169"/>
+        <v>551</v>
+      </c>
+      <c r="C23" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="D23" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="E23" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="F23" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="G23" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="H23" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="I23" s="167">
+        <f>I22+10</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="189" t="s">
+        <v>586</v>
+      </c>
+      <c r="B24" s="210" t="s">
+        <v>587</v>
+      </c>
+      <c r="C24" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="D24" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="E24" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="F24" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="G24" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="H24" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="I24" s="167">
+        <f>I23+10</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="189" t="s">
+        <v>588</v>
+      </c>
+      <c r="B25" s="210" t="s">
+        <v>589</v>
+      </c>
+      <c r="C25" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="D25" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="E25" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="F25" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="G25" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="H25" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="I25" s="167">
+        <f t="shared" ref="I25:I31" si="2">I24+10</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="189" t="s">
+        <v>590</v>
+      </c>
+      <c r="B26" s="210" t="s">
+        <v>591</v>
+      </c>
+      <c r="C26" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="D26" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="E26" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="F26" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="G26" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="H26" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="I26" s="167">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="189" t="s">
+        <v>592</v>
+      </c>
+      <c r="B27" s="210" t="s">
+        <v>593</v>
+      </c>
+      <c r="C27" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="D27" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="E27" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="F27" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="G27" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="H27" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="I27" s="167">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="189" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="79" t="s">
+        <v>552</v>
+      </c>
+      <c r="C28" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="D28" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="E28" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="F28" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="G28" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="H28" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="I28" s="167">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="189" t="s">
+        <v>594</v>
+      </c>
+      <c r="B29" s="211" t="s">
+        <v>595</v>
+      </c>
+      <c r="C29" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="D29" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="E29" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="F29" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="G29" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="H29" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="I29" s="167">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="261"/>
-      <c r="B30" s="271" t="s">
-        <v>444</v>
-      </c>
-      <c r="C30" s="268" t="s">
-        <v>565</v>
-      </c>
-      <c r="D30" s="269"/>
-      <c r="E30" s="269"/>
-      <c r="F30" s="269"/>
-      <c r="G30" s="269"/>
-      <c r="H30" s="270"/>
-      <c r="I30" s="169"/>
+      <c r="A30" s="189" t="s">
+        <v>596</v>
+      </c>
+      <c r="B30" s="211" t="s">
+        <v>597</v>
+      </c>
+      <c r="C30" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="D30" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="E30" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="F30" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="G30" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="H30" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="I30" s="167">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="261"/>
-      <c r="B31" s="266"/>
-      <c r="C31" s="268" t="s">
-        <v>566</v>
-      </c>
-      <c r="D31" s="269"/>
-      <c r="E31" s="269"/>
-      <c r="F31" s="269"/>
-      <c r="G31" s="269"/>
-      <c r="H31" s="270"/>
-      <c r="I31" s="169"/>
-    </row>
-    <row r="32" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="261"/>
-      <c r="B32" s="267"/>
-      <c r="C32" s="268" t="s">
-        <v>443</v>
-      </c>
-      <c r="D32" s="269"/>
-      <c r="E32" s="269"/>
-      <c r="F32" s="269"/>
-      <c r="G32" s="269"/>
-      <c r="H32" s="270"/>
-      <c r="I32" s="169"/>
-    </row>
-    <row r="33" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="49" t="s">
-        <v>200</v>
-      </c>
-      <c r="B33" s="79" t="s">
-        <v>445</v>
-      </c>
-      <c r="C33" s="157" t="s">
-        <v>446</v>
-      </c>
-      <c r="D33" s="155"/>
-      <c r="E33" s="157" t="s">
-        <v>447</v>
-      </c>
-      <c r="F33" s="156"/>
-      <c r="G33" s="158" t="s">
-        <v>448</v>
-      </c>
-      <c r="H33" s="155"/>
-      <c r="I33" s="168">
-        <f>H33+D33</f>
+      <c r="A31" s="189" t="s">
+        <v>598</v>
+      </c>
+      <c r="B31" s="211" t="s">
+        <v>599</v>
+      </c>
+      <c r="C31" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="D31" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="E31" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="F31" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="G31" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="H31" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="I31" s="167">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="189" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" s="79" t="s">
+        <v>436</v>
+      </c>
+      <c r="C32" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="D32" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="E32" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="F32" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="G32" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="H32" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="I32" s="166">
+        <f>SUM(I33:I35)</f>
         <v>0</v>
       </c>
     </row>
+    <row r="33" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="189" t="s">
+        <v>600</v>
+      </c>
+      <c r="B33" s="212" t="s">
+        <v>601</v>
+      </c>
+      <c r="C33" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="D33" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="E33" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="F33" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="G33" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="H33" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="I33" s="167">
+        <v>0</v>
+      </c>
+    </row>
     <row r="34" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="B34" s="79" t="s">
-        <v>389</v>
-      </c>
-      <c r="C34" s="130"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="130"/>
-      <c r="F34" s="130"/>
-      <c r="G34" s="130"/>
-      <c r="H34" s="130"/>
-      <c r="I34" s="169"/>
+      <c r="A34" s="189" t="s">
+        <v>602</v>
+      </c>
+      <c r="B34" s="212" t="s">
+        <v>603</v>
+      </c>
+      <c r="C34" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="D34" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="E34" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="F34" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="G34" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="H34" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="I34" s="167">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="49" t="s">
-        <v>449</v>
-      </c>
-      <c r="B35" s="79" t="s">
-        <v>390</v>
-      </c>
-      <c r="C35" s="131"/>
-      <c r="D35" s="131"/>
-      <c r="E35" s="131"/>
-      <c r="F35" s="131"/>
-      <c r="G35" s="131"/>
-      <c r="H35" s="131"/>
-      <c r="I35" s="169"/>
+      <c r="A35" s="189" t="s">
+        <v>604</v>
+      </c>
+      <c r="B35" s="212" t="s">
+        <v>605</v>
+      </c>
+      <c r="C35" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="D35" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="E35" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="F35" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="G35" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="H35" s="130" t="s">
+        <v>585</v>
+      </c>
+      <c r="I35" s="167">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="49" t="s">
-        <v>450</v>
+        <v>188</v>
       </c>
       <c r="B36" s="79" t="s">
-        <v>391</v>
-      </c>
-      <c r="C36" s="131"/>
-      <c r="D36" s="131"/>
-      <c r="E36" s="131"/>
-      <c r="F36" s="131"/>
-      <c r="G36" s="131"/>
-      <c r="H36" s="131"/>
-      <c r="I36" s="169"/>
+        <v>387</v>
+      </c>
+      <c r="C36" s="130"/>
+      <c r="D36" s="130"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="130"/>
+      <c r="G36" s="130"/>
+      <c r="H36" s="130"/>
+      <c r="I36" s="167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="49" t="s">
+        <v>437</v>
+      </c>
+      <c r="B37" s="79" t="s">
+        <v>388</v>
+      </c>
+      <c r="C37" s="131"/>
+      <c r="D37" s="131"/>
+      <c r="E37" s="131"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="131"/>
+      <c r="I37" s="167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="49" t="s">
+        <v>438</v>
+      </c>
+      <c r="B38" s="79" t="s">
+        <v>389</v>
+      </c>
+      <c r="C38" s="131"/>
+      <c r="D38" s="131"/>
+      <c r="E38" s="131"/>
+      <c r="F38" s="131"/>
+      <c r="G38" s="131"/>
+      <c r="H38" s="131"/>
+      <c r="I38" s="167">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="12">
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="B30:B32"/>
-  </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -10327,94 +10589,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="292" t="s">
-        <v>409</v>
-      </c>
-      <c r="B1" s="292"/>
-      <c r="C1" s="292"/>
-      <c r="D1" s="292"/>
-      <c r="E1" s="292"/>
-      <c r="F1" s="292"/>
-      <c r="G1" s="292"/>
-      <c r="H1" s="292"/>
-      <c r="I1" s="292"/>
-      <c r="J1" s="292"/>
-      <c r="K1" s="292"/>
-      <c r="L1" s="292"/>
-      <c r="M1" s="292"/>
+      <c r="A1" s="260" t="s">
+        <v>407</v>
+      </c>
+      <c r="B1" s="260"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="260"/>
+      <c r="F1" s="260"/>
+      <c r="G1" s="260"/>
+      <c r="H1" s="260"/>
+      <c r="I1" s="260"/>
+      <c r="J1" s="260"/>
+      <c r="K1" s="260"/>
+      <c r="L1" s="260"/>
+      <c r="M1" s="260"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="174"/>
-      <c r="B2" s="175"/>
-      <c r="C2" s="262" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263"/>
-      <c r="F2" s="263"/>
-      <c r="G2" s="264"/>
-      <c r="H2" s="263" t="s">
-        <v>456</v>
-      </c>
-      <c r="I2" s="263"/>
-      <c r="J2" s="263"/>
-      <c r="K2" s="263"/>
-      <c r="L2" s="264"/>
-      <c r="M2" s="293" t="s">
+      <c r="A2" s="172"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="276" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="261"/>
+      <c r="E2" s="261"/>
+      <c r="F2" s="261"/>
+      <c r="G2" s="262"/>
+      <c r="H2" s="261" t="s">
+        <v>444</v>
+      </c>
+      <c r="I2" s="261"/>
+      <c r="J2" s="261"/>
+      <c r="K2" s="261"/>
+      <c r="L2" s="262"/>
+      <c r="M2" s="263" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="209" t="s">
+        <v>577</v>
+      </c>
+      <c r="B3" s="209" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="132" t="s">
+        <v>484</v>
+      </c>
+      <c r="D3" s="132" t="s">
+        <v>485</v>
+      </c>
+      <c r="E3" s="132" t="s">
+        <v>486</v>
+      </c>
+      <c r="F3" s="132" t="s">
+        <v>487</v>
+      </c>
+      <c r="G3" s="132" t="s">
+        <v>488</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>489</v>
+      </c>
+      <c r="I3" s="132" t="s">
+        <v>490</v>
+      </c>
+      <c r="J3" s="132" t="s">
+        <v>491</v>
+      </c>
+      <c r="K3" s="132" t="s">
+        <v>492</v>
+      </c>
+      <c r="L3" s="133" t="s">
+        <v>493</v>
+      </c>
+      <c r="M3" s="264"/>
+    </row>
+    <row r="4" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="273" t="s">
+        <v>494</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>495</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="211" t="s">
-        <v>591</v>
-      </c>
-      <c r="B3" s="211" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="132" t="s">
-        <v>496</v>
-      </c>
-      <c r="D3" s="132" t="s">
-        <v>497</v>
-      </c>
-      <c r="E3" s="132" t="s">
-        <v>498</v>
-      </c>
-      <c r="F3" s="132" t="s">
-        <v>499</v>
-      </c>
-      <c r="G3" s="132" t="s">
-        <v>500</v>
-      </c>
-      <c r="H3" s="132" t="s">
-        <v>501</v>
-      </c>
-      <c r="I3" s="132" t="s">
-        <v>502</v>
-      </c>
-      <c r="J3" s="132" t="s">
-        <v>503</v>
-      </c>
-      <c r="K3" s="132" t="s">
-        <v>504</v>
-      </c>
-      <c r="L3" s="133" t="s">
-        <v>505</v>
-      </c>
-      <c r="M3" s="294"/>
-    </row>
-    <row r="4" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="260" t="s">
-        <v>506</v>
-      </c>
-      <c r="B4" s="79" t="s">
-        <v>507</v>
       </c>
       <c r="C4" s="155"/>
       <c r="D4" s="155"/>
       <c r="E4" s="155"/>
       <c r="F4" s="155"/>
-      <c r="G4" s="179">
+      <c r="G4" s="177">
         <f>SUM(C4:F4)</f>
         <v>0</v>
       </c>
@@ -10422,514 +10684,514 @@
       <c r="I4" s="155"/>
       <c r="J4" s="155"/>
       <c r="K4" s="155"/>
-      <c r="L4" s="179">
+      <c r="L4" s="177">
         <f>SUM(H4:K4)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="180">
+      <c r="M4" s="178">
         <f>L4+G4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="261"/>
-      <c r="B5" s="266" t="s">
-        <v>508</v>
-      </c>
-      <c r="C5" s="268" t="s">
-        <v>509</v>
-      </c>
-      <c r="D5" s="269"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="269"/>
-      <c r="G5" s="269"/>
-      <c r="H5" s="269"/>
-      <c r="I5" s="269"/>
-      <c r="J5" s="269"/>
-      <c r="K5" s="269"/>
-      <c r="L5" s="270"/>
-      <c r="M5" s="181"/>
+      <c r="A5" s="274"/>
+      <c r="B5" s="277" t="s">
+        <v>496</v>
+      </c>
+      <c r="C5" s="265" t="s">
+        <v>497</v>
+      </c>
+      <c r="D5" s="266"/>
+      <c r="E5" s="266"/>
+      <c r="F5" s="266"/>
+      <c r="G5" s="266"/>
+      <c r="H5" s="266"/>
+      <c r="I5" s="266"/>
+      <c r="J5" s="266"/>
+      <c r="K5" s="266"/>
+      <c r="L5" s="267"/>
+      <c r="M5" s="179"/>
     </row>
     <row r="6" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="261"/>
-      <c r="B6" s="266"/>
-      <c r="C6" s="268" t="s">
-        <v>510</v>
-      </c>
-      <c r="D6" s="269"/>
-      <c r="E6" s="269"/>
-      <c r="F6" s="269"/>
-      <c r="G6" s="269"/>
-      <c r="H6" s="269"/>
-      <c r="I6" s="269"/>
-      <c r="J6" s="269"/>
-      <c r="K6" s="269"/>
-      <c r="L6" s="270"/>
-      <c r="M6" s="181"/>
+      <c r="A6" s="274"/>
+      <c r="B6" s="277"/>
+      <c r="C6" s="265" t="s">
+        <v>498</v>
+      </c>
+      <c r="D6" s="266"/>
+      <c r="E6" s="266"/>
+      <c r="F6" s="266"/>
+      <c r="G6" s="266"/>
+      <c r="H6" s="266"/>
+      <c r="I6" s="266"/>
+      <c r="J6" s="266"/>
+      <c r="K6" s="266"/>
+      <c r="L6" s="267"/>
+      <c r="M6" s="179"/>
     </row>
     <row r="7" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="261"/>
-      <c r="B7" s="266"/>
-      <c r="C7" s="171" t="s">
-        <v>511</v>
-      </c>
-      <c r="D7" s="172"/>
-      <c r="E7" s="172"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="172"/>
-      <c r="H7" s="172"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="172"/>
-      <c r="K7" s="172"/>
-      <c r="L7" s="173"/>
-      <c r="M7" s="181"/>
+      <c r="A7" s="274"/>
+      <c r="B7" s="277"/>
+      <c r="C7" s="169" t="s">
+        <v>499</v>
+      </c>
+      <c r="D7" s="170"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="170"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="171"/>
+      <c r="M7" s="179"/>
     </row>
     <row r="8" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="261"/>
-      <c r="B8" s="266"/>
-      <c r="C8" s="171" t="s">
-        <v>512</v>
-      </c>
-      <c r="D8" s="172"/>
-      <c r="E8" s="172"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="172"/>
-      <c r="H8" s="172"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="172"/>
-      <c r="K8" s="172"/>
-      <c r="L8" s="173"/>
-      <c r="M8" s="181"/>
+      <c r="A8" s="274"/>
+      <c r="B8" s="277"/>
+      <c r="C8" s="169" t="s">
+        <v>500</v>
+      </c>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="170"/>
+      <c r="L8" s="171"/>
+      <c r="M8" s="179"/>
     </row>
     <row r="9" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="261"/>
-      <c r="B9" s="266"/>
-      <c r="C9" s="171" t="s">
-        <v>513</v>
-      </c>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="172"/>
-      <c r="H9" s="172"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="172"/>
-      <c r="K9" s="172"/>
-      <c r="L9" s="173"/>
-      <c r="M9" s="181"/>
+      <c r="A9" s="274"/>
+      <c r="B9" s="277"/>
+      <c r="C9" s="169" t="s">
+        <v>501</v>
+      </c>
+      <c r="D9" s="170"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="170"/>
+      <c r="L9" s="171"/>
+      <c r="M9" s="179"/>
     </row>
     <row r="10" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="261"/>
-      <c r="B10" s="266"/>
-      <c r="C10" s="203" t="s">
-        <v>585</v>
-      </c>
-      <c r="D10" s="204"/>
-      <c r="E10" s="204"/>
-      <c r="F10" s="204"/>
-      <c r="G10" s="204"/>
-      <c r="H10" s="204"/>
-      <c r="I10" s="204"/>
-      <c r="J10" s="204"/>
-      <c r="K10" s="204"/>
-      <c r="L10" s="205"/>
-      <c r="M10" s="181"/>
+      <c r="A10" s="274"/>
+      <c r="B10" s="277"/>
+      <c r="C10" s="201" t="s">
+        <v>571</v>
+      </c>
+      <c r="D10" s="202"/>
+      <c r="E10" s="202"/>
+      <c r="F10" s="202"/>
+      <c r="G10" s="202"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="202"/>
+      <c r="J10" s="202"/>
+      <c r="K10" s="202"/>
+      <c r="L10" s="203"/>
+      <c r="M10" s="179"/>
     </row>
     <row r="11" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="261"/>
-      <c r="B11" s="266"/>
-      <c r="C11" s="203" t="s">
-        <v>586</v>
-      </c>
-      <c r="D11" s="172"/>
-      <c r="E11" s="172"/>
-      <c r="F11" s="172"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="172"/>
-      <c r="I11" s="172"/>
-      <c r="J11" s="172"/>
-      <c r="K11" s="172"/>
-      <c r="L11" s="173"/>
-      <c r="M11" s="181"/>
+      <c r="A11" s="274"/>
+      <c r="B11" s="277"/>
+      <c r="C11" s="201" t="s">
+        <v>572</v>
+      </c>
+      <c r="D11" s="170"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="170"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="170"/>
+      <c r="K11" s="170"/>
+      <c r="L11" s="171"/>
+      <c r="M11" s="179"/>
     </row>
     <row r="12" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="261"/>
-      <c r="B12" s="266"/>
-      <c r="C12" s="171" t="s">
-        <v>514</v>
-      </c>
-      <c r="D12" s="172"/>
-      <c r="E12" s="172"/>
-      <c r="F12" s="172"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="172"/>
-      <c r="I12" s="172"/>
-      <c r="J12" s="172"/>
-      <c r="K12" s="172"/>
-      <c r="L12" s="173"/>
-      <c r="M12" s="181"/>
+      <c r="A12" s="274"/>
+      <c r="B12" s="277"/>
+      <c r="C12" s="169" t="s">
+        <v>502</v>
+      </c>
+      <c r="D12" s="170"/>
+      <c r="E12" s="170"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="170"/>
+      <c r="H12" s="170"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="170"/>
+      <c r="K12" s="170"/>
+      <c r="L12" s="171"/>
+      <c r="M12" s="179"/>
     </row>
     <row r="13" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="261"/>
-      <c r="B13" s="266"/>
-      <c r="C13" s="171" t="s">
-        <v>515</v>
-      </c>
-      <c r="D13" s="172"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="172"/>
-      <c r="I13" s="172"/>
-      <c r="J13" s="172"/>
-      <c r="K13" s="172"/>
-      <c r="L13" s="173"/>
-      <c r="M13" s="181"/>
+      <c r="A13" s="274"/>
+      <c r="B13" s="277"/>
+      <c r="C13" s="169" t="s">
+        <v>503</v>
+      </c>
+      <c r="D13" s="170"/>
+      <c r="E13" s="170"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="170"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="170"/>
+      <c r="K13" s="170"/>
+      <c r="L13" s="171"/>
+      <c r="M13" s="179"/>
     </row>
     <row r="14" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="261"/>
-      <c r="B14" s="266"/>
-      <c r="C14" s="171" t="s">
-        <v>516</v>
-      </c>
-      <c r="D14" s="172"/>
-      <c r="E14" s="172"/>
-      <c r="F14" s="172"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="172"/>
-      <c r="I14" s="172"/>
-      <c r="J14" s="172"/>
-      <c r="K14" s="172"/>
-      <c r="L14" s="173"/>
-      <c r="M14" s="181"/>
+      <c r="A14" s="274"/>
+      <c r="B14" s="277"/>
+      <c r="C14" s="169" t="s">
+        <v>504</v>
+      </c>
+      <c r="D14" s="170"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="170"/>
+      <c r="K14" s="170"/>
+      <c r="L14" s="171"/>
+      <c r="M14" s="179"/>
     </row>
     <row r="15" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="261"/>
-      <c r="B15" s="266"/>
-      <c r="C15" s="171" t="s">
-        <v>517</v>
-      </c>
-      <c r="D15" s="172"/>
-      <c r="E15" s="172"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="172"/>
-      <c r="K15" s="172"/>
-      <c r="L15" s="173"/>
-      <c r="M15" s="181"/>
+      <c r="A15" s="274"/>
+      <c r="B15" s="277"/>
+      <c r="C15" s="169" t="s">
+        <v>505</v>
+      </c>
+      <c r="D15" s="170"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="170"/>
+      <c r="I15" s="170"/>
+      <c r="J15" s="170"/>
+      <c r="K15" s="170"/>
+      <c r="L15" s="171"/>
+      <c r="M15" s="179"/>
     </row>
     <row r="16" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="261"/>
-      <c r="B16" s="266"/>
-      <c r="C16" s="279" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="280"/>
-      <c r="E16" s="280"/>
-      <c r="F16" s="280"/>
-      <c r="G16" s="280"/>
-      <c r="H16" s="280"/>
-      <c r="I16" s="280"/>
-      <c r="J16" s="280"/>
-      <c r="K16" s="280"/>
-      <c r="L16" s="281"/>
-      <c r="M16" s="182">
+      <c r="A16" s="274"/>
+      <c r="B16" s="277"/>
+      <c r="C16" s="278" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="279"/>
+      <c r="E16" s="279"/>
+      <c r="F16" s="279"/>
+      <c r="G16" s="279"/>
+      <c r="H16" s="279"/>
+      <c r="I16" s="279"/>
+      <c r="J16" s="279"/>
+      <c r="K16" s="279"/>
+      <c r="L16" s="280"/>
+      <c r="M16" s="180">
         <f>SUM(M5:M15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="261"/>
-      <c r="B17" s="286" t="s">
-        <v>518</v>
-      </c>
-      <c r="C17" s="171" t="s">
-        <v>519</v>
-      </c>
-      <c r="D17" s="172"/>
-      <c r="E17" s="272" t="s">
-        <v>520</v>
-      </c>
-      <c r="F17" s="274"/>
-      <c r="G17" s="183"/>
-      <c r="H17" s="172" t="s">
-        <v>521</v>
-      </c>
-      <c r="I17" s="183"/>
-      <c r="J17" s="172" t="s">
-        <v>522</v>
-      </c>
-      <c r="K17" s="172"/>
-      <c r="L17" s="183"/>
-      <c r="M17" s="184">
+      <c r="A17" s="274"/>
+      <c r="B17" s="284" t="s">
+        <v>506</v>
+      </c>
+      <c r="C17" s="169" t="s">
+        <v>507</v>
+      </c>
+      <c r="D17" s="170"/>
+      <c r="E17" s="258" t="s">
+        <v>508</v>
+      </c>
+      <c r="F17" s="259"/>
+      <c r="G17" s="181"/>
+      <c r="H17" s="170" t="s">
+        <v>509</v>
+      </c>
+      <c r="I17" s="181"/>
+      <c r="J17" s="170" t="s">
+        <v>510</v>
+      </c>
+      <c r="K17" s="170"/>
+      <c r="L17" s="181"/>
+      <c r="M17" s="182">
         <f>L17+G17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="261"/>
-      <c r="B18" s="287"/>
-      <c r="C18" s="171" t="s">
-        <v>523</v>
-      </c>
-      <c r="D18" s="172"/>
-      <c r="E18" s="272" t="s">
-        <v>520</v>
-      </c>
-      <c r="F18" s="274"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="172" t="s">
-        <v>521</v>
-      </c>
-      <c r="I18" s="183"/>
-      <c r="J18" s="172" t="s">
-        <v>522</v>
-      </c>
-      <c r="K18" s="172"/>
-      <c r="L18" s="183"/>
-      <c r="M18" s="184">
+      <c r="A18" s="274"/>
+      <c r="B18" s="285"/>
+      <c r="C18" s="169" t="s">
+        <v>511</v>
+      </c>
+      <c r="D18" s="170"/>
+      <c r="E18" s="258" t="s">
+        <v>508</v>
+      </c>
+      <c r="F18" s="259"/>
+      <c r="G18" s="181"/>
+      <c r="H18" s="170" t="s">
+        <v>509</v>
+      </c>
+      <c r="I18" s="181"/>
+      <c r="J18" s="170" t="s">
+        <v>510</v>
+      </c>
+      <c r="K18" s="170"/>
+      <c r="L18" s="181"/>
+      <c r="M18" s="182">
         <f t="shared" ref="M18:M24" si="0">L18+G18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="261"/>
-      <c r="B19" s="287"/>
-      <c r="C19" s="171" t="s">
-        <v>524</v>
-      </c>
-      <c r="D19" s="172"/>
-      <c r="E19" s="272" t="s">
-        <v>520</v>
-      </c>
-      <c r="F19" s="274"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="172" t="s">
-        <v>521</v>
-      </c>
-      <c r="I19" s="183"/>
-      <c r="J19" s="172" t="s">
-        <v>522</v>
-      </c>
-      <c r="K19" s="172"/>
-      <c r="L19" s="183"/>
-      <c r="M19" s="184">
+      <c r="A19" s="274"/>
+      <c r="B19" s="285"/>
+      <c r="C19" s="169" t="s">
+        <v>512</v>
+      </c>
+      <c r="D19" s="170"/>
+      <c r="E19" s="258" t="s">
+        <v>508</v>
+      </c>
+      <c r="F19" s="259"/>
+      <c r="G19" s="181"/>
+      <c r="H19" s="170" t="s">
+        <v>509</v>
+      </c>
+      <c r="I19" s="181"/>
+      <c r="J19" s="170" t="s">
+        <v>510</v>
+      </c>
+      <c r="K19" s="170"/>
+      <c r="L19" s="181"/>
+      <c r="M19" s="182">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="261"/>
-      <c r="B20" s="287"/>
-      <c r="C20" s="171" t="s">
-        <v>525</v>
-      </c>
-      <c r="D20" s="172"/>
-      <c r="E20" s="272" t="s">
-        <v>520</v>
-      </c>
-      <c r="F20" s="274"/>
-      <c r="G20" s="183"/>
-      <c r="H20" s="172" t="s">
-        <v>521</v>
-      </c>
-      <c r="I20" s="183"/>
-      <c r="J20" s="172" t="s">
-        <v>522</v>
-      </c>
-      <c r="K20" s="172"/>
-      <c r="L20" s="183"/>
-      <c r="M20" s="184">
+      <c r="A20" s="274"/>
+      <c r="B20" s="285"/>
+      <c r="C20" s="169" t="s">
+        <v>513</v>
+      </c>
+      <c r="D20" s="170"/>
+      <c r="E20" s="258" t="s">
+        <v>508</v>
+      </c>
+      <c r="F20" s="259"/>
+      <c r="G20" s="181"/>
+      <c r="H20" s="170" t="s">
+        <v>509</v>
+      </c>
+      <c r="I20" s="181"/>
+      <c r="J20" s="170" t="s">
+        <v>510</v>
+      </c>
+      <c r="K20" s="170"/>
+      <c r="L20" s="181"/>
+      <c r="M20" s="182">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="261"/>
-      <c r="B21" s="287"/>
-      <c r="C21" s="171" t="s">
-        <v>526</v>
-      </c>
-      <c r="D21" s="172"/>
-      <c r="E21" s="272" t="s">
-        <v>520</v>
-      </c>
-      <c r="F21" s="274"/>
-      <c r="G21" s="183"/>
-      <c r="H21" s="172" t="s">
-        <v>521</v>
-      </c>
-      <c r="I21" s="183"/>
-      <c r="J21" s="172" t="s">
-        <v>522</v>
-      </c>
-      <c r="K21" s="172"/>
-      <c r="L21" s="183"/>
-      <c r="M21" s="184">
+      <c r="A21" s="274"/>
+      <c r="B21" s="285"/>
+      <c r="C21" s="169" t="s">
+        <v>514</v>
+      </c>
+      <c r="D21" s="170"/>
+      <c r="E21" s="258" t="s">
+        <v>508</v>
+      </c>
+      <c r="F21" s="259"/>
+      <c r="G21" s="181"/>
+      <c r="H21" s="170" t="s">
+        <v>509</v>
+      </c>
+      <c r="I21" s="181"/>
+      <c r="J21" s="170" t="s">
+        <v>510</v>
+      </c>
+      <c r="K21" s="170"/>
+      <c r="L21" s="181"/>
+      <c r="M21" s="182">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="261"/>
-      <c r="B22" s="287"/>
-      <c r="C22" s="171" t="s">
-        <v>527</v>
-      </c>
-      <c r="D22" s="172"/>
-      <c r="E22" s="272" t="s">
-        <v>520</v>
-      </c>
-      <c r="F22" s="274"/>
-      <c r="G22" s="183"/>
-      <c r="H22" s="172" t="s">
-        <v>521</v>
-      </c>
-      <c r="I22" s="183"/>
-      <c r="J22" s="172" t="s">
-        <v>522</v>
-      </c>
-      <c r="K22" s="172"/>
-      <c r="L22" s="183"/>
-      <c r="M22" s="184">
+      <c r="A22" s="274"/>
+      <c r="B22" s="285"/>
+      <c r="C22" s="169" t="s">
+        <v>515</v>
+      </c>
+      <c r="D22" s="170"/>
+      <c r="E22" s="258" t="s">
+        <v>508</v>
+      </c>
+      <c r="F22" s="259"/>
+      <c r="G22" s="181"/>
+      <c r="H22" s="170" t="s">
+        <v>509</v>
+      </c>
+      <c r="I22" s="181"/>
+      <c r="J22" s="170" t="s">
+        <v>510</v>
+      </c>
+      <c r="K22" s="170"/>
+      <c r="L22" s="181"/>
+      <c r="M22" s="182">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="261"/>
-      <c r="B23" s="287"/>
-      <c r="C23" s="171" t="s">
-        <v>528</v>
-      </c>
-      <c r="D23" s="172"/>
-      <c r="E23" s="272" t="s">
-        <v>520</v>
-      </c>
-      <c r="F23" s="274"/>
-      <c r="G23" s="183"/>
-      <c r="H23" s="172" t="s">
-        <v>521</v>
-      </c>
-      <c r="I23" s="183"/>
-      <c r="J23" s="172" t="s">
-        <v>522</v>
-      </c>
-      <c r="K23" s="172"/>
-      <c r="L23" s="183"/>
-      <c r="M23" s="184">
+      <c r="A23" s="274"/>
+      <c r="B23" s="285"/>
+      <c r="C23" s="169" t="s">
+        <v>516</v>
+      </c>
+      <c r="D23" s="170"/>
+      <c r="E23" s="258" t="s">
+        <v>508</v>
+      </c>
+      <c r="F23" s="259"/>
+      <c r="G23" s="181"/>
+      <c r="H23" s="170" t="s">
+        <v>509</v>
+      </c>
+      <c r="I23" s="181"/>
+      <c r="J23" s="170" t="s">
+        <v>510</v>
+      </c>
+      <c r="K23" s="170"/>
+      <c r="L23" s="181"/>
+      <c r="M23" s="182">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="261"/>
-      <c r="B24" s="287"/>
-      <c r="C24" s="171" t="s">
-        <v>529</v>
-      </c>
-      <c r="D24" s="172"/>
-      <c r="E24" s="275"/>
-      <c r="F24" s="276"/>
-      <c r="G24" s="185"/>
-      <c r="H24" s="186"/>
-      <c r="I24" s="185"/>
-      <c r="J24" s="186"/>
-      <c r="K24" s="186"/>
-      <c r="L24" s="183"/>
-      <c r="M24" s="184">
+      <c r="A24" s="274"/>
+      <c r="B24" s="285"/>
+      <c r="C24" s="169" t="s">
+        <v>517</v>
+      </c>
+      <c r="D24" s="170"/>
+      <c r="E24" s="281"/>
+      <c r="F24" s="282"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="184"/>
+      <c r="I24" s="183"/>
+      <c r="J24" s="184"/>
+      <c r="K24" s="184"/>
+      <c r="L24" s="181"/>
+      <c r="M24" s="182">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="265"/>
-      <c r="B25" s="288"/>
-      <c r="C25" s="187" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="188"/>
-      <c r="E25" s="277" t="s">
-        <v>520</v>
-      </c>
-      <c r="F25" s="278"/>
-      <c r="G25" s="189">
+      <c r="A25" s="275"/>
+      <c r="B25" s="286"/>
+      <c r="C25" s="185" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="186"/>
+      <c r="E25" s="268" t="s">
+        <v>508</v>
+      </c>
+      <c r="F25" s="269"/>
+      <c r="G25" s="187">
         <f>SUM(G17:G24)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="188" t="s">
-        <v>521</v>
-      </c>
-      <c r="I25" s="189">
+      <c r="H25" s="186" t="s">
+        <v>509</v>
+      </c>
+      <c r="I25" s="187">
         <f>SUM(I17:I24)</f>
         <v>0</v>
       </c>
-      <c r="J25" s="188" t="s">
-        <v>522</v>
-      </c>
-      <c r="K25" s="188"/>
-      <c r="L25" s="189">
+      <c r="J25" s="186" t="s">
+        <v>510</v>
+      </c>
+      <c r="K25" s="186"/>
+      <c r="L25" s="187">
         <f>SUM(L17:L24)</f>
         <v>0</v>
       </c>
-      <c r="M25" s="180">
+      <c r="M25" s="178">
         <f>SUM(M17:M24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="260" t="s">
-        <v>530</v>
+      <c r="A26" s="273" t="s">
+        <v>518</v>
       </c>
       <c r="B26" s="83" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="132" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="D26" s="132" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="E26" s="132" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="F26" s="132" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="G26" s="132" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="H26" s="132" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="I26" s="132" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="J26" s="132" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="K26" s="132" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="L26" s="133" t="s">
-        <v>505</v>
-      </c>
-      <c r="M26" s="190" t="s">
-        <v>495</v>
+        <v>493</v>
+      </c>
+      <c r="M26" s="188" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="261"/>
+      <c r="A27" s="274"/>
       <c r="B27" s="79" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="C27" s="155"/>
       <c r="D27" s="155"/>
       <c r="E27" s="155"/>
       <c r="F27" s="155"/>
-      <c r="G27" s="179">
+      <c r="G27" s="177">
         <f>SUM(C27:F27)</f>
         <v>0</v>
       </c>
@@ -10937,272 +11199,272 @@
       <c r="I27" s="155"/>
       <c r="J27" s="155"/>
       <c r="K27" s="155"/>
-      <c r="L27" s="179">
+      <c r="L27" s="177">
         <f>SUM(H27:K27)</f>
         <v>0</v>
       </c>
-      <c r="M27" s="180">
+      <c r="M27" s="178">
         <f>L27+G27</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="261"/>
-      <c r="B28" s="266" t="s">
-        <v>508</v>
-      </c>
-      <c r="C28" s="268" t="s">
-        <v>509</v>
-      </c>
-      <c r="D28" s="269"/>
-      <c r="E28" s="269"/>
-      <c r="F28" s="269"/>
-      <c r="G28" s="269"/>
-      <c r="H28" s="269"/>
-      <c r="I28" s="269"/>
-      <c r="J28" s="269"/>
-      <c r="K28" s="269"/>
-      <c r="L28" s="270"/>
-      <c r="M28" s="169"/>
+      <c r="A28" s="274"/>
+      <c r="B28" s="277" t="s">
+        <v>496</v>
+      </c>
+      <c r="C28" s="265" t="s">
+        <v>497</v>
+      </c>
+      <c r="D28" s="266"/>
+      <c r="E28" s="266"/>
+      <c r="F28" s="266"/>
+      <c r="G28" s="266"/>
+      <c r="H28" s="266"/>
+      <c r="I28" s="266"/>
+      <c r="J28" s="266"/>
+      <c r="K28" s="266"/>
+      <c r="L28" s="267"/>
+      <c r="M28" s="167"/>
     </row>
     <row r="29" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="261"/>
-      <c r="B29" s="266"/>
-      <c r="C29" s="268" t="s">
-        <v>510</v>
-      </c>
-      <c r="D29" s="269"/>
-      <c r="E29" s="269"/>
-      <c r="F29" s="269"/>
-      <c r="G29" s="269"/>
-      <c r="H29" s="269"/>
-      <c r="I29" s="269"/>
-      <c r="J29" s="269"/>
-      <c r="K29" s="269"/>
-      <c r="L29" s="270"/>
-      <c r="M29" s="169"/>
+      <c r="A29" s="274"/>
+      <c r="B29" s="277"/>
+      <c r="C29" s="265" t="s">
+        <v>498</v>
+      </c>
+      <c r="D29" s="266"/>
+      <c r="E29" s="266"/>
+      <c r="F29" s="266"/>
+      <c r="G29" s="266"/>
+      <c r="H29" s="266"/>
+      <c r="I29" s="266"/>
+      <c r="J29" s="266"/>
+      <c r="K29" s="266"/>
+      <c r="L29" s="267"/>
+      <c r="M29" s="167"/>
     </row>
     <row r="30" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="261"/>
-      <c r="B30" s="266"/>
-      <c r="C30" s="171" t="s">
-        <v>511</v>
-      </c>
-      <c r="D30" s="172"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="172"/>
-      <c r="G30" s="172"/>
-      <c r="H30" s="172"/>
-      <c r="I30" s="172"/>
-      <c r="J30" s="172"/>
-      <c r="K30" s="172"/>
-      <c r="L30" s="173"/>
-      <c r="M30" s="169"/>
+      <c r="A30" s="274"/>
+      <c r="B30" s="277"/>
+      <c r="C30" s="169" t="s">
+        <v>499</v>
+      </c>
+      <c r="D30" s="170"/>
+      <c r="E30" s="170"/>
+      <c r="F30" s="170"/>
+      <c r="G30" s="170"/>
+      <c r="H30" s="170"/>
+      <c r="I30" s="170"/>
+      <c r="J30" s="170"/>
+      <c r="K30" s="170"/>
+      <c r="L30" s="171"/>
+      <c r="M30" s="167"/>
     </row>
     <row r="31" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="261"/>
-      <c r="B31" s="266"/>
-      <c r="C31" s="171" t="s">
-        <v>512</v>
-      </c>
-      <c r="D31" s="172"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="172"/>
-      <c r="H31" s="172"/>
-      <c r="I31" s="172"/>
-      <c r="J31" s="172"/>
-      <c r="K31" s="172"/>
-      <c r="L31" s="173"/>
-      <c r="M31" s="169"/>
+      <c r="A31" s="274"/>
+      <c r="B31" s="277"/>
+      <c r="C31" s="169" t="s">
+        <v>500</v>
+      </c>
+      <c r="D31" s="170"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="170"/>
+      <c r="H31" s="170"/>
+      <c r="I31" s="170"/>
+      <c r="J31" s="170"/>
+      <c r="K31" s="170"/>
+      <c r="L31" s="171"/>
+      <c r="M31" s="167"/>
     </row>
     <row r="32" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="261"/>
-      <c r="B32" s="266"/>
-      <c r="C32" s="171" t="s">
-        <v>513</v>
-      </c>
-      <c r="D32" s="172"/>
-      <c r="E32" s="172"/>
-      <c r="F32" s="172"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="172"/>
-      <c r="I32" s="172"/>
-      <c r="J32" s="172"/>
-      <c r="K32" s="172"/>
-      <c r="L32" s="173"/>
-      <c r="M32" s="169"/>
+      <c r="A32" s="274"/>
+      <c r="B32" s="277"/>
+      <c r="C32" s="169" t="s">
+        <v>501</v>
+      </c>
+      <c r="D32" s="170"/>
+      <c r="E32" s="170"/>
+      <c r="F32" s="170"/>
+      <c r="G32" s="170"/>
+      <c r="H32" s="170"/>
+      <c r="I32" s="170"/>
+      <c r="J32" s="170"/>
+      <c r="K32" s="170"/>
+      <c r="L32" s="171"/>
+      <c r="M32" s="167"/>
     </row>
     <row r="33" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="261"/>
-      <c r="B33" s="266"/>
-      <c r="C33" s="203" t="s">
-        <v>585</v>
-      </c>
-      <c r="D33" s="204"/>
-      <c r="E33" s="204"/>
-      <c r="F33" s="204"/>
-      <c r="G33" s="204"/>
-      <c r="H33" s="204"/>
-      <c r="I33" s="204"/>
-      <c r="J33" s="204"/>
-      <c r="K33" s="204"/>
-      <c r="L33" s="205"/>
-      <c r="M33" s="169"/>
+      <c r="A33" s="274"/>
+      <c r="B33" s="277"/>
+      <c r="C33" s="201" t="s">
+        <v>571</v>
+      </c>
+      <c r="D33" s="202"/>
+      <c r="E33" s="202"/>
+      <c r="F33" s="202"/>
+      <c r="G33" s="202"/>
+      <c r="H33" s="202"/>
+      <c r="I33" s="202"/>
+      <c r="J33" s="202"/>
+      <c r="K33" s="202"/>
+      <c r="L33" s="203"/>
+      <c r="M33" s="167"/>
     </row>
     <row r="34" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="261"/>
-      <c r="B34" s="266"/>
-      <c r="C34" s="171" t="s">
-        <v>586</v>
-      </c>
-      <c r="D34" s="172"/>
-      <c r="E34" s="172"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="172"/>
-      <c r="H34" s="172"/>
-      <c r="I34" s="172"/>
-      <c r="J34" s="172"/>
-      <c r="K34" s="172"/>
-      <c r="L34" s="173"/>
-      <c r="M34" s="169"/>
+      <c r="A34" s="274"/>
+      <c r="B34" s="277"/>
+      <c r="C34" s="169" t="s">
+        <v>572</v>
+      </c>
+      <c r="D34" s="170"/>
+      <c r="E34" s="170"/>
+      <c r="F34" s="170"/>
+      <c r="G34" s="170"/>
+      <c r="H34" s="170"/>
+      <c r="I34" s="170"/>
+      <c r="J34" s="170"/>
+      <c r="K34" s="170"/>
+      <c r="L34" s="171"/>
+      <c r="M34" s="167"/>
     </row>
     <row r="35" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="261"/>
-      <c r="B35" s="266"/>
-      <c r="C35" s="171" t="s">
-        <v>514</v>
-      </c>
-      <c r="D35" s="172"/>
-      <c r="E35" s="172"/>
-      <c r="F35" s="172"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="172"/>
-      <c r="I35" s="172"/>
-      <c r="J35" s="172"/>
-      <c r="K35" s="172"/>
-      <c r="L35" s="173"/>
-      <c r="M35" s="169"/>
+      <c r="A35" s="274"/>
+      <c r="B35" s="277"/>
+      <c r="C35" s="169" t="s">
+        <v>502</v>
+      </c>
+      <c r="D35" s="170"/>
+      <c r="E35" s="170"/>
+      <c r="F35" s="170"/>
+      <c r="G35" s="170"/>
+      <c r="H35" s="170"/>
+      <c r="I35" s="170"/>
+      <c r="J35" s="170"/>
+      <c r="K35" s="170"/>
+      <c r="L35" s="171"/>
+      <c r="M35" s="167"/>
     </row>
     <row r="36" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="261"/>
-      <c r="B36" s="266"/>
-      <c r="C36" s="171" t="s">
-        <v>515</v>
-      </c>
-      <c r="D36" s="172"/>
-      <c r="E36" s="172"/>
-      <c r="F36" s="172"/>
-      <c r="G36" s="172"/>
-      <c r="H36" s="172"/>
-      <c r="I36" s="172"/>
-      <c r="J36" s="172"/>
-      <c r="K36" s="172"/>
-      <c r="L36" s="173"/>
-      <c r="M36" s="169"/>
+      <c r="A36" s="274"/>
+      <c r="B36" s="277"/>
+      <c r="C36" s="169" t="s">
+        <v>503</v>
+      </c>
+      <c r="D36" s="170"/>
+      <c r="E36" s="170"/>
+      <c r="F36" s="170"/>
+      <c r="G36" s="170"/>
+      <c r="H36" s="170"/>
+      <c r="I36" s="170"/>
+      <c r="J36" s="170"/>
+      <c r="K36" s="170"/>
+      <c r="L36" s="171"/>
+      <c r="M36" s="167"/>
     </row>
     <row r="37" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="261"/>
-      <c r="B37" s="266"/>
-      <c r="C37" s="171" t="s">
-        <v>516</v>
-      </c>
-      <c r="D37" s="172"/>
-      <c r="E37" s="172"/>
-      <c r="F37" s="172"/>
-      <c r="G37" s="172"/>
-      <c r="H37" s="172"/>
-      <c r="I37" s="172"/>
-      <c r="J37" s="172"/>
-      <c r="K37" s="172"/>
-      <c r="L37" s="173"/>
-      <c r="M37" s="169"/>
+      <c r="A37" s="274"/>
+      <c r="B37" s="277"/>
+      <c r="C37" s="169" t="s">
+        <v>504</v>
+      </c>
+      <c r="D37" s="170"/>
+      <c r="E37" s="170"/>
+      <c r="F37" s="170"/>
+      <c r="G37" s="170"/>
+      <c r="H37" s="170"/>
+      <c r="I37" s="170"/>
+      <c r="J37" s="170"/>
+      <c r="K37" s="170"/>
+      <c r="L37" s="171"/>
+      <c r="M37" s="167"/>
     </row>
     <row r="38" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="261"/>
-      <c r="B38" s="266"/>
-      <c r="C38" s="171" t="s">
-        <v>517</v>
-      </c>
-      <c r="D38" s="172"/>
-      <c r="E38" s="172"/>
-      <c r="F38" s="172"/>
-      <c r="G38" s="172"/>
-      <c r="H38" s="172"/>
-      <c r="I38" s="172"/>
-      <c r="J38" s="172"/>
-      <c r="K38" s="172"/>
-      <c r="L38" s="173"/>
-      <c r="M38" s="169"/>
+      <c r="A38" s="274"/>
+      <c r="B38" s="277"/>
+      <c r="C38" s="169" t="s">
+        <v>505</v>
+      </c>
+      <c r="D38" s="170"/>
+      <c r="E38" s="170"/>
+      <c r="F38" s="170"/>
+      <c r="G38" s="170"/>
+      <c r="H38" s="170"/>
+      <c r="I38" s="170"/>
+      <c r="J38" s="170"/>
+      <c r="K38" s="170"/>
+      <c r="L38" s="171"/>
+      <c r="M38" s="167"/>
     </row>
     <row r="39" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="265"/>
-      <c r="B39" s="267"/>
-      <c r="C39" s="289" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="290"/>
-      <c r="E39" s="290"/>
-      <c r="F39" s="290"/>
-      <c r="G39" s="290"/>
-      <c r="H39" s="290"/>
-      <c r="I39" s="290"/>
-      <c r="J39" s="290"/>
-      <c r="K39" s="290"/>
-      <c r="L39" s="291"/>
-      <c r="M39" s="169"/>
+      <c r="A39" s="275"/>
+      <c r="B39" s="287"/>
+      <c r="C39" s="288" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="289"/>
+      <c r="E39" s="289"/>
+      <c r="F39" s="289"/>
+      <c r="G39" s="289"/>
+      <c r="H39" s="289"/>
+      <c r="I39" s="289"/>
+      <c r="J39" s="289"/>
+      <c r="K39" s="289"/>
+      <c r="L39" s="290"/>
+      <c r="M39" s="167"/>
     </row>
     <row r="40" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="191"/>
+      <c r="A40" s="189"/>
       <c r="B40" s="83" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="132" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="D40" s="132" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="E40" s="132" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="F40" s="132" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="G40" s="132" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="H40" s="132" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="I40" s="132" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="J40" s="132" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="K40" s="132" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="L40" s="133" t="s">
-        <v>505</v>
-      </c>
-      <c r="M40" s="190" t="s">
-        <v>495</v>
+        <v>493</v>
+      </c>
+      <c r="M40" s="188" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="91" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="B41" s="79" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="C41" s="155"/>
       <c r="D41" s="155"/>
       <c r="E41" s="155"/>
       <c r="F41" s="155"/>
-      <c r="G41" s="179">
+      <c r="G41" s="177">
         <f>SUM(C41:F41)</f>
         <v>0</v>
       </c>
@@ -11210,27 +11472,27 @@
       <c r="I41" s="155"/>
       <c r="J41" s="155"/>
       <c r="K41" s="155"/>
-      <c r="L41" s="179">
+      <c r="L41" s="177">
         <f>SUM(H41:K41)</f>
         <v>0</v>
       </c>
-      <c r="M41" s="180">
+      <c r="M41" s="178">
         <f>L41+G41</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="91" t="s">
-        <v>540</v>
-      </c>
-      <c r="B42" s="192" t="s">
-        <v>541</v>
+        <v>528</v>
+      </c>
+      <c r="B42" s="190" t="s">
+        <v>529</v>
       </c>
       <c r="C42" s="155"/>
       <c r="D42" s="155"/>
       <c r="E42" s="155"/>
       <c r="F42" s="155"/>
-      <c r="G42" s="179">
+      <c r="G42" s="177">
         <f>SUM(C42:F42)</f>
         <v>0</v>
       </c>
@@ -11238,92 +11500,92 @@
       <c r="I42" s="155"/>
       <c r="J42" s="155"/>
       <c r="K42" s="155"/>
-      <c r="L42" s="179">
+      <c r="L42" s="177">
         <f>SUM(H42:K42)</f>
         <v>0</v>
       </c>
-      <c r="M42" s="180">
+      <c r="M42" s="178">
         <f>L42+G42</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="191" t="s">
-        <v>542</v>
+      <c r="A43" s="189" t="s">
+        <v>530</v>
       </c>
       <c r="B43" s="79" t="s">
-        <v>543</v>
-      </c>
-      <c r="C43" s="282" t="s">
-        <v>544</v>
-      </c>
-      <c r="D43" s="283"/>
-      <c r="E43" s="283"/>
-      <c r="F43" s="284"/>
-      <c r="G43" s="193"/>
-      <c r="H43" s="282" t="s">
-        <v>545</v>
-      </c>
-      <c r="I43" s="283"/>
-      <c r="J43" s="283"/>
-      <c r="K43" s="284"/>
-      <c r="L43" s="194"/>
-      <c r="M43" s="195">
+        <v>531</v>
+      </c>
+      <c r="C43" s="291" t="s">
+        <v>532</v>
+      </c>
+      <c r="D43" s="292"/>
+      <c r="E43" s="292"/>
+      <c r="F43" s="293"/>
+      <c r="G43" s="191"/>
+      <c r="H43" s="291" t="s">
+        <v>533</v>
+      </c>
+      <c r="I43" s="292"/>
+      <c r="J43" s="292"/>
+      <c r="K43" s="293"/>
+      <c r="L43" s="192"/>
+      <c r="M43" s="193">
         <f>L43+G43</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="260" t="s">
-        <v>546</v>
+      <c r="A44" s="273" t="s">
+        <v>534</v>
       </c>
       <c r="B44" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="202" t="s">
-        <v>496</v>
-      </c>
-      <c r="D44" s="202" t="s">
-        <v>497</v>
-      </c>
-      <c r="E44" s="202" t="s">
-        <v>498</v>
-      </c>
-      <c r="F44" s="202" t="s">
-        <v>499</v>
-      </c>
-      <c r="G44" s="202" t="s">
-        <v>500</v>
+      <c r="C44" s="200" t="s">
+        <v>484</v>
+      </c>
+      <c r="D44" s="200" t="s">
+        <v>485</v>
+      </c>
+      <c r="E44" s="200" t="s">
+        <v>486</v>
+      </c>
+      <c r="F44" s="200" t="s">
+        <v>487</v>
+      </c>
+      <c r="G44" s="200" t="s">
+        <v>488</v>
       </c>
       <c r="H44" s="132" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="I44" s="132" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="J44" s="132" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="K44" s="132" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="L44" s="133" t="s">
-        <v>505</v>
-      </c>
-      <c r="M44" s="190" t="s">
-        <v>495</v>
+        <v>493</v>
+      </c>
+      <c r="M44" s="188" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="261"/>
+      <c r="A45" s="274"/>
       <c r="B45" s="79" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="C45" s="130"/>
       <c r="D45" s="130"/>
       <c r="E45" s="130"/>
       <c r="F45" s="130"/>
-      <c r="G45" s="201">
+      <c r="G45" s="199">
         <f>SUM(C45:F45)</f>
         <v>0</v>
       </c>
@@ -11331,236 +11593,228 @@
       <c r="I45" s="155"/>
       <c r="J45" s="155"/>
       <c r="K45" s="155"/>
-      <c r="L45" s="179">
+      <c r="L45" s="177">
         <f>SUM(H45:K45)</f>
         <v>0</v>
       </c>
-      <c r="M45" s="180">
+      <c r="M45" s="178">
         <f>L45+G45</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="261"/>
-      <c r="B46" s="295" t="s">
-        <v>555</v>
-      </c>
-      <c r="C46" s="268" t="s">
-        <v>559</v>
-      </c>
-      <c r="D46" s="269"/>
-      <c r="E46" s="269"/>
-      <c r="F46" s="269"/>
-      <c r="G46" s="269"/>
-      <c r="H46" s="269"/>
-      <c r="I46" s="269"/>
-      <c r="J46" s="269"/>
-      <c r="K46" s="269"/>
-      <c r="L46" s="270"/>
-      <c r="M46" s="169"/>
+      <c r="A46" s="274"/>
+      <c r="B46" s="270" t="s">
+        <v>543</v>
+      </c>
+      <c r="C46" s="265" t="s">
+        <v>547</v>
+      </c>
+      <c r="D46" s="266"/>
+      <c r="E46" s="266"/>
+      <c r="F46" s="266"/>
+      <c r="G46" s="266"/>
+      <c r="H46" s="266"/>
+      <c r="I46" s="266"/>
+      <c r="J46" s="266"/>
+      <c r="K46" s="266"/>
+      <c r="L46" s="267"/>
+      <c r="M46" s="167"/>
     </row>
     <row r="47" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="261"/>
-      <c r="B47" s="296"/>
-      <c r="C47" s="176" t="s">
-        <v>560</v>
-      </c>
-      <c r="D47" s="177"/>
-      <c r="E47" s="177"/>
-      <c r="F47" s="177"/>
-      <c r="G47" s="177"/>
-      <c r="H47" s="177"/>
-      <c r="I47" s="177"/>
-      <c r="J47" s="177"/>
-      <c r="K47" s="177"/>
-      <c r="L47" s="178"/>
-      <c r="M47" s="169"/>
+      <c r="A47" s="274"/>
+      <c r="B47" s="271"/>
+      <c r="C47" s="174" t="s">
+        <v>548</v>
+      </c>
+      <c r="D47" s="175"/>
+      <c r="E47" s="175"/>
+      <c r="F47" s="175"/>
+      <c r="G47" s="175"/>
+      <c r="H47" s="175"/>
+      <c r="I47" s="175"/>
+      <c r="J47" s="175"/>
+      <c r="K47" s="175"/>
+      <c r="L47" s="176"/>
+      <c r="M47" s="167"/>
     </row>
     <row r="48" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="261"/>
-      <c r="B48" s="296"/>
-      <c r="C48" s="176" t="s">
-        <v>561</v>
-      </c>
-      <c r="D48" s="177"/>
-      <c r="E48" s="177"/>
-      <c r="F48" s="177"/>
-      <c r="G48" s="177"/>
-      <c r="H48" s="177"/>
-      <c r="I48" s="177"/>
-      <c r="J48" s="177"/>
-      <c r="K48" s="177"/>
-      <c r="L48" s="178"/>
-      <c r="M48" s="169"/>
+      <c r="A48" s="274"/>
+      <c r="B48" s="271"/>
+      <c r="C48" s="174" t="s">
+        <v>549</v>
+      </c>
+      <c r="D48" s="175"/>
+      <c r="E48" s="175"/>
+      <c r="F48" s="175"/>
+      <c r="G48" s="175"/>
+      <c r="H48" s="175"/>
+      <c r="I48" s="175"/>
+      <c r="J48" s="175"/>
+      <c r="K48" s="175"/>
+      <c r="L48" s="176"/>
+      <c r="M48" s="167"/>
     </row>
     <row r="49" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="261"/>
-      <c r="B49" s="296"/>
-      <c r="C49" s="176" t="s">
-        <v>562</v>
-      </c>
-      <c r="D49" s="177"/>
-      <c r="E49" s="177"/>
-      <c r="F49" s="177"/>
-      <c r="G49" s="177"/>
-      <c r="H49" s="177"/>
-      <c r="I49" s="177"/>
-      <c r="J49" s="177"/>
-      <c r="K49" s="177"/>
-      <c r="L49" s="178"/>
-      <c r="M49" s="169"/>
+      <c r="A49" s="274"/>
+      <c r="B49" s="271"/>
+      <c r="C49" s="174" t="s">
+        <v>550</v>
+      </c>
+      <c r="D49" s="175"/>
+      <c r="E49" s="175"/>
+      <c r="F49" s="175"/>
+      <c r="G49" s="175"/>
+      <c r="H49" s="175"/>
+      <c r="I49" s="175"/>
+      <c r="J49" s="175"/>
+      <c r="K49" s="175"/>
+      <c r="L49" s="176"/>
+      <c r="M49" s="167"/>
     </row>
     <row r="50" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="265"/>
-      <c r="B50" s="297"/>
-      <c r="C50" s="289" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="290"/>
-      <c r="E50" s="290"/>
-      <c r="F50" s="290"/>
-      <c r="G50" s="290"/>
-      <c r="H50" s="290"/>
-      <c r="I50" s="290"/>
-      <c r="J50" s="290"/>
-      <c r="K50" s="290"/>
-      <c r="L50" s="291"/>
-      <c r="M50" s="169">
+      <c r="A50" s="275"/>
+      <c r="B50" s="272"/>
+      <c r="C50" s="288" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="289"/>
+      <c r="E50" s="289"/>
+      <c r="F50" s="289"/>
+      <c r="G50" s="289"/>
+      <c r="H50" s="289"/>
+      <c r="I50" s="289"/>
+      <c r="J50" s="289"/>
+      <c r="K50" s="289"/>
+      <c r="L50" s="290"/>
+      <c r="M50" s="167">
         <f>SUM(M46:M49)</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="91" t="s">
-        <v>548</v>
-      </c>
-      <c r="B51" s="196" t="s">
-        <v>547</v>
-      </c>
-      <c r="C51" s="272" t="s">
-        <v>520</v>
-      </c>
-      <c r="D51" s="273"/>
-      <c r="E51" s="273"/>
-      <c r="F51" s="274"/>
-      <c r="G51" s="179"/>
-      <c r="H51" s="197" t="s">
-        <v>521</v>
-      </c>
-      <c r="I51" s="198"/>
-      <c r="J51" s="199" t="s">
-        <v>522</v>
-      </c>
-      <c r="K51" s="200"/>
-      <c r="L51" s="179"/>
-      <c r="M51" s="180">
+        <v>536</v>
+      </c>
+      <c r="B51" s="194" t="s">
+        <v>535</v>
+      </c>
+      <c r="C51" s="258" t="s">
+        <v>508</v>
+      </c>
+      <c r="D51" s="294"/>
+      <c r="E51" s="294"/>
+      <c r="F51" s="259"/>
+      <c r="G51" s="177"/>
+      <c r="H51" s="195" t="s">
+        <v>509</v>
+      </c>
+      <c r="I51" s="196"/>
+      <c r="J51" s="197" t="s">
+        <v>510</v>
+      </c>
+      <c r="K51" s="198"/>
+      <c r="L51" s="177"/>
+      <c r="M51" s="178">
         <f>L51+I51+G51</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="91" t="s">
-        <v>552</v>
-      </c>
-      <c r="B52" s="196" t="s">
-        <v>549</v>
-      </c>
-      <c r="C52" s="272" t="s">
-        <v>520</v>
-      </c>
-      <c r="D52" s="273"/>
-      <c r="E52" s="273"/>
-      <c r="F52" s="274"/>
-      <c r="G52" s="179"/>
-      <c r="H52" s="197" t="s">
-        <v>521</v>
-      </c>
-      <c r="I52" s="198"/>
-      <c r="J52" s="199" t="s">
-        <v>522</v>
-      </c>
-      <c r="K52" s="200"/>
-      <c r="L52" s="179"/>
-      <c r="M52" s="180">
+        <v>540</v>
+      </c>
+      <c r="B52" s="194" t="s">
+        <v>537</v>
+      </c>
+      <c r="C52" s="258" t="s">
+        <v>508</v>
+      </c>
+      <c r="D52" s="294"/>
+      <c r="E52" s="294"/>
+      <c r="F52" s="259"/>
+      <c r="G52" s="177"/>
+      <c r="H52" s="195" t="s">
+        <v>509</v>
+      </c>
+      <c r="I52" s="196"/>
+      <c r="J52" s="197" t="s">
+        <v>510</v>
+      </c>
+      <c r="K52" s="198"/>
+      <c r="L52" s="177"/>
+      <c r="M52" s="178">
         <f>L52+I52+G52</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="91" t="s">
-        <v>556</v>
-      </c>
-      <c r="B53" s="196" t="s">
-        <v>550</v>
-      </c>
-      <c r="C53" s="275"/>
-      <c r="D53" s="285"/>
-      <c r="E53" s="285"/>
-      <c r="F53" s="285"/>
-      <c r="G53" s="285"/>
-      <c r="H53" s="285"/>
-      <c r="I53" s="285"/>
-      <c r="J53" s="285"/>
-      <c r="K53" s="285"/>
-      <c r="L53" s="276"/>
-      <c r="M53" s="180"/>
+        <v>544</v>
+      </c>
+      <c r="B53" s="194" t="s">
+        <v>538</v>
+      </c>
+      <c r="C53" s="281"/>
+      <c r="D53" s="283"/>
+      <c r="E53" s="283"/>
+      <c r="F53" s="283"/>
+      <c r="G53" s="283"/>
+      <c r="H53" s="283"/>
+      <c r="I53" s="283"/>
+      <c r="J53" s="283"/>
+      <c r="K53" s="283"/>
+      <c r="L53" s="282"/>
+      <c r="M53" s="178"/>
     </row>
     <row r="54" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="91" t="s">
-        <v>557</v>
-      </c>
-      <c r="B54" s="196" t="s">
-        <v>551</v>
+        <v>545</v>
+      </c>
+      <c r="B54" s="194" t="s">
+        <v>539</v>
       </c>
       <c r="C54" s="130"/>
       <c r="D54" s="130"/>
       <c r="E54" s="130"/>
       <c r="F54" s="130"/>
-      <c r="G54" s="179"/>
+      <c r="G54" s="177"/>
       <c r="H54" s="130"/>
       <c r="I54" s="130"/>
       <c r="J54" s="130"/>
       <c r="K54" s="130"/>
-      <c r="L54" s="179"/>
-      <c r="M54" s="180">
+      <c r="L54" s="177"/>
+      <c r="M54" s="178">
         <f>L54+G54</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="91" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="B55" s="156" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="C55" s="130"/>
       <c r="D55" s="130"/>
       <c r="E55" s="130"/>
       <c r="F55" s="130"/>
-      <c r="G55" s="201"/>
+      <c r="G55" s="199"/>
       <c r="H55" s="155"/>
       <c r="I55" s="155"/>
       <c r="J55" s="155"/>
       <c r="K55" s="155"/>
-      <c r="L55" s="179"/>
-      <c r="M55" s="180">
+      <c r="L55" s="177"/>
+      <c r="M55" s="178">
         <f>L55+G55</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="C46:L46"/>
     <mergeCell ref="C50:L50"/>
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="A44:A50"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="A26:A39"/>
-    <mergeCell ref="A4:A25"/>
+    <mergeCell ref="E24:F24"/>
     <mergeCell ref="C53:L53"/>
     <mergeCell ref="B17:B25"/>
     <mergeCell ref="E17:F17"/>
@@ -11571,19 +11825,27 @@
     <mergeCell ref="C28:L28"/>
     <mergeCell ref="C29:L29"/>
     <mergeCell ref="C39:L39"/>
-    <mergeCell ref="B5:B16"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="C6:L6"/>
-    <mergeCell ref="C16:L16"/>
     <mergeCell ref="C43:F43"/>
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="C51:F51"/>
     <mergeCell ref="C52:F52"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="C46:L46"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A26:A39"/>
+    <mergeCell ref="A4:A25"/>
+    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="C16:L16"/>
     <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -11616,14 +11878,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="211" t="s">
-        <v>591</v>
-      </c>
-      <c r="B1" s="211" t="s">
+      <c r="A1" s="209" t="s">
+        <v>577</v>
+      </c>
+      <c r="B1" s="209" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="154" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1" s="153" t="s">
         <v>8</v>
@@ -11631,10 +11893,10 @@
     </row>
     <row r="2" spans="1:4" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="152" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B2" s="152" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C2" s="116" t="str">
         <f>""""&amp;C1&amp;""","</f>
@@ -11647,30 +11909,30 @@
     </row>
     <row r="3" spans="1:4" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="152" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B3" s="152" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C3" s="151"/>
       <c r="D3" s="150"/>
     </row>
     <row r="4" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="148" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B4" s="147" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C4" s="149"/>
       <c r="D4" s="149"/>
     </row>
     <row r="5" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="148" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B5" s="147" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
@@ -11712,83 +11974,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="211" t="s">
-        <v>591</v>
-      </c>
-      <c r="B1" s="211" t="s">
+      <c r="A1" s="209" t="s">
+        <v>577</v>
+      </c>
+      <c r="B1" s="209" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="84" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="84" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E1" s="84" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" s="84" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" s="84" t="s">
         <v>202</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="H1" s="84" t="s">
         <v>203</v>
       </c>
-      <c r="G1" s="84" t="s">
+      <c r="I1" s="84" t="s">
         <v>204</v>
       </c>
-      <c r="H1" s="84" t="s">
-        <v>205</v>
-      </c>
-      <c r="I1" s="84" t="s">
-        <v>206</v>
-      </c>
       <c r="J1" s="86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="92" customFormat="1" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="87" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="B2" s="79" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="C2" s="116" t="str">
-        <f>""""&amp;C1&amp;""","</f>
+        <f t="shared" ref="C2:J2" si="0">""""&amp;C1&amp;""","</f>
         <v>"&lt;1",</v>
       </c>
       <c r="D2" s="116" t="str">
-        <f>""""&amp;D1&amp;""","</f>
+        <f t="shared" si="0"/>
         <v>"1 to 4",</v>
       </c>
       <c r="E2" s="116" t="str">
-        <f>""""&amp;E1&amp;""","</f>
+        <f t="shared" si="0"/>
         <v>"5 to 9",</v>
       </c>
       <c r="F2" s="116" t="str">
-        <f>""""&amp;F1&amp;""","</f>
+        <f t="shared" si="0"/>
         <v>"10 to 14",</v>
       </c>
       <c r="G2" s="116" t="str">
-        <f>""""&amp;G1&amp;""","</f>
+        <f t="shared" si="0"/>
         <v>"15 to 19",</v>
       </c>
       <c r="H2" s="116" t="str">
-        <f>""""&amp;H1&amp;""","</f>
+        <f t="shared" si="0"/>
         <v>"20 to 24",</v>
       </c>
       <c r="I2" s="116" t="str">
-        <f>""""&amp;I1&amp;""","</f>
+        <f t="shared" si="0"/>
         <v>"25 to 49",</v>
       </c>
       <c r="J2" s="116" t="str">
-        <f>""""&amp;J1&amp;""","</f>
+        <f t="shared" si="0"/>
         <v>"50+",</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="87" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="C3" s="88"/>
       <c r="D3" s="88"/>
@@ -11801,10 +12063,10 @@
     </row>
     <row r="4" spans="1:10" s="92" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="87" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B4" s="79" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="C4" s="93"/>
       <c r="D4" s="93"/>
@@ -11817,10 +12079,10 @@
     </row>
     <row r="5" spans="1:10" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="87" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B5" s="97" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C5" s="88"/>
       <c r="D5" s="88"/>
@@ -11833,10 +12095,10 @@
     </row>
     <row r="6" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="95" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B6" s="79" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C6" s="88"/>
       <c r="D6" s="88"/>
@@ -11849,10 +12111,10 @@
     </row>
     <row r="7" spans="1:10" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="95" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="90"/>
       <c r="D7" s="90"/>
@@ -11865,10 +12127,10 @@
     </row>
     <row r="8" spans="1:10" s="96" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="95" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B8" s="79" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C8" s="134"/>
       <c r="D8" s="134"/>
@@ -11881,10 +12143,10 @@
     </row>
     <row r="9" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="95" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B9" s="97" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C9" s="88"/>
       <c r="D9" s="88"/>
@@ -11897,10 +12159,10 @@
     </row>
     <row r="10" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="87" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B10" s="97" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C10" s="88"/>
       <c r="D10" s="88"/>
@@ -11913,10 +12175,10 @@
     </row>
     <row r="11" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="87" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B11" s="97" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C11" s="88"/>
       <c r="D11" s="88"/>
@@ -11929,10 +12191,10 @@
     </row>
     <row r="12" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="87" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C12" s="88"/>
       <c r="D12" s="88"/>
@@ -11945,10 +12207,10 @@
     </row>
     <row r="13" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="87" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B13" s="98" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C13" s="88"/>
       <c r="D13" s="88"/>
@@ -11961,10 +12223,10 @@
     </row>
     <row r="14" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="87" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B14" s="79" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="C14" s="88"/>
       <c r="D14" s="88"/>
@@ -11977,10 +12239,10 @@
     </row>
     <row r="15" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="87" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="B15" s="99" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="C15" s="88"/>
       <c r="D15" s="88"/>
@@ -11993,10 +12255,10 @@
     </row>
     <row r="16" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="87" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="B16" s="99" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C16" s="88"/>
       <c r="D16" s="88"/>
@@ -12007,44 +12269,44 @@
       <c r="I16" s="88"/>
       <c r="J16" s="88"/>
     </row>
-    <row r="17" spans="1:10" s="162" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="159" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" s="160" t="s">
-        <v>226</v>
-      </c>
-      <c r="C17" s="161"/>
-      <c r="D17" s="161"/>
-      <c r="E17" s="161"/>
-      <c r="F17" s="161"/>
-      <c r="G17" s="161"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="161"/>
-      <c r="J17" s="161"/>
-    </row>
-    <row r="18" spans="1:10" s="162" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="159" t="s">
-        <v>188</v>
-      </c>
-      <c r="B18" s="160" t="s">
-        <v>263</v>
-      </c>
-      <c r="C18" s="161"/>
-      <c r="D18" s="161"/>
-      <c r="E18" s="161"/>
-      <c r="F18" s="161"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="161"/>
-      <c r="J18" s="161"/>
+    <row r="17" spans="1:10" s="160" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="157" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="158" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="159"/>
+      <c r="D17" s="159"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="159"/>
+      <c r="J17" s="159"/>
+    </row>
+    <row r="18" spans="1:10" s="160" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="157" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="158" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" s="159"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="159"/>
     </row>
     <row r="19" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="87" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B19" s="99" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C19" s="88"/>
       <c r="D19" s="88"/>
@@ -12905,69 +13167,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="211" t="s">
-        <v>591</v>
-      </c>
-      <c r="B1" s="211" t="s">
+      <c r="A1" s="209" t="s">
+        <v>577</v>
+      </c>
+      <c r="B1" s="209" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="65" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>302</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="66" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="66" t="s">
-        <v>304</v>
-      </c>
-      <c r="F1" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="66" t="s">
-        <v>305</v>
-      </c>
       <c r="H1" s="66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C2" s="116" t="str">
-        <f>""""&amp;C1&amp;""","</f>
+        <f t="shared" ref="C2:H2" si="0">""""&amp;C1&amp;""","</f>
         <v>"&lt;1",</v>
       </c>
       <c r="D2" s="116" t="str">
-        <f>""""&amp;D1&amp;""","</f>
+        <f t="shared" si="0"/>
         <v>"1-4",</v>
       </c>
       <c r="E2" s="116" t="str">
-        <f>""""&amp;E1&amp;""","</f>
+        <f t="shared" si="0"/>
         <v>"5-9",</v>
       </c>
       <c r="F2" s="116" t="str">
-        <f>""""&amp;F1&amp;""","</f>
+        <f t="shared" si="0"/>
         <v>"10-14",</v>
       </c>
       <c r="G2" s="116" t="str">
-        <f>""""&amp;G1&amp;""","</f>
+        <f t="shared" si="0"/>
         <v>"15-17",</v>
       </c>
       <c r="H2" s="116" t="str">
-        <f>""""&amp;H1&amp;""","</f>
+        <f t="shared" si="0"/>
         <v>"18+",</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
@@ -12978,10 +13240,10 @@
     </row>
     <row r="4" spans="1:8" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
@@ -12992,10 +13254,10 @@
     </row>
     <row r="5" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -13006,10 +13268,10 @@
     </row>
     <row r="6" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
@@ -13020,10 +13282,10 @@
     </row>
     <row r="7" spans="1:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
@@ -13034,10 +13296,10 @@
     </row>
     <row r="8" spans="1:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
@@ -13048,10 +13310,10 @@
     </row>
     <row r="9" spans="1:8" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C9" s="67"/>
       <c r="D9" s="68"/>
@@ -13062,10 +13324,10 @@
     </row>
     <row r="10" spans="1:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>

--- a/template-reader/template-reader/staticdata/sampleTemplate.xlsx
+++ b/template-reader/template-reader/staticdata/sampleTemplate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" tabRatio="927" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" tabRatio="927" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Cover1" sheetId="20" r:id="rId1"/>
@@ -1598,7 +1598,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -2044,6 +2044,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2078,10 +2093,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2257,33 +2268,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2429,16 +2413,116 @@
     <xf numFmtId="0" fontId="27" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -2463,18 +2547,6 @@
     <xf numFmtId="0" fontId="24" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2486,21 +2558,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2526,84 +2583,26 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2611,12 +2610,6 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2635,20 +2628,42 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="21" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3183,342 +3198,342 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="153"/>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
+      <c r="A1" s="117"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="153"/>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
+      <c r="A3" s="117"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="153"/>
-      <c r="B4" s="153"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
+      <c r="A4" s="117"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="153"/>
-      <c r="B5" s="153"/>
-      <c r="C5" s="153"/>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="153"/>
-      <c r="B6" s="153"/>
-      <c r="C6" s="153"/>
-      <c r="D6" s="153"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
+      <c r="A6" s="117"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="153"/>
-      <c r="B7" s="153"/>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
+      <c r="A7" s="117"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="154" t="s">
+      <c r="A8" s="118" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="155"/>
-      <c r="C8" s="155"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
     </row>
     <row r="9" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="155"/>
-      <c r="B9" s="155"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="155"/>
+      <c r="A9" s="119"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="173" t="s">
+      <c r="A10" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="173"/>
-      <c r="C10" s="173"/>
-      <c r="D10" s="173"/>
-      <c r="E10" s="173"/>
-      <c r="F10" s="173"/>
-      <c r="G10" s="173"/>
-      <c r="H10" s="173"/>
+      <c r="B10" s="143"/>
+      <c r="C10" s="143"/>
+      <c r="D10" s="143"/>
+      <c r="E10" s="143"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="143"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="156" t="s">
+      <c r="A11" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="156"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
     </row>
     <row r="12" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1</v>
       </c>
-      <c r="B12" s="133" t="s">
+      <c r="B12" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="134"/>
-      <c r="D12" s="135" t="s">
+      <c r="C12" s="154"/>
+      <c r="D12" s="127" t="s">
         <v>286</v>
       </c>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="137"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="129"/>
     </row>
     <row r="13" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>2</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="137"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="129"/>
     </row>
     <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>3</v>
       </c>
-      <c r="B14" s="142" t="s">
+      <c r="B14" s="146" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="143"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="137"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="129"/>
     </row>
     <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>4</v>
       </c>
-      <c r="B15" s="142" t="s">
+      <c r="B15" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="C15" s="143"/>
-      <c r="D15" s="135"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="137"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="129"/>
     </row>
     <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>5</v>
       </c>
-      <c r="B16" s="142" t="s">
+      <c r="B16" s="146" t="s">
         <v>136</v>
       </c>
-      <c r="C16" s="143"/>
-      <c r="D16" s="135"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="137"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="129"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="171">
+      <c r="A17" s="141">
         <v>6</v>
       </c>
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="164"/>
-      <c r="F17" s="164"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="165"/>
+      <c r="C17" s="156"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="132"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="172"/>
-      <c r="B18" s="140"/>
-      <c r="C18" s="141"/>
-      <c r="D18" s="166"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="168"/>
+      <c r="A18" s="142"/>
+      <c r="B18" s="157"/>
+      <c r="C18" s="158"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="135"/>
     </row>
     <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="111"/>
-      <c r="B19" s="112" t="s">
+      <c r="A19" s="102"/>
+      <c r="B19" s="103" t="s">
         <v>284</v>
       </c>
-      <c r="C19" s="113"/>
-      <c r="D19" s="150">
+      <c r="C19" s="104"/>
+      <c r="D19" s="162">
         <v>2016</v>
       </c>
-      <c r="E19" s="151"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="151"/>
-      <c r="H19" s="152"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="164"/>
     </row>
     <row r="20" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>7</v>
       </c>
-      <c r="B20" s="174" t="s">
+      <c r="B20" s="144" t="s">
         <v>135</v>
       </c>
-      <c r="C20" s="175"/>
-      <c r="D20" s="144" t="s">
+      <c r="C20" s="145"/>
+      <c r="D20" s="138" t="s">
         <v>285</v>
       </c>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="146"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="140"/>
     </row>
     <row r="21" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>8</v>
       </c>
-      <c r="B21" s="174" t="s">
+      <c r="B21" s="144" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="175"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="146"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="140"/>
     </row>
     <row r="22" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>9</v>
       </c>
-      <c r="B22" s="169" t="s">
+      <c r="B22" s="136" t="s">
         <v>167</v>
       </c>
-      <c r="C22" s="170"/>
-      <c r="D22" s="144"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="146"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="140"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="171">
+      <c r="A23" s="141">
         <v>10</v>
       </c>
-      <c r="B23" s="131" t="s">
+      <c r="B23" s="151" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="157">
+      <c r="C23" s="121">
         <v>988332299</v>
       </c>
-      <c r="D23" s="158"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="159"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="123"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="172"/>
-      <c r="B24" s="132"/>
-      <c r="C24" s="160"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="162"/>
+      <c r="A24" s="142"/>
+      <c r="B24" s="152"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="126"/>
     </row>
     <row r="25" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>11</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="C25" s="147"/>
-      <c r="D25" s="148"/>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="149"/>
+      <c r="C25" s="159"/>
+      <c r="D25" s="160"/>
+      <c r="E25" s="160"/>
+      <c r="F25" s="160"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="161"/>
     </row>
     <row r="26" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>12</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="128"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="130"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="149"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="150"/>
     </row>
     <row r="27" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>13</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="128"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="130"/>
+      <c r="C27" s="148"/>
+      <c r="D27" s="149"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="150"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
@@ -3532,6 +3547,19 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="29">
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D19:H19"/>
     <mergeCell ref="A1:H7"/>
     <mergeCell ref="A8:H9"/>
     <mergeCell ref="A11:H11"/>
@@ -3548,19 +3576,6 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D21:H21"/>
     <mergeCell ref="D13:H13"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D19:H19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="92" orientation="landscape" r:id="rId1"/>
@@ -3588,145 +3603,145 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="63.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="59" customWidth="1"/>
-    <col min="2" max="2" width="72.28515625" style="56" customWidth="1"/>
-    <col min="3" max="9" width="12.5703125" style="56" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" style="56" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="56"/>
+    <col min="1" max="1" width="5.85546875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="72.28515625" style="55" customWidth="1"/>
+    <col min="3" max="9" width="12.5703125" style="55" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="55" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="105" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="114" t="s">
+      <c r="B1" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="55" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="C2" s="56" t="str">
+      <c r="C2" s="55" t="str">
         <f>TRIM(C1)</f>
         <v>&lt;1</v>
       </c>
-      <c r="D2" s="56" t="str">
+      <c r="D2" s="55" t="str">
         <f t="shared" ref="D2:K2" si="0">TRIM(D1)</f>
         <v>1-4</v>
       </c>
-      <c r="E2" s="56" t="str">
+      <c r="E2" s="55" t="str">
         <f t="shared" si="0"/>
         <v>5-9</v>
       </c>
-      <c r="F2" s="56" t="str">
+      <c r="F2" s="55" t="str">
         <f t="shared" si="0"/>
         <v>10-14</v>
       </c>
-      <c r="G2" s="56" t="str">
+      <c r="G2" s="55" t="str">
         <f t="shared" si="0"/>
         <v>15-19</v>
       </c>
-      <c r="H2" s="56" t="str">
+      <c r="H2" s="55" t="str">
         <f t="shared" si="0"/>
         <v>20-24</v>
       </c>
-      <c r="I2" s="56" t="str">
+      <c r="I2" s="55" t="str">
         <f t="shared" si="0"/>
         <v>25-49</v>
       </c>
-      <c r="J2" s="56" t="str">
+      <c r="J2" s="55" t="str">
         <f t="shared" si="0"/>
         <v>50+</v>
       </c>
-      <c r="K2" s="56" t="str">
+      <c r="K2" s="55" t="str">
         <f t="shared" si="0"/>
         <v>Total</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="57" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="57" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="57" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="57" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="57" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="57" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="57" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3760,7 +3775,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="60" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="59" customWidth="1"/>
     <col min="2" max="2" width="42.5703125" style="10" customWidth="1"/>
     <col min="3" max="3" width="6" style="10" customWidth="1"/>
     <col min="4" max="4" width="4.7109375" style="10" customWidth="1"/>
@@ -3774,231 +3789,231 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>243</v>
       </c>
-      <c r="C2" s="56" t="str">
-        <f>TRIM(C1)</f>
+      <c r="C2" s="55" t="str">
+        <f t="shared" ref="C2:J2" si="0">TRIM(C1)</f>
         <v>&lt;1</v>
       </c>
-      <c r="D2" s="56" t="str">
-        <f>TRIM(D1)</f>
+      <c r="D2" s="55" t="str">
+        <f t="shared" si="0"/>
         <v>1-4</v>
       </c>
-      <c r="E2" s="56" t="str">
-        <f>TRIM(E1)</f>
+      <c r="E2" s="55" t="str">
+        <f t="shared" si="0"/>
         <v>5-9</v>
       </c>
-      <c r="F2" s="56" t="str">
-        <f>TRIM(F1)</f>
+      <c r="F2" s="55" t="str">
+        <f t="shared" si="0"/>
         <v>10-14</v>
       </c>
-      <c r="G2" s="56" t="str">
-        <f>TRIM(G1)</f>
+      <c r="G2" s="55" t="str">
+        <f t="shared" si="0"/>
         <v>15-19</v>
       </c>
-      <c r="H2" s="56" t="str">
-        <f>TRIM(H1)</f>
+      <c r="H2" s="55" t="str">
+        <f t="shared" si="0"/>
         <v>20-24</v>
       </c>
-      <c r="I2" s="56" t="str">
-        <f>TRIM(I1)</f>
+      <c r="I2" s="55" t="str">
+        <f t="shared" si="0"/>
         <v>25-49</v>
       </c>
-      <c r="J2" s="56" t="str">
-        <f>TRIM(J1)</f>
+      <c r="J2" s="55" t="str">
+        <f t="shared" si="0"/>
         <v>50+</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="93" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="93" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="93" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="94" t="s">
         <v>280</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="93" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="94" t="s">
         <v>281</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="93" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="95" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="76" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="76" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="44" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="75" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="44" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="75" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="44" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="44" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="44" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="44" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="44" t="s">
         <v>283</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="44" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="44" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="44" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="44" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="59" t="s">
         <v>197</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -4006,7 +4021,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="59" t="s">
         <v>239</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -4052,301 +4067,301 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>289</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="56" t="str">
-        <f>TRIM(C1)</f>
+      <c r="C2" s="55" t="str">
+        <f t="shared" ref="C2:J2" si="0">TRIM(C1)</f>
         <v>&lt;1</v>
       </c>
-      <c r="D2" s="56" t="str">
-        <f>TRIM(D1)</f>
+      <c r="D2" s="55" t="str">
+        <f t="shared" si="0"/>
         <v>1 – 4</v>
       </c>
-      <c r="E2" s="56" t="str">
-        <f>TRIM(E1)</f>
+      <c r="E2" s="55" t="str">
+        <f t="shared" si="0"/>
         <v>5 to 9</v>
       </c>
-      <c r="F2" s="56" t="str">
-        <f>TRIM(F1)</f>
+      <c r="F2" s="55" t="str">
+        <f t="shared" si="0"/>
         <v>10 to 14</v>
       </c>
-      <c r="G2" s="56" t="str">
-        <f>TRIM(G1)</f>
+      <c r="G2" s="55" t="str">
+        <f t="shared" si="0"/>
         <v>15 to 19</v>
       </c>
-      <c r="H2" s="56" t="str">
-        <f>TRIM(H1)</f>
+      <c r="H2" s="55" t="str">
+        <f t="shared" si="0"/>
         <v>20 to 24</v>
       </c>
-      <c r="I2" s="56" t="str">
-        <f>TRIM(I1)</f>
+      <c r="I2" s="55" t="str">
+        <f t="shared" si="0"/>
         <v>25 to 49</v>
       </c>
-      <c r="J2" s="56" t="str">
-        <f>TRIM(J1)</f>
+      <c r="J2" s="55" t="str">
+        <f t="shared" si="0"/>
         <v>50+</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="17"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="16"/>
     </row>
     <row r="7" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="17"/>
-      <c r="R8" s="19"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="16"/>
+      <c r="R8" s="18"/>
     </row>
     <row r="9" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>191</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>192</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="17"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>193</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="17"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="17"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="17"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="17"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="17"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="74" t="s">
         <v>250</v>
       </c>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="17"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="16"/>
     </row>
     <row r="17" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -4355,14 +4370,14 @@
       <c r="B17" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="17"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="16"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
@@ -4371,14 +4386,14 @@
       <c r="B18" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="17"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
@@ -4417,7 +4432,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" style="60" customWidth="1"/>
+    <col min="1" max="1" width="17" style="59" customWidth="1"/>
     <col min="2" max="2" width="68" style="10" customWidth="1"/>
     <col min="3" max="4" width="11.5703125" style="10" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" style="10" customWidth="1"/>
@@ -4427,839 +4442,839 @@
     <col min="10" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="61" customFormat="1" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:9" s="60" customFormat="1" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="65" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="C2" s="56" t="str">
-        <f>TRIM(C1)</f>
+      <c r="C2" s="55" t="str">
+        <f t="shared" ref="C2:I2" si="0">TRIM(C1)</f>
         <v>&lt;10</v>
       </c>
-      <c r="D2" s="56" t="str">
-        <f>TRIM(D1)</f>
+      <c r="D2" s="55" t="str">
+        <f t="shared" si="0"/>
         <v>10-14</v>
       </c>
-      <c r="E2" s="56" t="str">
-        <f>TRIM(E1)</f>
+      <c r="E2" s="55" t="str">
+        <f t="shared" si="0"/>
         <v>15-19</v>
       </c>
-      <c r="F2" s="56" t="str">
-        <f>TRIM(F1)</f>
+      <c r="F2" s="55" t="str">
+        <f t="shared" si="0"/>
         <v>20-24</v>
       </c>
-      <c r="G2" s="56" t="str">
-        <f>TRIM(G1)</f>
+      <c r="G2" s="55" t="str">
+        <f t="shared" si="0"/>
         <v>25-49</v>
       </c>
-      <c r="H2" s="56" t="str">
-        <f>TRIM(H1)</f>
+      <c r="H2" s="55" t="str">
+        <f t="shared" si="0"/>
         <v>50+</v>
       </c>
-      <c r="I2" s="56" t="str">
-        <f>TRIM(I1)</f>
+      <c r="I2" s="55" t="str">
+        <f t="shared" si="0"/>
         <v>Total</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="87">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="78">
         <f>SUM(C3:H3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="87">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="78">
         <f>SUM(C4:H4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="87">
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="78">
         <f>SUM(C5:H5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="87">
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="78">
         <f>SUM(C6:H6)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="87">
-        <f t="shared" ref="I7:I13" si="0">SUM(C7:H7)</f>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="78">
+        <f t="shared" ref="I7:I13" si="1">SUM(C7:H7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="87">
-        <f t="shared" si="0"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="78">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="87">
-        <f t="shared" si="0"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="78">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="97" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="87">
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="78">
         <f>SUM(C10:H10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="87">
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="78">
         <f>SUM(C11:H11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="87">
+      <c r="C12" s="61"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="78">
         <f>SUM(C12:H12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="87">
-        <f t="shared" si="0"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="78">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="88"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="79"/>
     </row>
     <row r="15" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="88"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="79"/>
     </row>
     <row r="16" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="88"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="79"/>
     </row>
     <row r="17" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="88"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="79"/>
     </row>
     <row r="18" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="88"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="79"/>
     </row>
     <row r="19" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="88"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="79"/>
     </row>
     <row r="20" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="88"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="79"/>
     </row>
     <row r="21" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="88"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="79"/>
     </row>
     <row r="22" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="88"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="79"/>
     </row>
     <row r="23" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="98" t="s">
+      <c r="A23" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="108" t="s">
+      <c r="B23" s="99" t="s">
         <v>233</v>
       </c>
-      <c r="C23" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="D23" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="E23" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="F23" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="G23" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="H23" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="I23" s="88">
+      <c r="C23" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="D23" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="E23" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="F23" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="G23" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="H23" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="I23" s="79">
         <f>I22+10</f>
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="98" t="s">
+      <c r="A24" s="89" t="s">
         <v>260</v>
       </c>
-      <c r="B24" s="108" t="s">
+      <c r="B24" s="99" t="s">
         <v>261</v>
       </c>
-      <c r="C24" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="D24" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="E24" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="F24" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="G24" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="H24" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="I24" s="88">
+      <c r="C24" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="D24" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="E24" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="F24" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="G24" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="H24" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="I24" s="79">
         <f>I23+10</f>
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="98" t="s">
+      <c r="A25" s="89" t="s">
         <v>262</v>
       </c>
-      <c r="B25" s="108" t="s">
+      <c r="B25" s="99" t="s">
         <v>263</v>
       </c>
-      <c r="C25" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="D25" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="E25" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="F25" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="G25" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="H25" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="I25" s="88">
-        <f t="shared" ref="I25:I31" si="1">I24+10</f>
+      <c r="C25" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="D25" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="E25" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="F25" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="G25" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="H25" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="I25" s="79">
+        <f t="shared" ref="I25:I31" si="2">I24+10</f>
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="98" t="s">
+      <c r="A26" s="89" t="s">
         <v>264</v>
       </c>
-      <c r="B26" s="108" t="s">
+      <c r="B26" s="99" t="s">
         <v>265</v>
       </c>
-      <c r="C26" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="D26" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="E26" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="F26" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="G26" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="H26" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="I26" s="88">
-        <f t="shared" si="1"/>
+      <c r="C26" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="D26" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="E26" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="F26" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="G26" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="H26" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="I26" s="79">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="98" t="s">
+      <c r="A27" s="89" t="s">
         <v>266</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="C27" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="D27" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="E27" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="F27" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="G27" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="H27" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="I27" s="88">
-        <f t="shared" si="1"/>
+      <c r="C27" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="D27" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="E27" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="F27" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="G27" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="H27" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="I27" s="79">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="98" t="s">
+      <c r="A28" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="109" t="s">
+      <c r="B28" s="100" t="s">
         <v>304</v>
       </c>
-      <c r="C28" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="D28" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="E28" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="F28" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="G28" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="H28" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="I28" s="88">
-        <f t="shared" si="1"/>
+      <c r="C28" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="D28" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="E28" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="F28" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="G28" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="H28" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="I28" s="79">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="98" t="s">
+      <c r="A29" s="89" t="s">
         <v>268</v>
       </c>
-      <c r="B29" s="109" t="s">
+      <c r="B29" s="100" t="s">
         <v>269</v>
       </c>
-      <c r="C29" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="D29" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="E29" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="F29" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="G29" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="H29" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="I29" s="88">
-        <f t="shared" si="1"/>
+      <c r="C29" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="D29" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="E29" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="F29" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="G29" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="H29" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="I29" s="79">
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="98" t="s">
+      <c r="A30" s="89" t="s">
         <v>270</v>
       </c>
-      <c r="B30" s="109" t="s">
+      <c r="B30" s="100" t="s">
         <v>271</v>
       </c>
-      <c r="C30" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="D30" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="E30" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="F30" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="G30" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="H30" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="I30" s="88">
-        <f t="shared" si="1"/>
+      <c r="C30" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="D30" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="E30" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="F30" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="G30" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="H30" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="I30" s="79">
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="98" t="s">
+      <c r="A31" s="89" t="s">
         <v>272</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="C31" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="D31" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="E31" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="F31" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="G31" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="H31" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="I31" s="88">
-        <f t="shared" si="1"/>
+      <c r="C31" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="D31" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="E31" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="F31" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="G31" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="H31" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="I31" s="79">
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="98" t="s">
+      <c r="A32" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="110" t="s">
+      <c r="B32" s="101" t="s">
         <v>180</v>
       </c>
-      <c r="C32" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="D32" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="E32" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="F32" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="G32" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="H32" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="I32" s="87">
+      <c r="C32" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="D32" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="E32" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="F32" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="G32" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="H32" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="I32" s="78">
         <f>SUM(I33:I35)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="98" t="s">
+      <c r="A33" s="89" t="s">
         <v>274</v>
       </c>
-      <c r="B33" s="110" t="s">
+      <c r="B33" s="101" t="s">
         <v>275</v>
       </c>
-      <c r="C33" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="D33" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="E33" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="F33" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="G33" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="H33" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="I33" s="88">
+      <c r="C33" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="D33" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="E33" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="F33" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="G33" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="H33" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="I33" s="79">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="98" t="s">
+      <c r="A34" s="89" t="s">
         <v>276</v>
       </c>
-      <c r="B34" s="110" t="s">
+      <c r="B34" s="101" t="s">
         <v>277</v>
       </c>
-      <c r="C34" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="D34" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="E34" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="F34" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="G34" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="H34" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="I34" s="88">
+      <c r="C34" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="D34" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="E34" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="F34" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="G34" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="H34" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="I34" s="79">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="C35" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="D35" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="E35" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="F35" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="G35" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="H35" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="I35" s="88">
+      <c r="C35" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="D35" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="E35" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="F35" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="G35" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="H35" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="I35" s="79">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="88">
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="79">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="32" t="s">
         <v>306</v>
       </c>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="88">
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="79">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="60" t="s">
+      <c r="A38" s="59" t="s">
         <v>182</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="88">
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="79">
         <v>0</v>
       </c>
     </row>
@@ -5289,587 +5304,587 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="34" customWidth="1"/>
-    <col min="2" max="2" width="58" style="34" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="25"/>
+    <col min="1" max="1" width="12.7109375" style="33" customWidth="1"/>
+    <col min="2" max="2" width="58" style="33" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="64" t="s">
         <v>287</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="64" t="s">
         <v>288</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="64" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="89" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="106" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="56" t="str">
+      <c r="C2" s="55" t="str">
         <f>TRIM(C1)</f>
         <v>&lt;20</v>
       </c>
-      <c r="D2" s="56" t="str">
+      <c r="D2" s="55" t="str">
         <f>TRIM(D1)</f>
         <v>20- 24</v>
       </c>
-      <c r="E2" s="56" t="str">
+      <c r="E2" s="55" t="str">
         <f>TRIM(E1)</f>
         <v>25- 49</v>
       </c>
-      <c r="F2" s="56" t="str">
+      <c r="F2" s="55" t="str">
         <f>TRIM(F1)</f>
         <v>50+</v>
       </c>
-      <c r="G2" s="56" t="str">
+      <c r="G2" s="55" t="str">
         <f>TRIM(G1)</f>
         <v>Total</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="89" t="s">
         <v>308</v>
       </c>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="107" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="178"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="89" t="s">
         <v>310</v>
       </c>
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="107" t="s">
         <v>311</v>
       </c>
-      <c r="C4" s="178"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="179"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="89" t="s">
         <v>312</v>
       </c>
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="107" t="s">
         <v>313</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="89" t="s">
         <v>314</v>
       </c>
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="107" t="s">
         <v>315</v>
       </c>
-      <c r="C6" s="90"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="89" t="s">
         <v>316</v>
       </c>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="107" t="s">
         <v>317</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="89" t="s">
         <v>318</v>
       </c>
-      <c r="B8" s="116" t="s">
+      <c r="B8" s="107" t="s">
         <v>319</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
     </row>
     <row r="9" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="98" t="s">
+      <c r="A9" s="89" t="s">
         <v>320</v>
       </c>
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="107" t="s">
         <v>321</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="89" t="s">
         <v>322</v>
       </c>
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="107" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="90"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="89" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="107" t="s">
         <v>325</v>
       </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="98" t="s">
+      <c r="A12" s="89" t="s">
         <v>326</v>
       </c>
-      <c r="B12" s="116" t="s">
+      <c r="B12" s="107" t="s">
         <v>327</v>
       </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="98" t="s">
+      <c r="A13" s="89" t="s">
         <v>328</v>
       </c>
-      <c r="B13" s="116" t="s">
+      <c r="B13" s="107" t="s">
         <v>329</v>
       </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
     </row>
     <row r="14" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="98" t="s">
+      <c r="A14" s="89" t="s">
         <v>330</v>
       </c>
-      <c r="B14" s="116" t="s">
+      <c r="B14" s="107" t="s">
         <v>331</v>
       </c>
-      <c r="C14" s="180"/>
-      <c r="D14" s="181"/>
-      <c r="E14" s="181"/>
-      <c r="F14" s="181"/>
-      <c r="G14" s="181"/>
+      <c r="C14" s="174"/>
+      <c r="D14" s="175"/>
+      <c r="E14" s="175"/>
+      <c r="F14" s="175"/>
+      <c r="G14" s="175"/>
     </row>
     <row r="15" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="117" t="s">
+      <c r="A15" s="108" t="s">
         <v>215</v>
       </c>
-      <c r="B15" s="115" t="s">
+      <c r="B15" s="106" t="s">
         <v>216</v>
       </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="182"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="93"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="176"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="84"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="117" t="s">
+      <c r="A16" s="108" t="s">
         <v>332</v>
       </c>
-      <c r="B16" s="118" t="s">
+      <c r="B16" s="109" t="s">
         <v>333</v>
       </c>
-      <c r="C16" s="90"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="182"/>
-      <c r="F16" s="183"/>
-      <c r="G16" s="93"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="176"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="84"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="117" t="s">
+      <c r="A17" s="108" t="s">
         <v>334</v>
       </c>
-      <c r="B17" s="118" t="s">
+      <c r="B17" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="C17" s="90"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="182"/>
-      <c r="F17" s="183"/>
-      <c r="G17" s="93"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="84"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="117" t="s">
+      <c r="A18" s="108" t="s">
         <v>336</v>
       </c>
-      <c r="B18" s="118" t="s">
+      <c r="B18" s="109" t="s">
         <v>337</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="182"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="93"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="176"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="84"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="117" t="s">
+      <c r="A19" s="108" t="s">
         <v>338</v>
       </c>
-      <c r="B19" s="118" t="s">
+      <c r="B19" s="109" t="s">
         <v>339</v>
       </c>
-      <c r="C19" s="90"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="182"/>
-      <c r="F19" s="183"/>
-      <c r="G19" s="93"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="176"/>
+      <c r="F19" s="177"/>
+      <c r="G19" s="84"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="117" t="s">
+      <c r="A20" s="108" t="s">
         <v>340</v>
       </c>
-      <c r="B20" s="118" t="s">
+      <c r="B20" s="109" t="s">
         <v>341</v>
       </c>
-      <c r="C20" s="90"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="182"/>
-      <c r="F20" s="183"/>
-      <c r="G20" s="93"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="176"/>
+      <c r="F20" s="177"/>
+      <c r="G20" s="84"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="117" t="s">
+      <c r="A21" s="108" t="s">
         <v>342</v>
       </c>
-      <c r="B21" s="118" t="s">
+      <c r="B21" s="109" t="s">
         <v>343</v>
       </c>
-      <c r="C21" s="90"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="182"/>
-      <c r="F21" s="183"/>
-      <c r="G21" s="93"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="176"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="84"/>
     </row>
     <row r="22" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="117" t="s">
+      <c r="A22" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="B22" s="118" t="s">
+      <c r="B22" s="109" t="s">
         <v>345</v>
       </c>
-      <c r="C22" s="90"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="184"/>
-      <c r="F22" s="185"/>
-      <c r="G22" s="94"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="85"/>
     </row>
     <row r="23" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="117" t="s">
+      <c r="A23" s="108" t="s">
         <v>346</v>
       </c>
-      <c r="B23" s="118" t="s">
+      <c r="B23" s="109" t="s">
         <v>347</v>
       </c>
-      <c r="C23" s="95"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="176"/>
-      <c r="F23" s="177"/>
-      <c r="G23" s="97"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="173"/>
+      <c r="G23" s="88"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="117" t="s">
+      <c r="A24" s="108" t="s">
         <v>348</v>
       </c>
-      <c r="B24" s="118" t="s">
+      <c r="B24" s="109" t="s">
         <v>349</v>
       </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
     </row>
     <row r="25" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="117" t="s">
+      <c r="A25" s="108" t="s">
         <v>350</v>
       </c>
-      <c r="B25" s="118" t="s">
+      <c r="B25" s="109" t="s">
         <v>351</v>
       </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="92"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="83"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="117" t="s">
+      <c r="A26" s="108" t="s">
         <v>352</v>
       </c>
-      <c r="B26" s="118" t="s">
+      <c r="B26" s="109" t="s">
         <v>353</v>
       </c>
-      <c r="C26" s="178"/>
-      <c r="D26" s="179"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="179"/>
+      <c r="C26" s="165"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="166"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="117" t="s">
+      <c r="A27" s="108" t="s">
         <v>354</v>
       </c>
-      <c r="B27" s="118" t="s">
+      <c r="B27" s="109" t="s">
         <v>355</v>
       </c>
-      <c r="C27" s="178"/>
-      <c r="D27" s="179"/>
-      <c r="E27" s="179"/>
-      <c r="F27" s="179"/>
-      <c r="G27" s="179"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="166"/>
+      <c r="E27" s="166"/>
+      <c r="F27" s="166"/>
+      <c r="G27" s="166"/>
     </row>
     <row r="28" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="119" t="s">
+      <c r="A28" s="110" t="s">
         <v>217</v>
       </c>
-      <c r="B28" s="115" t="s">
+      <c r="B28" s="106" t="s">
         <v>218</v>
       </c>
-      <c r="C28" s="90"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="91"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
     </row>
     <row r="29" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="119" t="s">
+      <c r="A29" s="110" t="s">
         <v>219</v>
       </c>
-      <c r="B29" s="120" t="s">
+      <c r="B29" s="111" t="s">
         <v>356</v>
       </c>
-      <c r="C29" s="90"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="91"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
     </row>
     <row r="30" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="121" t="s">
+      <c r="A30" s="112" t="s">
         <v>221</v>
       </c>
-      <c r="B30" s="115" t="s">
+      <c r="B30" s="106" t="s">
         <v>220</v>
       </c>
-      <c r="C30" s="90"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
     </row>
     <row r="31" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="98" t="s">
+      <c r="A31" s="89" t="s">
         <v>223</v>
       </c>
-      <c r="B31" s="115" t="s">
+      <c r="B31" s="106" t="s">
         <v>229</v>
       </c>
-      <c r="C31" s="100"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="98" t="s">
+      <c r="A32" s="89" t="s">
         <v>357</v>
       </c>
-      <c r="B32" s="122" t="s">
+      <c r="B32" s="113" t="s">
         <v>358</v>
       </c>
-      <c r="C32" s="90"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="98" t="s">
+      <c r="A33" s="89" t="s">
         <v>359</v>
       </c>
-      <c r="B33" s="122" t="s">
+      <c r="B33" s="113" t="s">
         <v>360</v>
       </c>
-      <c r="C33" s="90"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="98" t="s">
+      <c r="A34" s="89" t="s">
         <v>361</v>
       </c>
-      <c r="B34" s="122" t="s">
+      <c r="B34" s="113" t="s">
         <v>362</v>
       </c>
-      <c r="C34" s="90"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="98" t="s">
+      <c r="A35" s="89" t="s">
         <v>363</v>
       </c>
-      <c r="B35" s="122" t="s">
+      <c r="B35" s="113" t="s">
         <v>364</v>
       </c>
-      <c r="C35" s="90"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="98" t="s">
+      <c r="A36" s="89" t="s">
         <v>365</v>
       </c>
-      <c r="B36" s="122" t="s">
+      <c r="B36" s="113" t="s">
         <v>366</v>
       </c>
-      <c r="C36" s="90"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="91"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
     </row>
     <row r="37" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="119" t="s">
+      <c r="A37" s="110" t="s">
         <v>227</v>
       </c>
-      <c r="B37" s="123" t="s">
+      <c r="B37" s="114" t="s">
         <v>222</v>
       </c>
-      <c r="C37" s="186"/>
-      <c r="D37" s="187"/>
-      <c r="E37" s="187"/>
-      <c r="F37" s="187"/>
-      <c r="G37" s="187"/>
+      <c r="C37" s="167"/>
+      <c r="D37" s="168"/>
+      <c r="E37" s="168"/>
+      <c r="F37" s="168"/>
+      <c r="G37" s="168"/>
     </row>
     <row r="38" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="119" t="s">
+      <c r="A38" s="110" t="s">
         <v>230</v>
       </c>
-      <c r="B38" s="123" t="s">
+      <c r="B38" s="114" t="s">
         <v>224</v>
       </c>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
     </row>
     <row r="39" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="119" t="s">
+      <c r="A39" s="110" t="s">
         <v>231</v>
       </c>
-      <c r="B39" s="123" t="s">
+      <c r="B39" s="114" t="s">
         <v>225</v>
       </c>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="92"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="83"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="119" t="s">
+      <c r="A40" s="110" t="s">
         <v>232</v>
       </c>
-      <c r="B40" s="123" t="s">
+      <c r="B40" s="114" t="s">
         <v>226</v>
       </c>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="92"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="83"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="119" t="s">
+      <c r="A41" s="110" t="s">
         <v>367</v>
       </c>
-      <c r="B41" s="124" t="s">
+      <c r="B41" s="115" t="s">
         <v>228</v>
       </c>
-      <c r="C41" s="188"/>
-      <c r="D41" s="189"/>
-      <c r="E41" s="189"/>
-      <c r="F41" s="190"/>
-      <c r="G41" s="99"/>
+      <c r="C41" s="169"/>
+      <c r="D41" s="170"/>
+      <c r="E41" s="170"/>
+      <c r="F41" s="171"/>
+      <c r="G41" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="E23:F23"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -5885,12 +5900,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A11" sqref="A11:H12"/>
       <selection pane="topRight" activeCell="A11" sqref="A11:H12"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11:H12"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5901,68 +5916,68 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="126" t="s">
+    <row r="1" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="180" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="180" t="s">
         <v>368</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="181" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="182" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="74" t="s">
+    <row r="2" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="183" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="183" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="56" t="str">
+      <c r="C2" s="184" t="str">
         <f>TRIM(C1)</f>
         <v>&lt;15</v>
       </c>
-      <c r="D2" s="56" t="str">
+      <c r="D2" s="184" t="str">
         <f>TRIM(D1)</f>
         <v>15+</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+    <row r="3" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="183" t="s">
         <v>174</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="183" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="72"/>
-    </row>
-    <row r="4" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
+      <c r="C3" s="185"/>
+      <c r="D3" s="186"/>
+    </row>
+    <row r="4" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="187" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="188" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-    </row>
-    <row r="5" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="70" t="s">
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+    </row>
+    <row r="5" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="187" t="s">
         <v>170</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="188" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="68"/>
+      <c r="C7" s="67"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -5993,1171 +6008,1171 @@
   <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" style="22" customWidth="1"/>
     <col min="3" max="16384" width="8.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>369</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="36" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="42" customFormat="1" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:11" s="41" customFormat="1" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>370</v>
       </c>
-      <c r="C2" s="56" t="str">
-        <f>TRIM(C1)</f>
+      <c r="C2" s="55" t="str">
+        <f t="shared" ref="C2:K2" si="0">TRIM(C1)</f>
         <v>&lt;1</v>
       </c>
-      <c r="D2" s="56" t="str">
-        <f>TRIM(D1)</f>
+      <c r="D2" s="55" t="str">
+        <f t="shared" si="0"/>
         <v>1 to 4</v>
       </c>
-      <c r="E2" s="56" t="str">
-        <f>TRIM(E1)</f>
+      <c r="E2" s="55" t="str">
+        <f t="shared" si="0"/>
         <v>5 to 9</v>
       </c>
-      <c r="F2" s="56" t="str">
-        <f>TRIM(F1)</f>
+      <c r="F2" s="55" t="str">
+        <f t="shared" si="0"/>
         <v>10 to 14</v>
       </c>
-      <c r="G2" s="56" t="str">
-        <f>TRIM(G1)</f>
+      <c r="G2" s="55" t="str">
+        <f t="shared" si="0"/>
         <v>15 to 19</v>
       </c>
-      <c r="H2" s="56" t="str">
-        <f>TRIM(H1)</f>
+      <c r="H2" s="55" t="str">
+        <f t="shared" si="0"/>
         <v>20 to 24</v>
       </c>
-      <c r="I2" s="56" t="str">
-        <f>TRIM(I1)</f>
+      <c r="I2" s="55" t="str">
+        <f t="shared" si="0"/>
         <v>25 to 49</v>
       </c>
-      <c r="J2" s="56" t="str">
-        <f>TRIM(J1)</f>
+      <c r="J2" s="55" t="str">
+        <f t="shared" si="0"/>
         <v>50+</v>
       </c>
-      <c r="K2" s="56" t="str">
-        <f>TRIM(K1)</f>
+      <c r="K2" s="55" t="str">
+        <f t="shared" si="0"/>
         <v>Total</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
-    </row>
-    <row r="4" spans="1:11" s="42" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
+    </row>
+    <row r="4" spans="1:11" s="41" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="44"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="43"/>
     </row>
     <row r="5" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>372</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="32" t="s">
         <v>373</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="40"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="39"/>
     </row>
     <row r="7" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-    </row>
-    <row r="8" spans="1:11" s="46" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+    </row>
+    <row r="8" spans="1:11" s="45" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
     </row>
     <row r="9" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="46" t="s">
         <v>374</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
     </row>
     <row r="12" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
     </row>
     <row r="13" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
     </row>
     <row r="14" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
     </row>
     <row r="15" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="70" t="s">
         <v>375</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
     </row>
     <row r="16" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="69" t="s">
         <v>198</v>
       </c>
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="70" t="s">
         <v>376</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-    </row>
-    <row r="17" spans="1:10" s="81" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+    </row>
+    <row r="17" spans="1:10" s="72" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="48" t="s">
         <v>377</v>
       </c>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-    </row>
-    <row r="18" spans="1:10" s="81" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="50" t="s">
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+    </row>
+    <row r="18" spans="1:10" s="72" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
     </row>
     <row r="19" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-    </row>
-    <row r="20" spans="1:10" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="50" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+    </row>
+    <row r="20" spans="1:10" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="22"/>
+    <row r="21" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="21"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="50"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="50"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="50"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="50"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="50"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="49"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="50"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
+      <c r="A48" s="49"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="49"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="50"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
+      <c r="A49" s="49"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="50"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="50"/>
-      <c r="J50" s="50"/>
+      <c r="A50" s="49"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="50"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="50"/>
+      <c r="A51" s="49"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="49"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="50"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
+      <c r="A52" s="49"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="49"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="50"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="50"/>
+      <c r="A53" s="49"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="49"/>
+      <c r="J53" s="49"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="50"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="50"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="50"/>
-      <c r="J54" s="50"/>
+      <c r="A54" s="49"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="49"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="50"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="50"/>
-      <c r="J55" s="50"/>
+      <c r="A55" s="49"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="49"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="50"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="50"/>
-      <c r="I56" s="50"/>
-      <c r="J56" s="50"/>
+      <c r="A56" s="49"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="49"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="50"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="50"/>
+      <c r="A57" s="49"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="49"/>
+      <c r="J57" s="49"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="50"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="50"/>
-      <c r="G58" s="50"/>
-      <c r="H58" s="50"/>
-      <c r="I58" s="50"/>
-      <c r="J58" s="50"/>
+      <c r="A58" s="49"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="49"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="50"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="50"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="50"/>
+      <c r="A59" s="49"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="49"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="50"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="50"/>
+      <c r="A60" s="49"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="49"/>
+      <c r="J60" s="49"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="50"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="50"/>
-      <c r="J61" s="50"/>
+      <c r="A61" s="49"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="50"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="50"/>
-      <c r="G62" s="50"/>
-      <c r="H62" s="50"/>
-      <c r="I62" s="50"/>
-      <c r="J62" s="50"/>
+      <c r="A62" s="49"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="49"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="50"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="50"/>
-      <c r="E63" s="50"/>
-      <c r="F63" s="50"/>
-      <c r="G63" s="50"/>
-      <c r="H63" s="50"/>
-      <c r="I63" s="50"/>
-      <c r="J63" s="50"/>
+      <c r="A63" s="49"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="49"/>
+      <c r="J63" s="49"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="50"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="50"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="50"/>
-      <c r="G64" s="50"/>
-      <c r="H64" s="50"/>
-      <c r="I64" s="50"/>
-      <c r="J64" s="50"/>
+      <c r="A64" s="49"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="49"/>
+      <c r="J64" s="49"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="50"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="50"/>
-      <c r="D65" s="50"/>
-      <c r="E65" s="50"/>
-      <c r="F65" s="50"/>
-      <c r="G65" s="50"/>
-      <c r="H65" s="50"/>
-      <c r="I65" s="50"/>
-      <c r="J65" s="50"/>
+      <c r="A65" s="49"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49"/>
+      <c r="I65" s="49"/>
+      <c r="J65" s="49"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="50"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="50"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="50"/>
-      <c r="G66" s="50"/>
-      <c r="H66" s="50"/>
-      <c r="I66" s="50"/>
-      <c r="J66" s="50"/>
+      <c r="A66" s="49"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="49"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="50"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="50"/>
-      <c r="E67" s="50"/>
-      <c r="F67" s="50"/>
-      <c r="G67" s="50"/>
-      <c r="H67" s="50"/>
-      <c r="I67" s="50"/>
-      <c r="J67" s="50"/>
+      <c r="A67" s="49"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="49"/>
+      <c r="I67" s="49"/>
+      <c r="J67" s="49"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="50"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="50"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="50"/>
-      <c r="I68" s="50"/>
-      <c r="J68" s="50"/>
+      <c r="A68" s="49"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="49"/>
+      <c r="I68" s="49"/>
+      <c r="J68" s="49"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="50"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="50"/>
-      <c r="E69" s="50"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="50"/>
-      <c r="I69" s="50"/>
-      <c r="J69" s="50"/>
+      <c r="A69" s="49"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="49"/>
+      <c r="J69" s="49"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="50"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="50"/>
-      <c r="E70" s="50"/>
-      <c r="F70" s="50"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="50"/>
-      <c r="I70" s="50"/>
-      <c r="J70" s="50"/>
+      <c r="A70" s="49"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="49"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="49"/>
+      <c r="H70" s="49"/>
+      <c r="I70" s="49"/>
+      <c r="J70" s="49"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="50"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="50"/>
-      <c r="D71" s="50"/>
-      <c r="E71" s="50"/>
-      <c r="F71" s="50"/>
-      <c r="G71" s="50"/>
-      <c r="H71" s="50"/>
-      <c r="I71" s="50"/>
-      <c r="J71" s="50"/>
+      <c r="A71" s="49"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="49"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="49"/>
+      <c r="H71" s="49"/>
+      <c r="I71" s="49"/>
+      <c r="J71" s="49"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="50"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="50"/>
-      <c r="D72" s="50"/>
-      <c r="E72" s="50"/>
-      <c r="F72" s="50"/>
-      <c r="G72" s="50"/>
-      <c r="H72" s="50"/>
-      <c r="I72" s="50"/>
-      <c r="J72" s="50"/>
+      <c r="A72" s="49"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="49"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="49"/>
+      <c r="F72" s="49"/>
+      <c r="G72" s="49"/>
+      <c r="H72" s="49"/>
+      <c r="I72" s="49"/>
+      <c r="J72" s="49"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="50"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="50"/>
-      <c r="D73" s="50"/>
-      <c r="E73" s="50"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="50"/>
-      <c r="I73" s="50"/>
-      <c r="J73" s="50"/>
+      <c r="A73" s="49"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="49"/>
+      <c r="E73" s="49"/>
+      <c r="F73" s="49"/>
+      <c r="G73" s="49"/>
+      <c r="H73" s="49"/>
+      <c r="I73" s="49"/>
+      <c r="J73" s="49"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="50"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="50"/>
-      <c r="D74" s="50"/>
-      <c r="E74" s="50"/>
-      <c r="F74" s="50"/>
-      <c r="G74" s="50"/>
-      <c r="H74" s="50"/>
-      <c r="I74" s="50"/>
-      <c r="J74" s="50"/>
+      <c r="A74" s="49"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="49"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="49"/>
+      <c r="G74" s="49"/>
+      <c r="H74" s="49"/>
+      <c r="I74" s="49"/>
+      <c r="J74" s="49"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="50"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="50"/>
-      <c r="D75" s="50"/>
-      <c r="E75" s="50"/>
-      <c r="F75" s="50"/>
-      <c r="G75" s="50"/>
-      <c r="H75" s="50"/>
-      <c r="I75" s="50"/>
-      <c r="J75" s="50"/>
+      <c r="A75" s="49"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="49"/>
+      <c r="I75" s="49"/>
+      <c r="J75" s="49"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="50"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="50"/>
-      <c r="F76" s="50"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="50"/>
-      <c r="I76" s="50"/>
-      <c r="J76" s="50"/>
+      <c r="A76" s="49"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="49"/>
+      <c r="I76" s="49"/>
+      <c r="J76" s="49"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="50"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="50"/>
-      <c r="D77" s="50"/>
-      <c r="E77" s="50"/>
-      <c r="F77" s="50"/>
-      <c r="G77" s="50"/>
-      <c r="H77" s="50"/>
-      <c r="I77" s="50"/>
-      <c r="J77" s="50"/>
+      <c r="A77" s="49"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="49"/>
+      <c r="F77" s="49"/>
+      <c r="G77" s="49"/>
+      <c r="H77" s="49"/>
+      <c r="I77" s="49"/>
+      <c r="J77" s="49"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="50"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="50"/>
-      <c r="D78" s="50"/>
-      <c r="E78" s="50"/>
-      <c r="F78" s="50"/>
-      <c r="G78" s="50"/>
-      <c r="H78" s="50"/>
-      <c r="I78" s="50"/>
-      <c r="J78" s="50"/>
+      <c r="A78" s="49"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="49"/>
+      <c r="D78" s="49"/>
+      <c r="E78" s="49"/>
+      <c r="F78" s="49"/>
+      <c r="G78" s="49"/>
+      <c r="H78" s="49"/>
+      <c r="I78" s="49"/>
+      <c r="J78" s="49"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="50"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="50"/>
-      <c r="D79" s="50"/>
-      <c r="E79" s="50"/>
-      <c r="F79" s="50"/>
-      <c r="G79" s="50"/>
-      <c r="H79" s="50"/>
-      <c r="I79" s="50"/>
-      <c r="J79" s="50"/>
+      <c r="A79" s="49"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="49"/>
+      <c r="F79" s="49"/>
+      <c r="G79" s="49"/>
+      <c r="H79" s="49"/>
+      <c r="I79" s="49"/>
+      <c r="J79" s="49"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="50"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="50"/>
-      <c r="D80" s="50"/>
-      <c r="E80" s="50"/>
-      <c r="F80" s="50"/>
-      <c r="G80" s="50"/>
-      <c r="H80" s="50"/>
-      <c r="I80" s="50"/>
-      <c r="J80" s="50"/>
+      <c r="A80" s="49"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="49"/>
+      <c r="D80" s="49"/>
+      <c r="E80" s="49"/>
+      <c r="F80" s="49"/>
+      <c r="G80" s="49"/>
+      <c r="H80" s="49"/>
+      <c r="I80" s="49"/>
+      <c r="J80" s="49"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="50"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="50"/>
-      <c r="D81" s="50"/>
-      <c r="E81" s="50"/>
-      <c r="F81" s="50"/>
-      <c r="G81" s="50"/>
-      <c r="H81" s="50"/>
-      <c r="I81" s="50"/>
-      <c r="J81" s="50"/>
+      <c r="A81" s="49"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="49"/>
+      <c r="D81" s="49"/>
+      <c r="E81" s="49"/>
+      <c r="F81" s="49"/>
+      <c r="G81" s="49"/>
+      <c r="H81" s="49"/>
+      <c r="I81" s="49"/>
+      <c r="J81" s="49"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="50"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="50"/>
-      <c r="D82" s="50"/>
-      <c r="E82" s="50"/>
-      <c r="F82" s="50"/>
-      <c r="G82" s="50"/>
-      <c r="H82" s="50"/>
-      <c r="I82" s="50"/>
-      <c r="J82" s="50"/>
+      <c r="A82" s="49"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="49"/>
+      <c r="D82" s="49"/>
+      <c r="E82" s="49"/>
+      <c r="F82" s="49"/>
+      <c r="G82" s="49"/>
+      <c r="H82" s="49"/>
+      <c r="I82" s="49"/>
+      <c r="J82" s="49"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="50"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="50"/>
-      <c r="D83" s="50"/>
-      <c r="E83" s="50"/>
-      <c r="F83" s="50"/>
-      <c r="G83" s="50"/>
-      <c r="H83" s="50"/>
-      <c r="I83" s="50"/>
-      <c r="J83" s="50"/>
+      <c r="A83" s="49"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="49"/>
+      <c r="D83" s="49"/>
+      <c r="E83" s="49"/>
+      <c r="F83" s="49"/>
+      <c r="G83" s="49"/>
+      <c r="H83" s="49"/>
+      <c r="I83" s="49"/>
+      <c r="J83" s="49"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="50"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="50"/>
-      <c r="D84" s="50"/>
-      <c r="E84" s="50"/>
-      <c r="F84" s="50"/>
-      <c r="G84" s="50"/>
-      <c r="H84" s="50"/>
-      <c r="I84" s="50"/>
-      <c r="J84" s="50"/>
+      <c r="A84" s="49"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="49"/>
+      <c r="I84" s="49"/>
+      <c r="J84" s="49"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="50"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="50"/>
-      <c r="D85" s="50"/>
-      <c r="E85" s="50"/>
-      <c r="F85" s="50"/>
-      <c r="G85" s="50"/>
-      <c r="H85" s="50"/>
-      <c r="I85" s="50"/>
-      <c r="J85" s="50"/>
+      <c r="A85" s="49"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="49"/>
+      <c r="F85" s="49"/>
+      <c r="G85" s="49"/>
+      <c r="H85" s="49"/>
+      <c r="I85" s="49"/>
+      <c r="J85" s="49"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="50"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="50"/>
-      <c r="D86" s="50"/>
-      <c r="E86" s="50"/>
-      <c r="F86" s="50"/>
-      <c r="G86" s="50"/>
-      <c r="H86" s="50"/>
-      <c r="I86" s="50"/>
-      <c r="J86" s="50"/>
+      <c r="A86" s="49"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="49"/>
+      <c r="E86" s="49"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="49"/>
+      <c r="H86" s="49"/>
+      <c r="I86" s="49"/>
+      <c r="J86" s="49"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="50"/>
-      <c r="D87" s="50"/>
-      <c r="E87" s="50"/>
-      <c r="F87" s="50"/>
-      <c r="G87" s="50"/>
-      <c r="H87" s="50"/>
-      <c r="I87" s="50"/>
-      <c r="J87" s="50"/>
+      <c r="C87" s="49"/>
+      <c r="D87" s="49"/>
+      <c r="E87" s="49"/>
+      <c r="F87" s="49"/>
+      <c r="G87" s="49"/>
+      <c r="H87" s="49"/>
+      <c r="I87" s="49"/>
+      <c r="J87" s="49"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="50"/>
-      <c r="D88" s="50"/>
-      <c r="E88" s="50"/>
-      <c r="F88" s="50"/>
-      <c r="G88" s="50"/>
-      <c r="H88" s="50"/>
-      <c r="I88" s="50"/>
-      <c r="J88" s="50"/>
+      <c r="C88" s="49"/>
+      <c r="D88" s="49"/>
+      <c r="E88" s="49"/>
+      <c r="F88" s="49"/>
+      <c r="G88" s="49"/>
+      <c r="H88" s="49"/>
+      <c r="I88" s="49"/>
+      <c r="J88" s="49"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -7179,7 +7194,7 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C4" sqref="C4"/>
       <selection pane="topRight" activeCell="C4" sqref="C4"/>
@@ -7202,307 +7217,307 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="98" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="52" t="s">
         <v>235</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:17" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="56" t="str">
-        <f>TRIM(C1)</f>
+      <c r="C2" s="55" t="str">
+        <f t="shared" ref="C2:J2" si="0">TRIM(C1)</f>
         <v>&lt;1</v>
       </c>
-      <c r="D2" s="56" t="str">
-        <f>TRIM(D1)</f>
+      <c r="D2" s="55" t="str">
+        <f t="shared" si="0"/>
         <v>1-9</v>
       </c>
-      <c r="E2" s="56" t="str">
-        <f>TRIM(E1)</f>
+      <c r="E2" s="55" t="str">
+        <f t="shared" si="0"/>
         <v>10-14</v>
       </c>
-      <c r="F2" s="56" t="str">
-        <f>TRIM(F1)</f>
+      <c r="F2" s="55" t="str">
+        <f t="shared" si="0"/>
         <v>15-19</v>
       </c>
-      <c r="G2" s="56" t="str">
-        <f>TRIM(G1)</f>
+      <c r="G2" s="55" t="str">
+        <f t="shared" si="0"/>
         <v>20-24</v>
       </c>
-      <c r="H2" s="56" t="str">
-        <f>TRIM(H1)</f>
+      <c r="H2" s="55" t="str">
+        <f t="shared" si="0"/>
         <v>25-29</v>
       </c>
-      <c r="I2" s="56" t="str">
-        <f>TRIM(I1)</f>
+      <c r="I2" s="55" t="str">
+        <f t="shared" si="0"/>
         <v>30-49</v>
       </c>
-      <c r="J2" s="56" t="str">
-        <f>TRIM(J1)</f>
+      <c r="J2" s="55" t="str">
+        <f t="shared" si="0"/>
         <v>50+</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
     </row>
     <row r="4" spans="1:17" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
     </row>
     <row r="5" spans="1:17" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
     </row>
     <row r="6" spans="1:17" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
     </row>
     <row r="7" spans="1:17" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
     </row>
     <row r="8" spans="1:17" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
     </row>
     <row r="9" spans="1:17" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:17" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
     </row>
     <row r="11" spans="1:17" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:17" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
     </row>
     <row r="13" spans="1:17" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
     </row>
     <row r="14" spans="1:17" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
     </row>
     <row r="15" spans="1:17" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:17" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
     </row>
     <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/template-reader/template-reader/staticdata/sampleTemplate.xlsx
+++ b/template-reader/template-reader/staticdata/sampleTemplate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" tabRatio="927" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" tabRatio="927" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover1" sheetId="20" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Clinical Care'!$A$1:$K$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">PMTCT!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Prevention - PWP'!$A$1:$D$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">'Prevention-MC'!$A$1:$J$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'Prevention-MC'!$A$1:$K$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">STI!$A$1:$K$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">TB!$A$1:$J$23</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">ART!$1:$1</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="392">
   <si>
     <t>Name of Health Facility</t>
   </si>
@@ -106,18 +106,6 @@
     <t>Total number of infants born to HIV positive women at this site this month</t>
   </si>
   <si>
-    <t>Number of MC clients counseled and tested for HIV at the MC site who received their test results</t>
-  </si>
-  <si>
-    <t>No. of MC clients with an unknown HIV status</t>
-  </si>
-  <si>
-    <t>Number of MC clients tested at MC site testing HIV-positive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of males circumcised as part of the minimum package of MC for HIV prevention services </t>
-  </si>
-  <si>
     <t>Number of males circumcised within the reporting period who return at least once for post-operative follow-up care (routine or emergent) within 48hours of surgery</t>
   </si>
   <si>
@@ -163,9 +151,6 @@
     <t>No. of pregnant women who have EVER received antiretroviral therapy (TOTAL CLIENTS)</t>
   </si>
   <si>
-    <t>1-9</t>
-  </si>
-  <si>
     <t>15-19</t>
   </si>
   <si>
@@ -301,18 +286,9 @@
     <t>MC4</t>
   </si>
   <si>
-    <t>MC5</t>
-  </si>
-  <si>
     <t>MC7</t>
   </si>
   <si>
-    <t>MC8</t>
-  </si>
-  <si>
-    <t>Number of males circumcised within the reporting period who return at least once for post-operative follow-up care (routine or emergent) within 14 days of surgery</t>
-  </si>
-  <si>
     <t>Number of TB patients refered for HIV care  services</t>
   </si>
   <si>
@@ -394,12 +370,6 @@
     <t>25 to 49</t>
   </si>
   <si>
-    <t xml:space="preserve"> Surgical intra-operative AE(s) by maximum severity category: Number of clients with one or more moderate surgical intra-operative AE(s), but no severe surgical intra-operative AE(s)</t>
-  </si>
-  <si>
-    <t>Surgical intra-operative AE(s) by maximum severity category: Number of clients with one or more severe surgical intra-operative AE(s)</t>
-  </si>
-  <si>
     <t>TB6</t>
   </si>
   <si>
@@ -541,12 +511,6 @@
     <t>Number of HEI who started cotrimoxazole prophylaxis (CTX) at 6 weeks</t>
   </si>
   <si>
-    <t>Number of MC clients tested at MC site testing HIV-positive, collected results and were refered for clinical care beyond MC</t>
-  </si>
-  <si>
-    <t>MC6</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Number of adults and children receiving antiretroviral therapy (ART) [current] </t>
   </si>
   <si>
@@ -560,34 +524,6 @@
   </si>
   <si>
     <t>Number of infants with a   positive virological test  within 12 months</t>
-  </si>
-  <si>
-    <t>Number of clients circumcised who experienced one or more MODERATE adverse events (surgical post-operative AE(s))</t>
-  </si>
-  <si>
-    <t>Number of clients circumcised who experienced one or more SEVERE adverse events (surgical post-operative AE(s))</t>
-  </si>
-  <si>
-    <r>
-      <t>Number of males circumcised within the reporting period who</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> DID NOT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> return at least once for post-operative follow-up care (routine or emergent) within 14 days of surgery</t>
-    </r>
   </si>
   <si>
     <t>Number of clients tested for HIV</t>
@@ -771,34 +707,10 @@
     <t>Total number of infants born at this site this month</t>
   </si>
   <si>
-    <t>Number of HIV-positive men circumcised (tested at MC site)</t>
-  </si>
-  <si>
-    <t>No. of MC clients with known HIV positive status</t>
-  </si>
-  <si>
     <t>Number of HIV-positive men circumcised (tested at MC site) who were referred for HIV care</t>
   </si>
   <si>
-    <t>MC11a</t>
-  </si>
-  <si>
-    <t>MC11b</t>
-  </si>
-  <si>
-    <t>MC11c</t>
-  </si>
-  <si>
-    <t>MC11d</t>
-  </si>
-  <si>
     <t>MC12</t>
-  </si>
-  <si>
-    <t>MC13</t>
-  </si>
-  <si>
-    <t>MC14</t>
   </si>
   <si>
     <t>FP1</t>
@@ -1317,12 +1229,123 @@
   <si>
     <t xml:space="preserve">Number of HIV-positive patients who were screened for TB in a  community setting this month </t>
   </si>
+  <si>
+    <t>&lt; 1</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>IndicatorCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> INDICATOR  </t>
+  </si>
+  <si>
+    <t>Total number of males circumcised as part of the minimum package of MC for HIV prevention services (MC1 = MC1a + MC1b)</t>
+  </si>
+  <si>
+    <t>MC1a</t>
+  </si>
+  <si>
+    <t>Number of males circumcised as part of the minimum package of MC for HIV prevention services (Static MC site)</t>
+  </si>
+  <si>
+    <t>MC1b</t>
+  </si>
+  <si>
+    <t>Number of males circumcised as part of the minimum package of MC for HIV prevention services (Mobile Site)</t>
+  </si>
+  <si>
+    <t>MC1c</t>
+  </si>
+  <si>
+    <t>Number circumcised by surgical technique (forceps guided, dorsal slit, sleeve resection)</t>
+  </si>
+  <si>
+    <t>Number of circumcised clients experiencing at least one moderate or severe adverse event (AE) during or following surgery, within the reporting period (MC2 = MC2a + MC2b)</t>
+  </si>
+  <si>
+    <t>MC2a</t>
+  </si>
+  <si>
+    <t>Number of VMMC clients with one or more moderate or severe surgical intra-operative AE(s)</t>
+  </si>
+  <si>
+    <t>MC2b</t>
+  </si>
+  <si>
+    <t>Number of VMMC clients with one or more moderate or severe surgical post-operative AE(s)</t>
+  </si>
+  <si>
+    <t>MC2c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of clients with one or more moderate surgical post-operative AE(s), but no severe surgical post-operative AE(s) </t>
+  </si>
+  <si>
+    <t>MC2d</t>
+  </si>
+  <si>
+    <t>Number of clients with one or more severe surgical intra-operative AE(s)</t>
+  </si>
+  <si>
+    <t>MC2e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of surgically circumcised clients who returned at least once for follow-up care within 14 days of their circumcision surgery </t>
+  </si>
+  <si>
+    <t>MC2f</t>
+  </si>
+  <si>
+    <t>Number of surgically circumcised clients who did NOT return for follow-up care within 14 days of their circumcision surgery</t>
+  </si>
+  <si>
+    <t>Number of MC clients pre-test counseled, tested and collected HIV test results at MC centers</t>
+  </si>
+  <si>
+    <t>MC3a</t>
+  </si>
+  <si>
+    <t>Number of HIV negative clients (tested HIV negative at VMMC site)</t>
+  </si>
+  <si>
+    <t>MC3b</t>
+  </si>
+  <si>
+    <t>Number of clients with undocumented/indeterminate HIV status or not tested for HIV at VMMC site.</t>
+  </si>
+  <si>
+    <t>Number of MC clients testing positive for HIV and collecting results at MC centers</t>
+  </si>
+  <si>
+    <t>MC4a</t>
+  </si>
+  <si>
+    <t>Number of MC clients testing positive for HIV, collecting results and referred for clinical care beyond MC</t>
+  </si>
+  <si>
+    <t>MC4b</t>
+  </si>
+  <si>
+    <t>Number of VMMC clients who reached the the referral service (ART, STI)</t>
+  </si>
+  <si>
+    <t>PMTCT18_a</t>
+  </si>
+  <si>
+    <t>PMTCT19_a</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1473,13 +1496,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1531,7 +1547,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1594,6 +1610,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2065,7 +2087,7 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2148,12 +2170,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2216,18 +2232,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2267,7 +2271,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2284,16 +2288,16 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2305,9 +2309,6 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2359,9 +2360,6 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2383,7 +2381,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2395,29 +2393,77 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="21" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -2429,63 +2475,63 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2495,13 +2541,13 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2523,15 +2569,15 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2541,10 +2587,10 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2559,27 +2605,27 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2627,43 +2673,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="21" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3198,328 +3207,328 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="117"/>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
+      <c r="A1" s="125"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="117"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="117"/>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="117"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="117"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
+      <c r="A5" s="125"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="117"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
+      <c r="A6" s="125"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="117"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
+      <c r="A7" s="125"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="118" t="s">
-        <v>166</v>
-      </c>
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
+      <c r="A8" s="126" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
     </row>
     <row r="9" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="119"/>
-      <c r="B9" s="119"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
+      <c r="A9" s="127"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="143" t="s">
+      <c r="A10" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="143"/>
-      <c r="C10" s="143"/>
-      <c r="D10" s="143"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
+      <c r="B10" s="151"/>
+      <c r="C10" s="151"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="151"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="120" t="s">
+      <c r="A11" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
     </row>
     <row r="12" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1</v>
       </c>
-      <c r="B12" s="153" t="s">
+      <c r="B12" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="154"/>
-      <c r="D12" s="127" t="s">
-        <v>286</v>
-      </c>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="129"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="135" t="s">
+        <v>263</v>
+      </c>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="137"/>
     </row>
     <row r="13" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>2</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C13" s="26"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="129"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="137"/>
     </row>
     <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>3</v>
       </c>
-      <c r="B14" s="146" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="147"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="128"/>
-      <c r="H14" s="129"/>
+      <c r="B14" s="154" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="155"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="137"/>
     </row>
     <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>4</v>
       </c>
-      <c r="B15" s="146" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" s="147"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="129"/>
+      <c r="B15" s="154" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="155"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="137"/>
     </row>
     <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>5</v>
       </c>
-      <c r="B16" s="146" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="147"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="129"/>
+      <c r="B16" s="154" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="155"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="137"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="141">
+      <c r="A17" s="149">
         <v>6</v>
       </c>
-      <c r="B17" s="155" t="s">
+      <c r="B17" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="156"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="132"/>
+      <c r="C17" s="164"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="140"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="142"/>
-      <c r="B18" s="157"/>
-      <c r="C18" s="158"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="135"/>
+      <c r="A18" s="150"/>
+      <c r="B18" s="165"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="143"/>
     </row>
     <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="102"/>
-      <c r="B19" s="103" t="s">
-        <v>284</v>
-      </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="162">
+      <c r="A19" s="94"/>
+      <c r="B19" s="95" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="96"/>
+      <c r="D19" s="170">
         <v>2016</v>
       </c>
-      <c r="E19" s="163"/>
-      <c r="F19" s="163"/>
-      <c r="G19" s="163"/>
-      <c r="H19" s="164"/>
+      <c r="E19" s="171"/>
+      <c r="F19" s="171"/>
+      <c r="G19" s="171"/>
+      <c r="H19" s="172"/>
     </row>
     <row r="20" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>7</v>
       </c>
-      <c r="B20" s="144" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="138" t="s">
-        <v>285</v>
-      </c>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="140"/>
+      <c r="B20" s="152" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="153"/>
+      <c r="D20" s="146" t="s">
+        <v>262</v>
+      </c>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="148"/>
     </row>
     <row r="21" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>8</v>
       </c>
-      <c r="B21" s="144" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="138"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="140"/>
+      <c r="B21" s="152" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="153"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="148"/>
     </row>
     <row r="22" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>9</v>
       </c>
-      <c r="B22" s="136" t="s">
-        <v>167</v>
-      </c>
-      <c r="C22" s="137"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="140"/>
+      <c r="B22" s="144" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="145"/>
+      <c r="D22" s="146"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="148"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="141">
+      <c r="A23" s="149">
         <v>10</v>
       </c>
-      <c r="B23" s="151" t="s">
-        <v>149</v>
-      </c>
-      <c r="C23" s="121">
+      <c r="B23" s="159" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="129">
         <v>988332299</v>
       </c>
-      <c r="D23" s="122"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="123"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="131"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="142"/>
-      <c r="B24" s="152"/>
-      <c r="C24" s="124"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="125"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="126"/>
+      <c r="A24" s="150"/>
+      <c r="B24" s="160"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="133"/>
+      <c r="H24" s="134"/>
     </row>
     <row r="25" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>11</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="C25" s="159"/>
-      <c r="D25" s="160"/>
-      <c r="E25" s="160"/>
-      <c r="F25" s="160"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="161"/>
+        <v>138</v>
+      </c>
+      <c r="C25" s="167"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="168"/>
+      <c r="F25" s="168"/>
+      <c r="G25" s="168"/>
+      <c r="H25" s="169"/>
     </row>
     <row r="26" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>12</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="148"/>
-      <c r="D26" s="149"/>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="150"/>
+        <v>79</v>
+      </c>
+      <c r="C26" s="156"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="157"/>
+      <c r="H26" s="158"/>
     </row>
     <row r="27" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
@@ -3528,12 +3537,12 @@
       <c r="B27" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="148"/>
-      <c r="D27" s="149"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="150"/>
+      <c r="C27" s="156"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="157"/>
+      <c r="H27" s="158"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
@@ -3603,146 +3612,146 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="63.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="58" customWidth="1"/>
-    <col min="2" max="2" width="72.28515625" style="55" customWidth="1"/>
-    <col min="3" max="9" width="12.5703125" style="55" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" style="55" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="55"/>
+    <col min="1" max="1" width="5.85546875" style="52" customWidth="1"/>
+    <col min="2" max="2" width="72.28515625" style="49" customWidth="1"/>
+    <col min="3" max="9" width="12.5703125" style="49" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="49" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
-        <v>289</v>
-      </c>
-      <c r="B1" s="105" t="s">
+      <c r="A1" s="97" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="97" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="49" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="C2" s="55" t="str">
+      <c r="A2" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="49" t="str">
         <f>TRIM(C1)</f>
         <v>&lt;1</v>
       </c>
-      <c r="D2" s="55" t="str">
+      <c r="D2" s="49" t="str">
         <f t="shared" ref="D2:K2" si="0">TRIM(D1)</f>
         <v>1-4</v>
       </c>
-      <c r="E2" s="55" t="str">
+      <c r="E2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>5-9</v>
       </c>
-      <c r="F2" s="55" t="str">
+      <c r="F2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>10-14</v>
       </c>
-      <c r="G2" s="55" t="str">
+      <c r="G2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>15-19</v>
       </c>
-      <c r="H2" s="55" t="str">
+      <c r="H2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>20-24</v>
       </c>
-      <c r="I2" s="55" t="str">
+      <c r="I2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>25-49</v>
       </c>
-      <c r="J2" s="55" t="str">
+      <c r="J2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>50+</v>
       </c>
-      <c r="K2" s="55" t="str">
+      <c r="K2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>Total</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="57" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="57" t="s">
-        <v>258</v>
+      <c r="B9" s="51" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="63.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -3775,7 +3784,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="59" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="53" customWidth="1"/>
     <col min="2" max="2" width="42.5703125" style="10" customWidth="1"/>
     <col min="3" max="3" width="6" style="10" customWidth="1"/>
     <col min="4" max="4" width="4.7109375" style="10" customWidth="1"/>
@@ -3789,243 +3798,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
-        <v>290</v>
-      </c>
-      <c r="B1" s="44" t="s">
+      <c r="A1" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="C2" s="55" t="str">
+      <c r="A2" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="49" t="str">
         <f t="shared" ref="C2:J2" si="0">TRIM(C1)</f>
         <v>&lt;1</v>
       </c>
-      <c r="D2" s="55" t="str">
+      <c r="D2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>1-4</v>
       </c>
-      <c r="E2" s="55" t="str">
+      <c r="E2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>5-9</v>
       </c>
-      <c r="F2" s="55" t="str">
+      <c r="F2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>10-14</v>
       </c>
-      <c r="G2" s="55" t="str">
+      <c r="G2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>15-19</v>
       </c>
-      <c r="H2" s="55" t="str">
+      <c r="H2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>20-24</v>
       </c>
-      <c r="I2" s="55" t="str">
+      <c r="I2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>25-49</v>
       </c>
-      <c r="J2" s="55" t="str">
+      <c r="J2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>50+</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="93" t="s">
-        <v>236</v>
+      <c r="A3" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="86" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="94" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="93" t="s">
-        <v>244</v>
+      <c r="A4" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="86" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="93" t="s">
-        <v>245</v>
+      <c r="A5" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="86" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="94" t="s">
-        <v>280</v>
-      </c>
-      <c r="B6" s="93" t="s">
-        <v>292</v>
+      <c r="A6" s="87" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="86" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="94" t="s">
-        <v>281</v>
-      </c>
-      <c r="B7" s="93" t="s">
-        <v>293</v>
+      <c r="A7" s="87" t="s">
+        <v>258</v>
+      </c>
+      <c r="B7" s="86" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="95" t="s">
-        <v>282</v>
-      </c>
-      <c r="B8" s="76" t="s">
-        <v>246</v>
+      <c r="A8" s="88" t="s">
+        <v>259</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="96" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" s="76" t="s">
-        <v>247</v>
+      <c r="A9" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
-        <v>237</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>294</v>
+      <c r="A10" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
-        <v>238</v>
-      </c>
-      <c r="B11" s="75" t="s">
-        <v>295</v>
+      <c r="A11" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="75" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="44" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="44" t="s">
-        <v>283</v>
-      </c>
-      <c r="B18" s="44" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" s="44" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="44" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="59" t="s">
-        <v>197</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="59" t="s">
-        <v>239</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4068,7 +4077,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>5</v>
@@ -4077,73 +4086,73 @@
         <v>8</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="55" t="str">
+        <v>145</v>
+      </c>
+      <c r="C2" s="49" t="str">
         <f t="shared" ref="C2:J2" si="0">TRIM(C1)</f>
         <v>&lt;1</v>
       </c>
-      <c r="D2" s="55" t="str">
+      <c r="D2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>1 – 4</v>
       </c>
-      <c r="E2" s="55" t="str">
+      <c r="E2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>5 to 9</v>
       </c>
-      <c r="F2" s="55" t="str">
+      <c r="F2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>10 to 14</v>
       </c>
-      <c r="G2" s="55" t="str">
+      <c r="G2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>15 to 19</v>
       </c>
-      <c r="H2" s="55" t="str">
+      <c r="H2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>20 to 24</v>
       </c>
-      <c r="I2" s="55" t="str">
+      <c r="I2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>25 to 49</v>
       </c>
-      <c r="J2" s="55" t="str">
+      <c r="J2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>50+</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -4156,10 +4165,10 @@
     </row>
     <row r="4" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
@@ -4172,10 +4181,10 @@
     </row>
     <row r="5" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
@@ -4188,10 +4197,10 @@
     </row>
     <row r="6" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -4204,10 +4213,10 @@
     </row>
     <row r="7" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -4219,11 +4228,11 @@
       <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
-        <v>190</v>
+      <c r="A8" s="30" t="s">
+        <v>175</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
@@ -4237,10 +4246,10 @@
     </row>
     <row r="9" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -4253,154 +4262,154 @@
     </row>
     <row r="10" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
+        <v>124</v>
+      </c>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
       <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
+        <v>14</v>
+      </c>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
       <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="B12" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
+        <v>179</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
       <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
+        <v>16</v>
+      </c>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
       <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
+        <v>164</v>
+      </c>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="116"/>
+        <v>77</v>
+      </c>
+      <c r="B15" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
       <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="B16" s="74" t="s">
-        <v>250</v>
-      </c>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
+        <v>226</v>
+      </c>
+      <c r="B16" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
       <c r="J16" s="16"/>
     </row>
     <row r="17" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C17" s="116"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="116"/>
+        <v>276</v>
+      </c>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
       <c r="J17" s="16"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C18" s="116"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
+        <v>172</v>
+      </c>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="108"/>
       <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -4422,17 +4431,17 @@
   </sheetPr>
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="91" zoomScaleNormal="75" zoomScaleSheetLayoutView="91" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="91" zoomScaleNormal="75" zoomScaleSheetLayoutView="91" workbookViewId="0">
+      <pane xSplit="9" ySplit="1" topLeftCell="J14" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C4" sqref="C4"/>
       <selection pane="topRight" activeCell="C4" sqref="C4"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:I2"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" style="59" customWidth="1"/>
+    <col min="1" max="1" width="17" style="53" customWidth="1"/>
     <col min="2" max="2" width="68" style="10" customWidth="1"/>
     <col min="3" max="4" width="11.5703125" style="10" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" style="10" customWidth="1"/>
@@ -4442,839 +4451,839 @@
     <col min="10" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="60" customFormat="1" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="54" customFormat="1" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="64" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="65" t="s">
+      <c r="C1" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="59" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="C2" s="55" t="str">
+        <v>279</v>
+      </c>
+      <c r="C2" s="49" t="str">
         <f t="shared" ref="C2:I2" si="0">TRIM(C1)</f>
         <v>&lt;10</v>
       </c>
-      <c r="D2" s="55" t="str">
+      <c r="D2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>10-14</v>
       </c>
-      <c r="E2" s="55" t="str">
+      <c r="E2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>15-19</v>
       </c>
-      <c r="F2" s="55" t="str">
+      <c r="F2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>20-24</v>
       </c>
-      <c r="G2" s="55" t="str">
+      <c r="G2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>25-49</v>
       </c>
-      <c r="H2" s="55" t="str">
+      <c r="H2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>50+</v>
       </c>
-      <c r="I2" s="55" t="str">
+      <c r="I2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>Total</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="78">
+        <v>19</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="72">
         <f>SUM(C3:H3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="78">
+        <v>143</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="72">
         <f>SUM(C4:H4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="78">
+        <v>17</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="72">
         <f>SUM(C5:H5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="78">
+        <v>49</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="72">
         <f>SUM(C6:H6)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="78">
+        <v>89</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="72">
         <f t="shared" ref="I7:I13" si="1">SUM(C7:H7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="78">
+        <v>50</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="78">
+        <v>219</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="97" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="78">
+        <v>53</v>
+      </c>
+      <c r="B10" s="90" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="72">
         <f>SUM(C10:H10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="69" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="78">
+        <v>87</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="72">
         <f>SUM(C11:H11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="78">
+        <v>86</v>
+      </c>
+      <c r="C12" s="55"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="72">
         <f>SUM(C12:H12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="78">
+        <v>186</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="79"/>
+        <v>187</v>
+      </c>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="73"/>
     </row>
     <row r="15" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="79"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="73"/>
     </row>
     <row r="16" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="79"/>
+        <v>280</v>
+      </c>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="73"/>
     </row>
     <row r="17" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="79"/>
+        <v>144</v>
+      </c>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="73"/>
     </row>
     <row r="18" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>60</v>
+        <v>390</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="79"/>
+        <v>148</v>
+      </c>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="73"/>
     </row>
     <row r="19" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
-        <v>61</v>
+        <v>391</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="79"/>
+        <v>20</v>
+      </c>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="73"/>
     </row>
     <row r="20" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="79"/>
+        <v>21</v>
+      </c>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="73"/>
     </row>
     <row r="21" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="79"/>
+      <c r="A21" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="73"/>
     </row>
     <row r="22" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="79"/>
+      <c r="A22" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="73"/>
     </row>
     <row r="23" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="89" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="99" t="s">
-        <v>233</v>
-      </c>
-      <c r="C23" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="D23" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="E23" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="F23" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="G23" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="H23" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="I23" s="79">
+      <c r="A23" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="91" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="E23" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="F23" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="G23" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="H23" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="I23" s="73">
         <f>I22+10</f>
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="89" t="s">
-        <v>260</v>
-      </c>
-      <c r="B24" s="99" t="s">
-        <v>261</v>
-      </c>
-      <c r="C24" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="D24" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="E24" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="F24" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="G24" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="H24" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="I24" s="79">
+      <c r="A24" s="82" t="s">
+        <v>237</v>
+      </c>
+      <c r="B24" s="91" t="s">
+        <v>238</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="E24" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="F24" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="G24" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="H24" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="I24" s="73">
         <f>I23+10</f>
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="89" t="s">
-        <v>262</v>
-      </c>
-      <c r="B25" s="99" t="s">
-        <v>263</v>
-      </c>
-      <c r="C25" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="D25" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="E25" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="F25" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="G25" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="H25" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="I25" s="79">
+      <c r="A25" s="82" t="s">
+        <v>239</v>
+      </c>
+      <c r="B25" s="91" t="s">
+        <v>240</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="E25" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="F25" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="G25" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="H25" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="I25" s="73">
         <f t="shared" ref="I25:I31" si="2">I24+10</f>
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="89" t="s">
-        <v>264</v>
-      </c>
-      <c r="B26" s="99" t="s">
-        <v>265</v>
-      </c>
-      <c r="C26" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="D26" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="E26" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="F26" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="G26" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="H26" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="I26" s="79">
+      <c r="A26" s="82" t="s">
+        <v>241</v>
+      </c>
+      <c r="B26" s="91" t="s">
+        <v>242</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="E26" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="F26" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="G26" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="H26" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="I26" s="73">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="89" t="s">
-        <v>266</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="C27" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="D27" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="E27" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="F27" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="G27" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="H27" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="I27" s="79">
+      <c r="A27" s="82" t="s">
+        <v>243</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="E27" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="F27" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="G27" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="H27" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="I27" s="73">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="100" t="s">
-        <v>304</v>
-      </c>
-      <c r="C28" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="D28" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="E28" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="F28" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="G28" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="H28" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="I28" s="79">
+      <c r="A28" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="92" t="s">
+        <v>281</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="E28" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="F28" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="G28" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="H28" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="I28" s="73">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="89" t="s">
-        <v>268</v>
-      </c>
-      <c r="B29" s="100" t="s">
-        <v>269</v>
-      </c>
-      <c r="C29" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="D29" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="E29" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="F29" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="G29" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="H29" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="I29" s="79">
+      <c r="A29" s="82" t="s">
+        <v>245</v>
+      </c>
+      <c r="B29" s="92" t="s">
+        <v>246</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="E29" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="F29" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="G29" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="H29" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="I29" s="73">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="89" t="s">
-        <v>270</v>
-      </c>
-      <c r="B30" s="100" t="s">
-        <v>271</v>
-      </c>
-      <c r="C30" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="D30" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="E30" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="F30" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="G30" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="H30" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="I30" s="79">
+      <c r="A30" s="82" t="s">
+        <v>247</v>
+      </c>
+      <c r="B30" s="92" t="s">
+        <v>248</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="D30" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="E30" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="F30" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="G30" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="H30" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="I30" s="73">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="89" t="s">
-        <v>272</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="C31" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="D31" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="E31" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="F31" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="G31" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="H31" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="I31" s="79">
+      <c r="A31" s="82" t="s">
+        <v>249</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="D31" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="E31" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="F31" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="G31" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="H31" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="I31" s="73">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="89" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="101" t="s">
-        <v>180</v>
-      </c>
-      <c r="C32" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="D32" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="E32" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="F32" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="G32" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="H32" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="I32" s="78">
+      <c r="A32" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="93" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="D32" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="E32" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="F32" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="G32" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="H32" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="I32" s="72">
         <f>SUM(I33:I35)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="89" t="s">
-        <v>274</v>
-      </c>
-      <c r="B33" s="101" t="s">
-        <v>275</v>
-      </c>
-      <c r="C33" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="D33" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="E33" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="F33" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="G33" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="H33" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="I33" s="79">
+      <c r="A33" s="82" t="s">
+        <v>251</v>
+      </c>
+      <c r="B33" s="93" t="s">
+        <v>252</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="D33" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="E33" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="F33" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="G33" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="H33" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="I33" s="73">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="89" t="s">
-        <v>276</v>
-      </c>
-      <c r="B34" s="101" t="s">
-        <v>277</v>
-      </c>
-      <c r="C34" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="D34" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="E34" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="F34" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="G34" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="H34" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="I34" s="79">
+      <c r="A34" s="82" t="s">
+        <v>253</v>
+      </c>
+      <c r="B34" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="C34" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="D34" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="E34" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="F34" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="G34" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="H34" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="I34" s="73">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="C35" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="D35" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="E35" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="F35" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="G35" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="H35" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="I35" s="79">
+        <v>255</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="C35" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="D35" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="E35" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="F35" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="G35" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="H35" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="I35" s="73">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="79">
+        <v>84</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="73">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>306</v>
-      </c>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="79">
+        <v>166</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="73">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="59" t="s">
-        <v>182</v>
+      <c r="A38" s="53" t="s">
+        <v>167</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="79">
+        <v>284</v>
+      </c>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="73">
         <v>0</v>
       </c>
     </row>
@@ -5304,568 +5313,568 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="33" customWidth="1"/>
-    <col min="2" max="2" width="58" style="33" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="31" customWidth="1"/>
+    <col min="2" max="2" width="58" style="31" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
-        <v>290</v>
-      </c>
-      <c r="B1" s="34" t="s">
+      <c r="A1" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="D1" s="64" t="s">
-        <v>287</v>
-      </c>
-      <c r="E1" s="64" t="s">
-        <v>288</v>
-      </c>
-      <c r="F1" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="64" t="s">
+      <c r="C1" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="89" t="s">
-        <v>213</v>
-      </c>
-      <c r="B2" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="C2" s="55" t="str">
+      <c r="A2" s="82" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="98" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="49" t="str">
         <f>TRIM(C1)</f>
         <v>&lt;20</v>
       </c>
-      <c r="D2" s="55" t="str">
+      <c r="D2" s="49" t="str">
         <f>TRIM(D1)</f>
         <v>20- 24</v>
       </c>
-      <c r="E2" s="55" t="str">
+      <c r="E2" s="49" t="str">
         <f>TRIM(E1)</f>
         <v>25- 49</v>
       </c>
-      <c r="F2" s="55" t="str">
+      <c r="F2" s="49" t="str">
         <f>TRIM(F1)</f>
         <v>50+</v>
       </c>
-      <c r="G2" s="55" t="str">
+      <c r="G2" s="49" t="str">
         <f>TRIM(G1)</f>
         <v>Total</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="82" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" s="99" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" s="173"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="82" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" s="99" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4" s="173"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="82" t="s">
+        <v>289</v>
+      </c>
+      <c r="B5" s="99" t="s">
+        <v>290</v>
+      </c>
+      <c r="C5" s="74"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="82" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" s="99" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="74"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="82" t="s">
+        <v>293</v>
+      </c>
+      <c r="B7" s="99" t="s">
+        <v>294</v>
+      </c>
+      <c r="C7" s="74"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="82" t="s">
+        <v>295</v>
+      </c>
+      <c r="B8" s="99" t="s">
+        <v>296</v>
+      </c>
+      <c r="C8" s="84"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+    </row>
+    <row r="9" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="82" t="s">
+        <v>297</v>
+      </c>
+      <c r="B9" s="99" t="s">
+        <v>298</v>
+      </c>
+      <c r="C9" s="84"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="82" t="s">
+        <v>299</v>
+      </c>
+      <c r="B10" s="99" t="s">
+        <v>300</v>
+      </c>
+      <c r="C10" s="74"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="82" t="s">
+        <v>301</v>
+      </c>
+      <c r="B11" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="C11" s="74"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="82" t="s">
+        <v>303</v>
+      </c>
+      <c r="B12" s="99" t="s">
+        <v>304</v>
+      </c>
+      <c r="C12" s="74"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="82" t="s">
+        <v>305</v>
+      </c>
+      <c r="B13" s="99" t="s">
+        <v>306</v>
+      </c>
+      <c r="C13" s="74"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+    </row>
+    <row r="14" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="82" t="s">
+        <v>307</v>
+      </c>
+      <c r="B14" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="C14" s="182"/>
+      <c r="D14" s="183"/>
+      <c r="E14" s="183"/>
+      <c r="F14" s="183"/>
+      <c r="G14" s="183"/>
+    </row>
+    <row r="15" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="98" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="74"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="185"/>
+      <c r="G15" s="77"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="100" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="165"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="89" t="s">
+      <c r="B16" s="101" t="s">
         <v>310</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="C16" s="74"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="184"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="77"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="100" t="s">
         <v>311</v>
       </c>
-      <c r="C4" s="165"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="89" t="s">
+      <c r="B17" s="101" t="s">
         <v>312</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="C17" s="74"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="184"/>
+      <c r="F17" s="185"/>
+      <c r="G17" s="77"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="100" t="s">
         <v>313</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="89" t="s">
+      <c r="B18" s="101" t="s">
         <v>314</v>
       </c>
-      <c r="B6" s="107" t="s">
+      <c r="C18" s="74"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="184"/>
+      <c r="F18" s="185"/>
+      <c r="G18" s="77"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="100" t="s">
         <v>315</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="89" t="s">
+      <c r="B19" s="101" t="s">
         <v>316</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="C19" s="74"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="185"/>
+      <c r="G19" s="77"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="100" t="s">
         <v>317</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="89" t="s">
+      <c r="B20" s="101" t="s">
         <v>318</v>
       </c>
-      <c r="B8" s="107" t="s">
+      <c r="C20" s="74"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="184"/>
+      <c r="F20" s="185"/>
+      <c r="G20" s="77"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="100" t="s">
         <v>319</v>
       </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-    </row>
-    <row r="9" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="89" t="s">
+      <c r="B21" s="101" t="s">
         <v>320</v>
       </c>
-      <c r="B9" s="107" t="s">
+      <c r="C21" s="74"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="184"/>
+      <c r="F21" s="185"/>
+      <c r="G21" s="77"/>
+    </row>
+    <row r="22" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="100" t="s">
         <v>321</v>
       </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="89" t="s">
+      <c r="B22" s="101" t="s">
         <v>322</v>
       </c>
-      <c r="B10" s="107" t="s">
+      <c r="C22" s="74"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="186"/>
+      <c r="F22" s="187"/>
+      <c r="G22" s="78"/>
+    </row>
+    <row r="23" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="100" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="89" t="s">
+      <c r="B23" s="101" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="107" t="s">
+      <c r="C23" s="79"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="181"/>
+      <c r="G23" s="81"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="100" t="s">
         <v>325</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="89" t="s">
+      <c r="B24" s="101" t="s">
         <v>326</v>
       </c>
-      <c r="B12" s="107" t="s">
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="100" t="s">
         <v>327</v>
       </c>
-      <c r="C12" s="81"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="89" t="s">
+      <c r="B25" s="101" t="s">
         <v>328</v>
       </c>
-      <c r="B13" s="107" t="s">
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="76"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="100" t="s">
         <v>329</v>
       </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-    </row>
-    <row r="14" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="89" t="s">
+      <c r="B26" s="101" t="s">
         <v>330</v>
       </c>
-      <c r="B14" s="107" t="s">
+      <c r="C26" s="173"/>
+      <c r="D26" s="174"/>
+      <c r="E26" s="174"/>
+      <c r="F26" s="174"/>
+      <c r="G26" s="174"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="100" t="s">
         <v>331</v>
       </c>
-      <c r="C14" s="174"/>
-      <c r="D14" s="175"/>
-      <c r="E14" s="175"/>
-      <c r="F14" s="175"/>
-      <c r="G14" s="175"/>
-    </row>
-    <row r="15" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="108" t="s">
-        <v>215</v>
-      </c>
-      <c r="B15" s="106" t="s">
-        <v>216</v>
-      </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="176"/>
-      <c r="F15" s="177"/>
-      <c r="G15" s="84"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="108" t="s">
+      <c r="B27" s="101" t="s">
         <v>332</v>
       </c>
-      <c r="B16" s="109" t="s">
+      <c r="C27" s="173"/>
+      <c r="D27" s="174"/>
+      <c r="E27" s="174"/>
+      <c r="F27" s="174"/>
+      <c r="G27" s="174"/>
+    </row>
+    <row r="28" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="102" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" s="98" t="s">
+        <v>195</v>
+      </c>
+      <c r="C28" s="74"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+    </row>
+    <row r="29" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29" s="103" t="s">
         <v>333</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="176"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="84"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="108" t="s">
+      <c r="C29" s="74"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+    </row>
+    <row r="30" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="104" t="s">
+        <v>198</v>
+      </c>
+      <c r="B30" s="98" t="s">
+        <v>197</v>
+      </c>
+      <c r="C30" s="74"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+    </row>
+    <row r="31" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="82" t="s">
+        <v>200</v>
+      </c>
+      <c r="B31" s="98" t="s">
+        <v>206</v>
+      </c>
+      <c r="C31" s="84"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="82" t="s">
         <v>334</v>
       </c>
-      <c r="B17" s="109" t="s">
+      <c r="B32" s="105" t="s">
         <v>335</v>
       </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="176"/>
-      <c r="F17" s="177"/>
-      <c r="G17" s="84"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="108" t="s">
+      <c r="C32" s="74"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="82" t="s">
         <v>336</v>
       </c>
-      <c r="B18" s="109" t="s">
+      <c r="B33" s="105" t="s">
         <v>337</v>
       </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="176"/>
-      <c r="F18" s="177"/>
-      <c r="G18" s="84"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="108" t="s">
+      <c r="C33" s="74"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="82" t="s">
         <v>338</v>
       </c>
-      <c r="B19" s="109" t="s">
+      <c r="B34" s="105" t="s">
         <v>339</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="176"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="84"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="108" t="s">
+      <c r="C34" s="74"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="82" t="s">
         <v>340</v>
       </c>
-      <c r="B20" s="109" t="s">
+      <c r="B35" s="105" t="s">
         <v>341</v>
       </c>
-      <c r="C20" s="81"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="176"/>
-      <c r="F20" s="177"/>
-      <c r="G20" s="84"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="108" t="s">
+      <c r="C35" s="74"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="82" t="s">
         <v>342</v>
       </c>
-      <c r="B21" s="109" t="s">
+      <c r="B36" s="105" t="s">
         <v>343</v>
       </c>
-      <c r="C21" s="81"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="176"/>
-      <c r="F21" s="177"/>
-      <c r="G21" s="84"/>
-    </row>
-    <row r="22" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="108" t="s">
+      <c r="C36" s="74"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+    </row>
+    <row r="37" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="102" t="s">
+        <v>204</v>
+      </c>
+      <c r="B37" s="106" t="s">
+        <v>199</v>
+      </c>
+      <c r="C37" s="175"/>
+      <c r="D37" s="176"/>
+      <c r="E37" s="176"/>
+      <c r="F37" s="176"/>
+      <c r="G37" s="176"/>
+    </row>
+    <row r="38" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="102" t="s">
+        <v>207</v>
+      </c>
+      <c r="B38" s="106" t="s">
+        <v>201</v>
+      </c>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+    </row>
+    <row r="39" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="102" t="s">
+        <v>208</v>
+      </c>
+      <c r="B39" s="106" t="s">
+        <v>202</v>
+      </c>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="76"/>
+    </row>
+    <row r="40" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="102" t="s">
+        <v>209</v>
+      </c>
+      <c r="B40" s="106" t="s">
+        <v>203</v>
+      </c>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="76"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="102" t="s">
         <v>344</v>
       </c>
-      <c r="B22" s="109" t="s">
-        <v>345</v>
-      </c>
-      <c r="C22" s="81"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="85"/>
-    </row>
-    <row r="23" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="108" t="s">
-        <v>346</v>
-      </c>
-      <c r="B23" s="109" t="s">
-        <v>347</v>
-      </c>
-      <c r="C23" s="86"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="173"/>
-      <c r="G23" s="88"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="108" t="s">
-        <v>348</v>
-      </c>
-      <c r="B24" s="109" t="s">
-        <v>349</v>
-      </c>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-    </row>
-    <row r="25" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="108" t="s">
-        <v>350</v>
-      </c>
-      <c r="B25" s="109" t="s">
-        <v>351</v>
-      </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="83"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="108" t="s">
-        <v>352</v>
-      </c>
-      <c r="B26" s="109" t="s">
-        <v>353</v>
-      </c>
-      <c r="C26" s="165"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="166"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="108" t="s">
-        <v>354</v>
-      </c>
-      <c r="B27" s="109" t="s">
-        <v>355</v>
-      </c>
-      <c r="C27" s="165"/>
-      <c r="D27" s="166"/>
-      <c r="E27" s="166"/>
-      <c r="F27" s="166"/>
-      <c r="G27" s="166"/>
-    </row>
-    <row r="28" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="110" t="s">
-        <v>217</v>
-      </c>
-      <c r="B28" s="106" t="s">
-        <v>218</v>
-      </c>
-      <c r="C28" s="81"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-    </row>
-    <row r="29" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="110" t="s">
-        <v>219</v>
-      </c>
-      <c r="B29" s="111" t="s">
-        <v>356</v>
-      </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-    </row>
-    <row r="30" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="112" t="s">
-        <v>221</v>
-      </c>
-      <c r="B30" s="106" t="s">
-        <v>220</v>
-      </c>
-      <c r="C30" s="81"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-    </row>
-    <row r="31" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="89" t="s">
-        <v>223</v>
-      </c>
-      <c r="B31" s="106" t="s">
-        <v>229</v>
-      </c>
-      <c r="C31" s="91"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="89" t="s">
-        <v>357</v>
-      </c>
-      <c r="B32" s="113" t="s">
-        <v>358</v>
-      </c>
-      <c r="C32" s="81"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="89" t="s">
-        <v>359</v>
-      </c>
-      <c r="B33" s="113" t="s">
-        <v>360</v>
-      </c>
-      <c r="C33" s="81"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="82"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="89" t="s">
-        <v>361</v>
-      </c>
-      <c r="B34" s="113" t="s">
-        <v>362</v>
-      </c>
-      <c r="C34" s="81"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="89" t="s">
-        <v>363</v>
-      </c>
-      <c r="B35" s="113" t="s">
-        <v>364</v>
-      </c>
-      <c r="C35" s="81"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="89" t="s">
-        <v>365</v>
-      </c>
-      <c r="B36" s="113" t="s">
-        <v>366</v>
-      </c>
-      <c r="C36" s="81"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-    </row>
-    <row r="37" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="110" t="s">
-        <v>227</v>
-      </c>
-      <c r="B37" s="114" t="s">
-        <v>222</v>
-      </c>
-      <c r="C37" s="167"/>
-      <c r="D37" s="168"/>
-      <c r="E37" s="168"/>
-      <c r="F37" s="168"/>
-      <c r="G37" s="168"/>
-    </row>
-    <row r="38" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="110" t="s">
-        <v>230</v>
-      </c>
-      <c r="B38" s="114" t="s">
-        <v>224</v>
-      </c>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
-    </row>
-    <row r="39" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="110" t="s">
-        <v>231</v>
-      </c>
-      <c r="B39" s="114" t="s">
-        <v>225</v>
-      </c>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="83"/>
-    </row>
-    <row r="40" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="110" t="s">
-        <v>232</v>
-      </c>
-      <c r="B40" s="114" t="s">
-        <v>226</v>
-      </c>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="83"/>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="110" t="s">
-        <v>367</v>
-      </c>
-      <c r="B41" s="115" t="s">
-        <v>228</v>
-      </c>
-      <c r="C41" s="169"/>
-      <c r="D41" s="170"/>
-      <c r="E41" s="170"/>
-      <c r="F41" s="171"/>
-      <c r="G41" s="90"/>
+      <c r="B41" s="107" t="s">
+        <v>205</v>
+      </c>
+      <c r="C41" s="177"/>
+      <c r="D41" s="178"/>
+      <c r="E41" s="178"/>
+      <c r="F41" s="179"/>
+      <c r="G41" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -5900,12 +5909,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A11" sqref="A11:H12"/>
       <selection pane="topRight" activeCell="A11" sqref="A11:H12"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11:H12"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5917,67 +5926,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="180" t="s">
-        <v>290</v>
-      </c>
-      <c r="B1" s="180" t="s">
-        <v>368</v>
-      </c>
-      <c r="C1" s="181" t="s">
-        <v>177</v>
-      </c>
-      <c r="D1" s="182" t="s">
+      <c r="A1" s="109" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="109" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1" s="110" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="111" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="183" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="183" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="184" t="str">
+      <c r="A2" s="112" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="112" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="113" t="str">
         <f>TRIM(C1)</f>
         <v>&lt;15</v>
       </c>
-      <c r="D2" s="184" t="str">
+      <c r="D2" s="113" t="str">
         <f>TRIM(D1)</f>
         <v>15+</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="183" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" s="183" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="185"/>
-      <c r="D3" s="186"/>
+      <c r="A3" s="112" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="112" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="114"/>
+      <c r="D3" s="115"/>
     </row>
     <row r="4" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="187" t="s">
-        <v>172</v>
-      </c>
-      <c r="B4" s="188" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
+      <c r="A4" s="116" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="117" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
     </row>
     <row r="5" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="187" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5" s="188" t="s">
-        <v>169</v>
-      </c>
-      <c r="C5" s="190"/>
-      <c r="D5" s="190"/>
+      <c r="A5" s="116" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="117" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="67"/>
+      <c r="C7" s="61"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -6013,1166 +6022,1166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="C1" s="35" t="s">
+      <c r="A1" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="36" t="s">
+      <c r="D1" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="41" customFormat="1" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>370</v>
-      </c>
-      <c r="C2" s="55" t="str">
+    <row r="2" spans="1:11" s="39" customFormat="1" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" s="49" t="str">
         <f t="shared" ref="C2:K2" si="0">TRIM(C1)</f>
         <v>&lt;1</v>
       </c>
-      <c r="D2" s="55" t="str">
+      <c r="D2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>1 to 4</v>
       </c>
-      <c r="E2" s="55" t="str">
+      <c r="E2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>5 to 9</v>
       </c>
-      <c r="F2" s="55" t="str">
+      <c r="F2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>10 to 14</v>
       </c>
-      <c r="G2" s="55" t="str">
+      <c r="G2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>15 to 19</v>
       </c>
-      <c r="H2" s="55" t="str">
+      <c r="H2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>20 to 24</v>
       </c>
-      <c r="I2" s="55" t="str">
+      <c r="I2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>25 to 49</v>
       </c>
-      <c r="J2" s="55" t="str">
+      <c r="J2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>50+</v>
       </c>
-      <c r="K2" s="55" t="str">
+      <c r="K2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>Total</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="37"/>
+    </row>
+    <row r="4" spans="1:11" s="39" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="41"/>
+    </row>
+    <row r="5" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+    </row>
+    <row r="6" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="37"/>
+    </row>
+    <row r="7" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+    </row>
+    <row r="8" spans="1:11" s="43" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+    </row>
+    <row r="9" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>351</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+    </row>
+    <row r="10" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+    </row>
+    <row r="11" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+    </row>
+    <row r="12" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+    </row>
+    <row r="13" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+    </row>
+    <row r="14" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+    </row>
+    <row r="15" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+    </row>
+    <row r="16" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+    </row>
+    <row r="17" spans="1:10" s="66" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39"/>
-    </row>
-    <row r="4" spans="1:11" s="41" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="43"/>
-    </row>
-    <row r="5" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-    </row>
-    <row r="6" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
-        <v>372</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>373</v>
-      </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="39"/>
-    </row>
-    <row r="7" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-    </row>
-    <row r="8" spans="1:11" s="45" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-    </row>
-    <row r="9" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>374</v>
-      </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-    </row>
-    <row r="10" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-    </row>
-    <row r="11" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-    </row>
-    <row r="12" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-    </row>
-    <row r="13" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-    </row>
-    <row r="14" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-    </row>
-    <row r="15" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="69" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15" s="70" t="s">
-        <v>375</v>
-      </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="69" t="s">
-        <v>198</v>
-      </c>
-      <c r="B16" s="70" t="s">
-        <v>376</v>
-      </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" s="72" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>377</v>
-      </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-    </row>
-    <row r="18" spans="1:10" s="72" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
-        <v>70</v>
+      <c r="B17" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+    </row>
+    <row r="18" spans="1:10" s="66" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="47" t="s">
+        <v>65</v>
       </c>
       <c r="B18" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+    </row>
+    <row r="19" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-    </row>
-    <row r="19" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-    </row>
-    <row r="20" spans="1:10" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
-        <v>147</v>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+    </row>
+    <row r="20" spans="1:10" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="47" t="s">
+        <v>137</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="21"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="21"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="21"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="21"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="21"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="21"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="21"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="21"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="21"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="21"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="21"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="21"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="21"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="21"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="21"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="21"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="21"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="21"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
+      <c r="A39" s="47"/>
       <c r="B39" s="21"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
+      <c r="A40" s="47"/>
       <c r="B40" s="21"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
+      <c r="A41" s="47"/>
       <c r="B41" s="21"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
+      <c r="A42" s="47"/>
       <c r="B42" s="21"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="21"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
+      <c r="A44" s="47"/>
       <c r="B44" s="21"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
+      <c r="A45" s="47"/>
       <c r="B45" s="21"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
+      <c r="A46" s="47"/>
       <c r="B46" s="21"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
+      <c r="A47" s="47"/>
       <c r="B47" s="21"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="49"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="21"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="49"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
+      <c r="A49" s="47"/>
       <c r="B49" s="21"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="49"/>
+      <c r="A50" s="47"/>
       <c r="B50" s="21"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
+      <c r="A51" s="47"/>
       <c r="B51" s="21"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="21"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="49"/>
+      <c r="A53" s="47"/>
       <c r="B53" s="21"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="49"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
+      <c r="A54" s="47"/>
       <c r="B54" s="21"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="49"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="49"/>
+      <c r="A55" s="47"/>
       <c r="B55" s="21"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="49"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="47"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="49"/>
+      <c r="A56" s="47"/>
       <c r="B56" s="21"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="49"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="49"/>
+      <c r="A57" s="47"/>
       <c r="B57" s="21"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="49"/>
-      <c r="J57" s="49"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
+      <c r="A58" s="47"/>
       <c r="B58" s="21"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="49"/>
-      <c r="J58" s="49"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="47"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
+      <c r="A59" s="47"/>
       <c r="B59" s="21"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="49"/>
-      <c r="J59" s="49"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="47"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
+      <c r="A60" s="47"/>
       <c r="B60" s="21"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="49"/>
-      <c r="J60" s="49"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="47"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="49"/>
+      <c r="A61" s="47"/>
       <c r="B61" s="21"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="49"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="47"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="49"/>
+      <c r="A62" s="47"/>
       <c r="B62" s="21"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="49"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="47"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="49"/>
+      <c r="A63" s="47"/>
       <c r="B63" s="21"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="49"/>
-      <c r="I63" s="49"/>
-      <c r="J63" s="49"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="47"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="49"/>
+      <c r="A64" s="47"/>
       <c r="B64" s="21"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="49"/>
-      <c r="I64" s="49"/>
-      <c r="J64" s="49"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="47"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="47"/>
+      <c r="J64" s="47"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="49"/>
+      <c r="A65" s="47"/>
       <c r="B65" s="21"/>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="49"/>
-      <c r="J65" s="49"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="47"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="47"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="49"/>
+      <c r="A66" s="47"/>
       <c r="B66" s="21"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="49"/>
-      <c r="H66" s="49"/>
-      <c r="I66" s="49"/>
-      <c r="J66" s="49"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="47"/>
+      <c r="J66" s="47"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="49"/>
+      <c r="A67" s="47"/>
       <c r="B67" s="21"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="49"/>
-      <c r="F67" s="49"/>
-      <c r="G67" s="49"/>
-      <c r="H67" s="49"/>
-      <c r="I67" s="49"/>
-      <c r="J67" s="49"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="47"/>
+      <c r="I67" s="47"/>
+      <c r="J67" s="47"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="49"/>
+      <c r="A68" s="47"/>
       <c r="B68" s="21"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="49"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="49"/>
-      <c r="J68" s="49"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="47"/>
+      <c r="J68" s="47"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="49"/>
+      <c r="A69" s="47"/>
       <c r="B69" s="21"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
-      <c r="I69" s="49"/>
-      <c r="J69" s="49"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="47"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="49"/>
+      <c r="A70" s="47"/>
       <c r="B70" s="21"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="49"/>
-      <c r="I70" s="49"/>
-      <c r="J70" s="49"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="47"/>
+      <c r="E70" s="47"/>
+      <c r="F70" s="47"/>
+      <c r="G70" s="47"/>
+      <c r="H70" s="47"/>
+      <c r="I70" s="47"/>
+      <c r="J70" s="47"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="49"/>
+      <c r="A71" s="47"/>
       <c r="B71" s="21"/>
-      <c r="C71" s="49"/>
-      <c r="D71" s="49"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="49"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="49"/>
-      <c r="J71" s="49"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="47"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="49"/>
+      <c r="A72" s="47"/>
       <c r="B72" s="21"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="49"/>
-      <c r="E72" s="49"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="49"/>
-      <c r="H72" s="49"/>
-      <c r="I72" s="49"/>
-      <c r="J72" s="49"/>
+      <c r="C72" s="47"/>
+      <c r="D72" s="47"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="47"/>
+      <c r="G72" s="47"/>
+      <c r="H72" s="47"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="47"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="49"/>
+      <c r="A73" s="47"/>
       <c r="B73" s="21"/>
-      <c r="C73" s="49"/>
-      <c r="D73" s="49"/>
-      <c r="E73" s="49"/>
-      <c r="F73" s="49"/>
-      <c r="G73" s="49"/>
-      <c r="H73" s="49"/>
-      <c r="I73" s="49"/>
-      <c r="J73" s="49"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="47"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="47"/>
+      <c r="G73" s="47"/>
+      <c r="H73" s="47"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="47"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="49"/>
+      <c r="A74" s="47"/>
       <c r="B74" s="21"/>
-      <c r="C74" s="49"/>
-      <c r="D74" s="49"/>
-      <c r="E74" s="49"/>
-      <c r="F74" s="49"/>
-      <c r="G74" s="49"/>
-      <c r="H74" s="49"/>
-      <c r="I74" s="49"/>
-      <c r="J74" s="49"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="47"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="47"/>
+      <c r="G74" s="47"/>
+      <c r="H74" s="47"/>
+      <c r="I74" s="47"/>
+      <c r="J74" s="47"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="49"/>
+      <c r="A75" s="47"/>
       <c r="B75" s="21"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="49"/>
-      <c r="E75" s="49"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="49"/>
-      <c r="H75" s="49"/>
-      <c r="I75" s="49"/>
-      <c r="J75" s="49"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="47"/>
+      <c r="H75" s="47"/>
+      <c r="I75" s="47"/>
+      <c r="J75" s="47"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="49"/>
+      <c r="A76" s="47"/>
       <c r="B76" s="21"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="49"/>
-      <c r="E76" s="49"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="49"/>
-      <c r="H76" s="49"/>
-      <c r="I76" s="49"/>
-      <c r="J76" s="49"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="47"/>
+      <c r="F76" s="47"/>
+      <c r="G76" s="47"/>
+      <c r="H76" s="47"/>
+      <c r="I76" s="47"/>
+      <c r="J76" s="47"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="49"/>
+      <c r="A77" s="47"/>
       <c r="B77" s="21"/>
-      <c r="C77" s="49"/>
-      <c r="D77" s="49"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="49"/>
-      <c r="G77" s="49"/>
-      <c r="H77" s="49"/>
-      <c r="I77" s="49"/>
-      <c r="J77" s="49"/>
+      <c r="C77" s="47"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="47"/>
+      <c r="H77" s="47"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="47"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="49"/>
+      <c r="A78" s="47"/>
       <c r="B78" s="21"/>
-      <c r="C78" s="49"/>
-      <c r="D78" s="49"/>
-      <c r="E78" s="49"/>
-      <c r="F78" s="49"/>
-      <c r="G78" s="49"/>
-      <c r="H78" s="49"/>
-      <c r="I78" s="49"/>
-      <c r="J78" s="49"/>
+      <c r="C78" s="47"/>
+      <c r="D78" s="47"/>
+      <c r="E78" s="47"/>
+      <c r="F78" s="47"/>
+      <c r="G78" s="47"/>
+      <c r="H78" s="47"/>
+      <c r="I78" s="47"/>
+      <c r="J78" s="47"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="49"/>
+      <c r="A79" s="47"/>
       <c r="B79" s="21"/>
-      <c r="C79" s="49"/>
-      <c r="D79" s="49"/>
-      <c r="E79" s="49"/>
-      <c r="F79" s="49"/>
-      <c r="G79" s="49"/>
-      <c r="H79" s="49"/>
-      <c r="I79" s="49"/>
-      <c r="J79" s="49"/>
+      <c r="C79" s="47"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="47"/>
+      <c r="F79" s="47"/>
+      <c r="G79" s="47"/>
+      <c r="H79" s="47"/>
+      <c r="I79" s="47"/>
+      <c r="J79" s="47"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="49"/>
+      <c r="A80" s="47"/>
       <c r="B80" s="21"/>
-      <c r="C80" s="49"/>
-      <c r="D80" s="49"/>
-      <c r="E80" s="49"/>
-      <c r="F80" s="49"/>
-      <c r="G80" s="49"/>
-      <c r="H80" s="49"/>
-      <c r="I80" s="49"/>
-      <c r="J80" s="49"/>
+      <c r="C80" s="47"/>
+      <c r="D80" s="47"/>
+      <c r="E80" s="47"/>
+      <c r="F80" s="47"/>
+      <c r="G80" s="47"/>
+      <c r="H80" s="47"/>
+      <c r="I80" s="47"/>
+      <c r="J80" s="47"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="49"/>
+      <c r="A81" s="47"/>
       <c r="B81" s="21"/>
-      <c r="C81" s="49"/>
-      <c r="D81" s="49"/>
-      <c r="E81" s="49"/>
-      <c r="F81" s="49"/>
-      <c r="G81" s="49"/>
-      <c r="H81" s="49"/>
-      <c r="I81" s="49"/>
-      <c r="J81" s="49"/>
+      <c r="C81" s="47"/>
+      <c r="D81" s="47"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="47"/>
+      <c r="H81" s="47"/>
+      <c r="I81" s="47"/>
+      <c r="J81" s="47"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="49"/>
+      <c r="A82" s="47"/>
       <c r="B82" s="21"/>
-      <c r="C82" s="49"/>
-      <c r="D82" s="49"/>
-      <c r="E82" s="49"/>
-      <c r="F82" s="49"/>
-      <c r="G82" s="49"/>
-      <c r="H82" s="49"/>
-      <c r="I82" s="49"/>
-      <c r="J82" s="49"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="47"/>
+      <c r="E82" s="47"/>
+      <c r="F82" s="47"/>
+      <c r="G82" s="47"/>
+      <c r="H82" s="47"/>
+      <c r="I82" s="47"/>
+      <c r="J82" s="47"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="49"/>
+      <c r="A83" s="47"/>
       <c r="B83" s="21"/>
-      <c r="C83" s="49"/>
-      <c r="D83" s="49"/>
-      <c r="E83" s="49"/>
-      <c r="F83" s="49"/>
-      <c r="G83" s="49"/>
-      <c r="H83" s="49"/>
-      <c r="I83" s="49"/>
-      <c r="J83" s="49"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="47"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="47"/>
+      <c r="H83" s="47"/>
+      <c r="I83" s="47"/>
+      <c r="J83" s="47"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="49"/>
+      <c r="A84" s="47"/>
       <c r="B84" s="21"/>
-      <c r="C84" s="49"/>
-      <c r="D84" s="49"/>
-      <c r="E84" s="49"/>
-      <c r="F84" s="49"/>
-      <c r="G84" s="49"/>
-      <c r="H84" s="49"/>
-      <c r="I84" s="49"/>
-      <c r="J84" s="49"/>
+      <c r="C84" s="47"/>
+      <c r="D84" s="47"/>
+      <c r="E84" s="47"/>
+      <c r="F84" s="47"/>
+      <c r="G84" s="47"/>
+      <c r="H84" s="47"/>
+      <c r="I84" s="47"/>
+      <c r="J84" s="47"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="49"/>
+      <c r="A85" s="47"/>
       <c r="B85" s="21"/>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49"/>
-      <c r="E85" s="49"/>
-      <c r="F85" s="49"/>
-      <c r="G85" s="49"/>
-      <c r="H85" s="49"/>
-      <c r="I85" s="49"/>
-      <c r="J85" s="49"/>
+      <c r="C85" s="47"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="47"/>
+      <c r="G85" s="47"/>
+      <c r="H85" s="47"/>
+      <c r="I85" s="47"/>
+      <c r="J85" s="47"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="49"/>
+      <c r="A86" s="47"/>
       <c r="B86" s="21"/>
-      <c r="C86" s="49"/>
-      <c r="D86" s="49"/>
-      <c r="E86" s="49"/>
-      <c r="F86" s="49"/>
-      <c r="G86" s="49"/>
-      <c r="H86" s="49"/>
-      <c r="I86" s="49"/>
-      <c r="J86" s="49"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="47"/>
+      <c r="E86" s="47"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="47"/>
+      <c r="H86" s="47"/>
+      <c r="I86" s="47"/>
+      <c r="J86" s="47"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="49"/>
-      <c r="D87" s="49"/>
-      <c r="E87" s="49"/>
-      <c r="F87" s="49"/>
-      <c r="G87" s="49"/>
-      <c r="H87" s="49"/>
-      <c r="I87" s="49"/>
-      <c r="J87" s="49"/>
+      <c r="C87" s="47"/>
+      <c r="D87" s="47"/>
+      <c r="E87" s="47"/>
+      <c r="F87" s="47"/>
+      <c r="G87" s="47"/>
+      <c r="H87" s="47"/>
+      <c r="I87" s="47"/>
+      <c r="J87" s="47"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="49"/>
-      <c r="D88" s="49"/>
-      <c r="E88" s="49"/>
-      <c r="F88" s="49"/>
-      <c r="G88" s="49"/>
-      <c r="H88" s="49"/>
-      <c r="I88" s="49"/>
-      <c r="J88" s="49"/>
+      <c r="C88" s="47"/>
+      <c r="D88" s="47"/>
+      <c r="E88" s="47"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="47"/>
+      <c r="H88" s="47"/>
+      <c r="I88" s="47"/>
+      <c r="J88" s="47"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -7192,14 +7201,14 @@
     <tabColor theme="9" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C4" sqref="C4"/>
       <selection pane="topRight" activeCell="C4" sqref="C4"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" sqref="A1:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7216,314 +7225,350 @@
     <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="98" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="52" t="s">
-        <v>234</v>
-      </c>
-      <c r="I1" s="52" t="s">
-        <v>235</v>
-      </c>
-      <c r="J1" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="23"/>
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="121" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="122" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1" s="120" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1" s="120" t="s">
+        <v>356</v>
+      </c>
+      <c r="E1" s="120" t="s">
+        <v>357</v>
+      </c>
+      <c r="F1" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="120" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="120" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="120" t="s">
+        <v>211</v>
+      </c>
+      <c r="J1" s="120" t="s">
+        <v>212</v>
+      </c>
+      <c r="K1" s="120" t="s">
+        <v>28</v>
+      </c>
       <c r="L1" s="23"/>
       <c r="M1" s="23"/>
       <c r="N1" s="23"/>
       <c r="O1" s="23"/>
       <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-    </row>
-    <row r="2" spans="1:17" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="55" t="str">
-        <f t="shared" ref="C2:J2" si="0">TRIM(C1)</f>
-        <v>&lt;1</v>
-      </c>
-      <c r="D2" s="55" t="str">
+    </row>
+    <row r="2" spans="1:16" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="123" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="124" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" s="49" t="str">
+        <f t="shared" ref="C2:K2" si="0">TRIM(C1)</f>
+        <v>&lt; 1</v>
+      </c>
+      <c r="D2" s="49" t="str">
         <f t="shared" si="0"/>
-        <v>1-9</v>
-      </c>
-      <c r="E2" s="55" t="str">
+        <v>1-4</v>
+      </c>
+      <c r="E2" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>5-9</v>
+      </c>
+      <c r="F2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>10-14</v>
       </c>
-      <c r="F2" s="55" t="str">
+      <c r="G2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>15-19</v>
       </c>
-      <c r="G2" s="55" t="str">
+      <c r="H2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>20-24</v>
       </c>
-      <c r="H2" s="55" t="str">
+      <c r="I2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>25-29</v>
       </c>
-      <c r="I2" s="55" t="str">
+      <c r="J2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>30-49</v>
       </c>
-      <c r="J2" s="55" t="str">
+      <c r="K2" s="49" t="str">
         <f t="shared" si="0"/>
         <v>50+</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-    </row>
-    <row r="4" spans="1:17" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-    </row>
-    <row r="5" spans="1:17" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-    </row>
-    <row r="6" spans="1:17" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-    </row>
-    <row r="7" spans="1:17" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-    </row>
-    <row r="8" spans="1:17" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-    </row>
-    <row r="9" spans="1:17" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="80" t="s">
-        <v>205</v>
-      </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-    </row>
-    <row r="10" spans="1:17" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-    </row>
-    <row r="11" spans="1:17" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="B11" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-    </row>
-    <row r="12" spans="1:17" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-    </row>
-    <row r="13" spans="1:17" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-    </row>
-    <row r="14" spans="1:17" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-    </row>
-    <row r="15" spans="1:17" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-    </row>
-    <row r="16" spans="1:17" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="B16" s="54" t="s">
-        <v>164</v>
-      </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-    </row>
-    <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:16" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="123" t="s">
+        <v>361</v>
+      </c>
+      <c r="B3" s="124" t="s">
+        <v>362</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+    </row>
+    <row r="4" spans="1:16" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="123" t="s">
+        <v>363</v>
+      </c>
+      <c r="B4" s="124" t="s">
+        <v>364</v>
+      </c>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+    </row>
+    <row r="5" spans="1:16" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="123" t="s">
+        <v>365</v>
+      </c>
+      <c r="B5" s="124" t="s">
+        <v>366</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+    </row>
+    <row r="6" spans="1:16" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="123" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="124" t="s">
+        <v>367</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+    </row>
+    <row r="7" spans="1:16" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="123" t="s">
+        <v>368</v>
+      </c>
+      <c r="B7" s="124" t="s">
+        <v>369</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+    </row>
+    <row r="8" spans="1:16" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="123" t="s">
+        <v>370</v>
+      </c>
+      <c r="B8" s="124" t="s">
+        <v>371</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+    </row>
+    <row r="9" spans="1:16" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="123" t="s">
+        <v>372</v>
+      </c>
+      <c r="B9" s="124" t="s">
+        <v>373</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+    </row>
+    <row r="10" spans="1:16" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="123" t="s">
+        <v>374</v>
+      </c>
+      <c r="B10" s="124" t="s">
+        <v>375</v>
+      </c>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+    </row>
+    <row r="11" spans="1:16" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="123" t="s">
+        <v>376</v>
+      </c>
+      <c r="B11" s="124" t="s">
+        <v>377</v>
+      </c>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+    </row>
+    <row r="12" spans="1:16" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="123" t="s">
+        <v>378</v>
+      </c>
+      <c r="B12" s="124" t="s">
+        <v>379</v>
+      </c>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+    </row>
+    <row r="13" spans="1:16" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="123" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="124" t="s">
+        <v>380</v>
+      </c>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+    </row>
+    <row r="14" spans="1:16" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="123" t="s">
+        <v>381</v>
+      </c>
+      <c r="B14" s="124" t="s">
+        <v>382</v>
+      </c>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+    </row>
+    <row r="15" spans="1:16" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="123" t="s">
+        <v>383</v>
+      </c>
+      <c r="B15" s="124" t="s">
+        <v>384</v>
+      </c>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+    </row>
+    <row r="16" spans="1:16" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="123" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="124" t="s">
+        <v>385</v>
+      </c>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+    </row>
+    <row r="17" spans="1:2" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="123" t="s">
+        <v>386</v>
+      </c>
+      <c r="B17" s="124" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="123" t="s">
+        <v>388</v>
+      </c>
+      <c r="B18" s="124" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="123" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="124" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="123" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" s="124" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="94" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="88" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;CZAMBIA DEFENCE FORCE MEDICAL SERVICES 
 HIV/AIDS Monthly Activity Report Form </oddHeader>
